--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang khong phat sinh don hang/CRMR30401_Bao cao kh khong phat sinh don hang.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang khong phat sinh don hang/CRMR30401_Bao cao kh khong phat sinh don hang.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Khach hang khong phat sinh don hang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\ThuViec\10_DOCUMENT\13_DETAIL_DESIGN\Khach hang khong phat sinh don hang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="864" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="864" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$I$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$P$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$P$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Layout Screen'!$A$1:$J$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Update History'!$A$1:$J$42</definedName>
     <definedName name="RB">#REF!</definedName>
@@ -1590,7 +1590,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="230">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2253,21 +2253,6 @@
     <t>Ghi chú 3</t>
   </si>
   <si>
-    <t>Nhóm khách hàng không phát sinh đơn hàng trong 15-&gt;30</t>
-  </si>
-  <si>
-    <t>Nhóm khách hàng không phát sinh đơn hàng trong 31-&gt;45</t>
-  </si>
-  <si>
-    <t>Nhóm khách hàng không phát sinh đơn hàng trong &gt;61</t>
-  </si>
-  <si>
-    <t>ObjectID</t>
-  </si>
-  <si>
-    <t>ObjectName</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -2295,12 +2280,6 @@
     <t>SumAmount</t>
   </si>
   <si>
-    <t>FinalOrder</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -2308,9 +2287,6 @@
   </si>
   <si>
     <t>Notes02</t>
-  </si>
-  <si>
-    <t>Nhóm khách hàng không phát sinh đơn hàng trong 46&gt;60</t>
   </si>
   <si>
     <t>GroupTime</t>
@@ -2333,9 +2309,6 @@
   </si>
   <si>
     <t>CustomizeIndex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Từ ngày </t>
   </si>
   <si>
     <t>FromDate</t>
@@ -2366,6 +2339,18 @@
   </si>
   <si>
     <t>Control này được truyền từ CRMF3010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@DivisionID @DivisionIDList  @FromDate @ToDate   
+@FromAccountID @ToAccountID 
+@UserID
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biến môi trường @@DivisionIDList  @@FromDate @@ToDate   
+@@FromAccountID @@ToAccountID
+Biến môi trường
+</t>
   </si>
   <si>
     <t xml:space="preserve">EXEC CRMP30401(
@@ -2373,22 +2358,40 @@
   @DivisionIDList    NVARCHAR(2000), 
   @FromDate         DATETIME,
   @ToDate           DATETIME,
-@FromAccountID       Varchar(50),
+  @FromAccountID       Varchar(50),
   @ToAccountID         Varchar(50,
   @UserID  VARCHAR(50))
 </t>
   </si>
   <si>
-    <t xml:space="preserve">@DivisionID @DivisionIDList  @FromDate @ToDate   
-@FromAccountID @ToAccountID 
-@UserID
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biến môi trường @@DivisionIDList  @@FromDate @@ToDate   
-@@FromAccountID @@ToAccountID
-Biến môi trường
-</t>
+    <t>Đơn vị</t>
+  </si>
+  <si>
+    <t>DivisionID</t>
+  </si>
+  <si>
+    <t>Từ ngày</t>
+  </si>
+  <si>
+    <t>DivisionName</t>
+  </si>
+  <si>
+    <t>Tổng (theo GroupTime)</t>
+  </si>
+  <si>
+    <t>Tổng (theo các GroupTime)</t>
+  </si>
+  <si>
+    <t>Tổng (theo DivisionID)</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>Text</t>
   </si>
 </sst>
 </file>
@@ -2682,7 +2685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2960,21 +2963,23 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -2984,13 +2989,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -3325,282 +3345,258 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3610,9 +3606,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3624,6 +3617,33 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3706,19 +3726,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3657600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>4657725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3738,8 +3758,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="38100" y="1009650"/>
-          <a:ext cx="10496550" cy="3905250"/>
+          <a:off x="85725" y="1162050"/>
+          <a:ext cx="11449050" cy="3533775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4550,65 +4570,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="161"/>
-      <c r="B1" s="161"/>
-      <c r="C1" s="163" t="s">
+      <c r="A1" s="152"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="154" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="162" t="s">
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162" t="s">
+      <c r="H1" s="153"/>
+      <c r="I1" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="162"/>
+      <c r="J1" s="153"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="161"/>
-      <c r="B2" s="161"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="162" t="s">
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="153" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="161"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="158" t="s">
+      <c r="A3" s="152"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="149" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="159"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="159"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="150"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="116"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="160"/>
-      <c r="B13" s="160"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="160"/>
+      <c r="A13" s="151"/>
+      <c r="B13" s="151"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
       <c r="K13" s="117"/>
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
@@ -4619,56 +4639,56 @@
       <c r="R13" s="117"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="154"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="154"/>
-      <c r="N14" s="154"/>
-      <c r="O14" s="154"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="154"/>
-      <c r="R14" s="154"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="147"/>
+      <c r="P14" s="147"/>
+      <c r="Q14" s="147"/>
+      <c r="R14" s="147"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="154"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="154"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="147"/>
+      <c r="O15" s="147"/>
+      <c r="P15" s="147"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="147"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
       <c r="K16" s="118"/>
       <c r="L16" s="118"/>
       <c r="M16" s="118"/>
@@ -4679,384 +4699,384 @@
       <c r="R16" s="118"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="154"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="147"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="147"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="154"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="147"/>
+      <c r="P18" s="147"/>
+      <c r="Q18" s="147"/>
+      <c r="R18" s="147"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="156"/>
-      <c r="Q19" s="156"/>
-      <c r="R19" s="156"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="164"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="164"/>
+      <c r="O19" s="164"/>
+      <c r="P19" s="164"/>
+      <c r="Q19" s="164"/>
+      <c r="R19" s="164"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="154"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="154"/>
-      <c r="N20" s="154"/>
-      <c r="O20" s="154"/>
-      <c r="P20" s="154"/>
-      <c r="Q20" s="154"/>
-      <c r="R20" s="154"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="147"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="147"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="154"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="154"/>
-      <c r="O21" s="154"/>
-      <c r="P21" s="154"/>
-      <c r="Q21" s="154"/>
-      <c r="R21" s="154"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="147"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="147"/>
+      <c r="O21" s="147"/>
+      <c r="P21" s="147"/>
+      <c r="Q21" s="147"/>
+      <c r="R21" s="147"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="155"/>
-      <c r="O22" s="155"/>
-      <c r="P22" s="155"/>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="155"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="163"/>
+      <c r="O22" s="163"/>
+      <c r="P22" s="163"/>
+      <c r="Q22" s="163"/>
+      <c r="R22" s="163"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="155"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="155"/>
-      <c r="O23" s="155"/>
-      <c r="P23" s="155"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="155"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="163"/>
+      <c r="P23" s="163"/>
+      <c r="Q23" s="163"/>
+      <c r="R23" s="163"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="152"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="152"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="152"/>
-      <c r="R26" s="152"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="165"/>
+      <c r="N26" s="165"/>
+      <c r="O26" s="165"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="165"/>
+      <c r="R26" s="165"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
-      <c r="N28" s="153"/>
-      <c r="O28" s="153"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="153"/>
-      <c r="R28" s="153"/>
-      <c r="S28" s="151"/>
-      <c r="T28" s="151"/>
-      <c r="U28" s="151"/>
-      <c r="V28" s="151"/>
-      <c r="W28" s="151"/>
-      <c r="X28" s="151"/>
-      <c r="Y28" s="151"/>
-      <c r="Z28" s="151"/>
-      <c r="AA28" s="151"/>
-      <c r="AB28" s="151"/>
-      <c r="AC28" s="151"/>
-      <c r="AD28" s="151"/>
-      <c r="AE28" s="151"/>
-      <c r="AF28" s="151"/>
-      <c r="AG28" s="151"/>
-      <c r="AH28" s="151"/>
-      <c r="AI28" s="151"/>
-      <c r="AJ28" s="151"/>
-      <c r="AK28" s="151"/>
-      <c r="AL28" s="151"/>
-      <c r="AM28" s="151"/>
-      <c r="AN28" s="151"/>
-      <c r="AO28" s="151"/>
-      <c r="AP28" s="151"/>
-      <c r="AQ28" s="151"/>
-      <c r="AR28" s="151"/>
-      <c r="AS28" s="151"/>
-      <c r="AT28" s="151"/>
-      <c r="AU28" s="151"/>
-      <c r="AV28" s="151"/>
-      <c r="AW28" s="151"/>
-      <c r="AX28" s="151"/>
-      <c r="AY28" s="151"/>
-      <c r="AZ28" s="151"/>
-      <c r="BA28" s="151"/>
-      <c r="BB28" s="151"/>
-      <c r="BC28" s="151"/>
-      <c r="BD28" s="151"/>
-      <c r="BE28" s="151"/>
-      <c r="BF28" s="151"/>
-      <c r="BG28" s="151"/>
-      <c r="BH28" s="151"/>
-      <c r="BI28" s="151"/>
-      <c r="BJ28" s="151"/>
-      <c r="BK28" s="151"/>
-      <c r="BL28" s="151"/>
-      <c r="BM28" s="151"/>
-      <c r="BN28" s="151"/>
-      <c r="BO28" s="151"/>
-      <c r="BP28" s="151"/>
-      <c r="BQ28" s="151"/>
-      <c r="BR28" s="151"/>
-      <c r="BS28" s="151"/>
-      <c r="BT28" s="151"/>
-      <c r="BU28" s="151"/>
-      <c r="BV28" s="151"/>
-      <c r="BW28" s="151"/>
-      <c r="BX28" s="151"/>
-      <c r="BY28" s="151"/>
-      <c r="BZ28" s="151"/>
-      <c r="CA28" s="151"/>
-      <c r="CB28" s="151"/>
-      <c r="CC28" s="151"/>
-      <c r="CD28" s="151"/>
-      <c r="CE28" s="151"/>
-      <c r="CF28" s="151"/>
-      <c r="CG28" s="151"/>
-      <c r="CH28" s="151"/>
-      <c r="CI28" s="151"/>
-      <c r="CJ28" s="151"/>
-      <c r="CK28" s="151"/>
-      <c r="CL28" s="151"/>
-      <c r="CM28" s="151"/>
-      <c r="CN28" s="151"/>
-      <c r="CO28" s="151"/>
-      <c r="CP28" s="151"/>
-      <c r="CQ28" s="151"/>
-      <c r="CR28" s="151"/>
-      <c r="CS28" s="151"/>
-      <c r="CT28" s="151"/>
-      <c r="CU28" s="151"/>
-      <c r="CV28" s="151"/>
-      <c r="CW28" s="151"/>
-      <c r="CX28" s="151"/>
-      <c r="CY28" s="151"/>
-      <c r="CZ28" s="151"/>
-      <c r="DA28" s="151"/>
-      <c r="DB28" s="151"/>
-      <c r="DC28" s="151"/>
-      <c r="DD28" s="151"/>
-      <c r="DE28" s="151"/>
-      <c r="DF28" s="151"/>
-      <c r="DG28" s="151"/>
-      <c r="DH28" s="151"/>
-      <c r="DI28" s="151"/>
-      <c r="DJ28" s="151"/>
-      <c r="DK28" s="151"/>
-      <c r="DL28" s="151"/>
-      <c r="DM28" s="151"/>
-      <c r="DN28" s="151"/>
-      <c r="DO28" s="151"/>
-      <c r="DP28" s="151"/>
-      <c r="DQ28" s="151"/>
-      <c r="DR28" s="151"/>
-      <c r="DS28" s="151"/>
-      <c r="DT28" s="151"/>
-      <c r="DU28" s="151"/>
-      <c r="DV28" s="151"/>
-      <c r="DW28" s="151"/>
-      <c r="DX28" s="151"/>
-      <c r="DY28" s="151"/>
-      <c r="DZ28" s="151"/>
-      <c r="EA28" s="151"/>
-      <c r="EB28" s="151"/>
-      <c r="EC28" s="151"/>
-      <c r="ED28" s="151"/>
-      <c r="EE28" s="151"/>
-      <c r="EF28" s="151"/>
-      <c r="EG28" s="151"/>
-      <c r="EH28" s="151"/>
-      <c r="EI28" s="151"/>
-      <c r="EJ28" s="151"/>
-      <c r="EK28" s="151"/>
-      <c r="EL28" s="151"/>
-      <c r="EM28" s="151"/>
-      <c r="EN28" s="151"/>
-      <c r="EO28" s="151"/>
-      <c r="EP28" s="151"/>
-      <c r="EQ28" s="151"/>
-      <c r="ER28" s="151"/>
-      <c r="ES28" s="151"/>
-      <c r="ET28" s="151"/>
-      <c r="EU28" s="151"/>
-      <c r="EV28" s="151"/>
-      <c r="EW28" s="151"/>
-      <c r="EX28" s="151"/>
-      <c r="EY28" s="151"/>
-      <c r="EZ28" s="151"/>
-      <c r="FA28" s="151"/>
-      <c r="FB28" s="151"/>
-      <c r="FC28" s="151"/>
-      <c r="FD28" s="151"/>
-      <c r="FE28" s="151"/>
-      <c r="FF28" s="151"/>
-      <c r="FG28" s="151"/>
-      <c r="FH28" s="151"/>
-      <c r="FI28" s="151"/>
-      <c r="FJ28" s="151"/>
-      <c r="FK28" s="151"/>
-      <c r="FL28" s="151"/>
-      <c r="FM28" s="151"/>
-      <c r="FN28" s="151"/>
-      <c r="FO28" s="151"/>
-      <c r="FP28" s="151"/>
-      <c r="FQ28" s="151"/>
-      <c r="FR28" s="151"/>
-      <c r="FS28" s="151"/>
-      <c r="FT28" s="151"/>
-      <c r="FU28" s="151"/>
-      <c r="FV28" s="151"/>
-      <c r="FW28" s="151"/>
-      <c r="FX28" s="151"/>
-      <c r="FY28" s="151"/>
-      <c r="FZ28" s="151"/>
-      <c r="GA28" s="151"/>
-      <c r="GB28" s="151"/>
-      <c r="GC28" s="151"/>
-      <c r="GD28" s="151"/>
-      <c r="GE28" s="151"/>
-      <c r="GF28" s="151"/>
-      <c r="GG28" s="151"/>
-      <c r="GH28" s="151"/>
-      <c r="GI28" s="151"/>
-      <c r="GJ28" s="151"/>
-      <c r="GK28" s="151"/>
-      <c r="GL28" s="151"/>
+      <c r="B28" s="167"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="167"/>
+      <c r="L28" s="167"/>
+      <c r="M28" s="167"/>
+      <c r="N28" s="167"/>
+      <c r="O28" s="167"/>
+      <c r="P28" s="167"/>
+      <c r="Q28" s="167"/>
+      <c r="R28" s="167"/>
+      <c r="S28" s="166"/>
+      <c r="T28" s="166"/>
+      <c r="U28" s="166"/>
+      <c r="V28" s="166"/>
+      <c r="W28" s="166"/>
+      <c r="X28" s="166"/>
+      <c r="Y28" s="166"/>
+      <c r="Z28" s="166"/>
+      <c r="AA28" s="166"/>
+      <c r="AB28" s="166"/>
+      <c r="AC28" s="166"/>
+      <c r="AD28" s="166"/>
+      <c r="AE28" s="166"/>
+      <c r="AF28" s="166"/>
+      <c r="AG28" s="166"/>
+      <c r="AH28" s="166"/>
+      <c r="AI28" s="166"/>
+      <c r="AJ28" s="166"/>
+      <c r="AK28" s="166"/>
+      <c r="AL28" s="166"/>
+      <c r="AM28" s="166"/>
+      <c r="AN28" s="166"/>
+      <c r="AO28" s="166"/>
+      <c r="AP28" s="166"/>
+      <c r="AQ28" s="166"/>
+      <c r="AR28" s="166"/>
+      <c r="AS28" s="166"/>
+      <c r="AT28" s="166"/>
+      <c r="AU28" s="166"/>
+      <c r="AV28" s="166"/>
+      <c r="AW28" s="166"/>
+      <c r="AX28" s="166"/>
+      <c r="AY28" s="166"/>
+      <c r="AZ28" s="166"/>
+      <c r="BA28" s="166"/>
+      <c r="BB28" s="166"/>
+      <c r="BC28" s="166"/>
+      <c r="BD28" s="166"/>
+      <c r="BE28" s="166"/>
+      <c r="BF28" s="166"/>
+      <c r="BG28" s="166"/>
+      <c r="BH28" s="166"/>
+      <c r="BI28" s="166"/>
+      <c r="BJ28" s="166"/>
+      <c r="BK28" s="166"/>
+      <c r="BL28" s="166"/>
+      <c r="BM28" s="166"/>
+      <c r="BN28" s="166"/>
+      <c r="BO28" s="166"/>
+      <c r="BP28" s="166"/>
+      <c r="BQ28" s="166"/>
+      <c r="BR28" s="166"/>
+      <c r="BS28" s="166"/>
+      <c r="BT28" s="166"/>
+      <c r="BU28" s="166"/>
+      <c r="BV28" s="166"/>
+      <c r="BW28" s="166"/>
+      <c r="BX28" s="166"/>
+      <c r="BY28" s="166"/>
+      <c r="BZ28" s="166"/>
+      <c r="CA28" s="166"/>
+      <c r="CB28" s="166"/>
+      <c r="CC28" s="166"/>
+      <c r="CD28" s="166"/>
+      <c r="CE28" s="166"/>
+      <c r="CF28" s="166"/>
+      <c r="CG28" s="166"/>
+      <c r="CH28" s="166"/>
+      <c r="CI28" s="166"/>
+      <c r="CJ28" s="166"/>
+      <c r="CK28" s="166"/>
+      <c r="CL28" s="166"/>
+      <c r="CM28" s="166"/>
+      <c r="CN28" s="166"/>
+      <c r="CO28" s="166"/>
+      <c r="CP28" s="166"/>
+      <c r="CQ28" s="166"/>
+      <c r="CR28" s="166"/>
+      <c r="CS28" s="166"/>
+      <c r="CT28" s="166"/>
+      <c r="CU28" s="166"/>
+      <c r="CV28" s="166"/>
+      <c r="CW28" s="166"/>
+      <c r="CX28" s="166"/>
+      <c r="CY28" s="166"/>
+      <c r="CZ28" s="166"/>
+      <c r="DA28" s="166"/>
+      <c r="DB28" s="166"/>
+      <c r="DC28" s="166"/>
+      <c r="DD28" s="166"/>
+      <c r="DE28" s="166"/>
+      <c r="DF28" s="166"/>
+      <c r="DG28" s="166"/>
+      <c r="DH28" s="166"/>
+      <c r="DI28" s="166"/>
+      <c r="DJ28" s="166"/>
+      <c r="DK28" s="166"/>
+      <c r="DL28" s="166"/>
+      <c r="DM28" s="166"/>
+      <c r="DN28" s="166"/>
+      <c r="DO28" s="166"/>
+      <c r="DP28" s="166"/>
+      <c r="DQ28" s="166"/>
+      <c r="DR28" s="166"/>
+      <c r="DS28" s="166"/>
+      <c r="DT28" s="166"/>
+      <c r="DU28" s="166"/>
+      <c r="DV28" s="166"/>
+      <c r="DW28" s="166"/>
+      <c r="DX28" s="166"/>
+      <c r="DY28" s="166"/>
+      <c r="DZ28" s="166"/>
+      <c r="EA28" s="166"/>
+      <c r="EB28" s="166"/>
+      <c r="EC28" s="166"/>
+      <c r="ED28" s="166"/>
+      <c r="EE28" s="166"/>
+      <c r="EF28" s="166"/>
+      <c r="EG28" s="166"/>
+      <c r="EH28" s="166"/>
+      <c r="EI28" s="166"/>
+      <c r="EJ28" s="166"/>
+      <c r="EK28" s="166"/>
+      <c r="EL28" s="166"/>
+      <c r="EM28" s="166"/>
+      <c r="EN28" s="166"/>
+      <c r="EO28" s="166"/>
+      <c r="EP28" s="166"/>
+      <c r="EQ28" s="166"/>
+      <c r="ER28" s="166"/>
+      <c r="ES28" s="166"/>
+      <c r="ET28" s="166"/>
+      <c r="EU28" s="166"/>
+      <c r="EV28" s="166"/>
+      <c r="EW28" s="166"/>
+      <c r="EX28" s="166"/>
+      <c r="EY28" s="166"/>
+      <c r="EZ28" s="166"/>
+      <c r="FA28" s="166"/>
+      <c r="FB28" s="166"/>
+      <c r="FC28" s="166"/>
+      <c r="FD28" s="166"/>
+      <c r="FE28" s="166"/>
+      <c r="FF28" s="166"/>
+      <c r="FG28" s="166"/>
+      <c r="FH28" s="166"/>
+      <c r="FI28" s="166"/>
+      <c r="FJ28" s="166"/>
+      <c r="FK28" s="166"/>
+      <c r="FL28" s="166"/>
+      <c r="FM28" s="166"/>
+      <c r="FN28" s="166"/>
+      <c r="FO28" s="166"/>
+      <c r="FP28" s="166"/>
+      <c r="FQ28" s="166"/>
+      <c r="FR28" s="166"/>
+      <c r="FS28" s="166"/>
+      <c r="FT28" s="166"/>
+      <c r="FU28" s="166"/>
+      <c r="FV28" s="166"/>
+      <c r="FW28" s="166"/>
+      <c r="FX28" s="166"/>
+      <c r="FY28" s="166"/>
+      <c r="FZ28" s="166"/>
+      <c r="GA28" s="166"/>
+      <c r="GB28" s="166"/>
+      <c r="GC28" s="166"/>
+      <c r="GD28" s="166"/>
+      <c r="GE28" s="166"/>
+      <c r="GF28" s="166"/>
+      <c r="GG28" s="166"/>
+      <c r="GH28" s="166"/>
+      <c r="GI28" s="166"/>
+      <c r="GJ28" s="166"/>
+      <c r="GK28" s="166"/>
+      <c r="GL28" s="166"/>
       <c r="GM28" s="119"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="152"/>
-      <c r="L29" s="152"/>
-      <c r="M29" s="152"/>
-      <c r="N29" s="152"/>
-      <c r="O29" s="152"/>
-      <c r="P29" s="152"/>
-      <c r="Q29" s="152"/>
-      <c r="R29" s="152"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="165"/>
+      <c r="Q29" s="165"/>
+      <c r="R29" s="165"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="150"/>
-      <c r="B30" s="150"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
+      <c r="A30" s="168"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="168"/>
       <c r="K30" s="120"/>
       <c r="L30" s="120"/>
       <c r="M30" s="120"/>
@@ -5067,16 +5087,16 @@
       <c r="R30" s="120"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="150"/>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
+      <c r="A31" s="168"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="168"/>
       <c r="K31" s="120"/>
       <c r="L31" s="120"/>
       <c r="M31" s="120"/>
@@ -5088,6 +5108,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -5101,28 +5143,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5149,14 +5169,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="225" t="s">
+      <c r="B1" s="216" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5349,11 +5369,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="226" t="s">
+      <c r="E27" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="227"/>
-      <c r="G27" s="228"/>
+      <c r="F27" s="218"/>
+      <c r="G27" s="219"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5677,10 +5697,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="179"/>
+      <c r="B1" s="175"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5691,7 +5711,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5707,8 +5727,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="179"/>
-      <c r="B2" s="179"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5747,14 +5767,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="180" t="s">
+      <c r="E4" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="176"/>
     </row>
     <row r="5" spans="1:10" ht="33" customHeight="1">
       <c r="A5" s="40">
@@ -5769,14 +5789,14 @@
       <c r="D5" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="181" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="172"/>
+      <c r="E5" s="177" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="178"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="89">
@@ -5787,12 +5807,12 @@
       </c>
       <c r="C6" s="77"/>
       <c r="D6" s="64"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="184"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="181"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="90">
@@ -5803,12 +5823,12 @@
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="175"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="171"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="91">
@@ -5819,12 +5839,12 @@
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="178"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="174"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="92">
@@ -5835,12 +5855,12 @@
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="175"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="171"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="93">
@@ -5851,12 +5871,12 @@
       </c>
       <c r="C10" s="78"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="175"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="171"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="94">
@@ -5867,12 +5887,12 @@
       </c>
       <c r="C11" s="78"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="174"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="175"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="171"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="95">
@@ -5883,12 +5903,12 @@
       </c>
       <c r="C12" s="78"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="175"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="171"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="96">
@@ -5899,12 +5919,12 @@
       </c>
       <c r="C13" s="78"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="174"/>
-      <c r="H13" s="174"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="175"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="171"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="97">
@@ -5915,12 +5935,12 @@
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="174"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="175"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="171"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5931,12 +5951,12 @@
       </c>
       <c r="C15" s="78"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="178"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="89">
@@ -5947,12 +5967,12 @@
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="90">
@@ -5963,12 +5983,12 @@
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="178"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="91">
@@ -5979,12 +5999,12 @@
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="92">
@@ -5995,12 +6015,12 @@
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="172"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="178"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="93">
@@ -6011,12 +6031,12 @@
       </c>
       <c r="C20" s="78"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="172"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="178"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="94">
@@ -6027,12 +6047,12 @@
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="172"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="178"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="95">
@@ -6043,12 +6063,12 @@
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="172"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="178"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="96">
@@ -6059,12 +6079,12 @@
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="172"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="178"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="97">
@@ -6075,12 +6095,12 @@
       </c>
       <c r="C24" s="78"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="178"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -6091,12 +6111,12 @@
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="172"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="178"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -6107,12 +6127,12 @@
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="172"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="178"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="89">
@@ -6123,12 +6143,12 @@
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="172"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="178"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="90">
@@ -6139,12 +6159,12 @@
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="172"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="178"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="91">
@@ -6155,12 +6175,12 @@
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="178"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="92">
@@ -6171,12 +6191,12 @@
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="172"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="178"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="93">
@@ -6187,12 +6207,12 @@
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="172"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="178"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="94">
@@ -6203,12 +6223,12 @@
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="172"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="172"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="178"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="178"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="95">
@@ -6219,12 +6239,12 @@
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="172"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="178"/>
+      <c r="H33" s="178"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="178"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="96">
@@ -6235,12 +6255,12 @@
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="172"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="178"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="178"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="97">
@@ -6251,12 +6271,12 @@
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="178"/>
+      <c r="G35" s="178"/>
+      <c r="H35" s="178"/>
+      <c r="I35" s="178"/>
+      <c r="J35" s="178"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6267,12 +6287,12 @@
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="172"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="178"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="89">
@@ -6283,12 +6303,12 @@
       </c>
       <c r="C37" s="78"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="172"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="178"/>
+      <c r="G37" s="178"/>
+      <c r="H37" s="178"/>
+      <c r="I37" s="178"/>
+      <c r="J37" s="178"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="90">
@@ -6299,12 +6319,12 @@
       </c>
       <c r="C38" s="78"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="172"/>
+      <c r="E38" s="178"/>
+      <c r="F38" s="178"/>
+      <c r="G38" s="178"/>
+      <c r="H38" s="178"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="178"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="91">
@@ -6315,12 +6335,12 @@
       </c>
       <c r="C39" s="78"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="172"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="172"/>
+      <c r="E39" s="178"/>
+      <c r="F39" s="178"/>
+      <c r="G39" s="178"/>
+      <c r="H39" s="178"/>
+      <c r="I39" s="178"/>
+      <c r="J39" s="178"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="92">
@@ -6331,12 +6351,12 @@
       </c>
       <c r="C40" s="78"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="172"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="172"/>
+      <c r="E40" s="178"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="178"/>
+      <c r="J40" s="178"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="93">
@@ -6347,12 +6367,12 @@
       </c>
       <c r="C41" s="78"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="172"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="172"/>
+      <c r="E41" s="178"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="178"/>
+      <c r="H41" s="178"/>
+      <c r="I41" s="178"/>
+      <c r="J41" s="178"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="94">
@@ -6363,23 +6383,32 @@
       </c>
       <c r="C42" s="78"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="172"/>
-      <c r="F42" s="172"/>
-      <c r="G42" s="172"/>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="172"/>
+      <c r="E42" s="178"/>
+      <c r="F42" s="178"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6395,23 +6424,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6449,16 +6469,16 @@
     <col min="5" max="5" width="12.85546875" style="22" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" style="22" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="55.28515625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="72.5703125" style="22" customWidth="1"/>
     <col min="9" max="10" width="12.7109375" style="22" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="179"/>
+      <c r="B1" s="175"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6488,8 +6508,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="179"/>
-      <c r="B2" s="179"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6519,20 +6539,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="185" t="s">
+      <c r="A4" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="185" t="s">
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="186"/>
+      <c r="J4" s="183"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6543,10 +6563,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="194" t="s">
+      <c r="I5" s="191" t="s">
         <v>171</v>
       </c>
-      <c r="J5" s="195"/>
+      <c r="J5" s="192"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6557,8 +6577,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="197"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="194"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6569,8 +6589,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="196"/>
-      <c r="J7" s="197"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="194"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6581,8 +6601,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="197"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="194"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6593,8 +6613,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="194"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6605,8 +6625,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="196"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6617,10 +6637,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="185" t="s">
+      <c r="I11" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="186"/>
+      <c r="J11" s="183"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6631,10 +6651,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="188" t="s">
-        <v>223</v>
-      </c>
-      <c r="J12" s="189"/>
+      <c r="I12" s="185" t="s">
+        <v>214</v>
+      </c>
+      <c r="J12" s="186"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6645,8 +6665,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="190"/>
-      <c r="J13" s="191"/>
+      <c r="I13" s="187"/>
+      <c r="J13" s="188"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6657,8 +6677,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="191"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="188"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6669,8 +6689,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="190"/>
-      <c r="J15" s="191"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="188"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6681,8 +6701,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="191"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="188"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6693,8 +6713,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="191"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="188"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6705,8 +6725,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="190"/>
-      <c r="J18" s="191"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="188"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6717,8 +6737,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="190"/>
-      <c r="J19" s="191"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="188"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6729,8 +6749,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="191"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="188"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6741,8 +6761,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="190"/>
-      <c r="J21" s="191"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="188"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6753,8 +6773,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="190"/>
-      <c r="J22" s="191"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="188"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6765,8 +6785,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="190"/>
-      <c r="J23" s="191"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="188"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6777,8 +6797,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="190"/>
-      <c r="J24" s="191"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="188"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6789,8 +6809,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="190"/>
-      <c r="J25" s="191"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="188"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6801,8 +6821,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="190"/>
-      <c r="J26" s="191"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="188"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6813,8 +6833,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="190"/>
-      <c r="J27" s="191"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="188"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6825,8 +6845,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="190"/>
-      <c r="J28" s="191"/>
+      <c r="I28" s="187"/>
+      <c r="J28" s="188"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6837,8 +6857,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="190"/>
-      <c r="J29" s="191"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="188"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6849,8 +6869,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="190"/>
-      <c r="J30" s="191"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="188"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6861,8 +6881,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="190"/>
-      <c r="J31" s="191"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="188"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6873,8 +6893,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="190"/>
-      <c r="J32" s="191"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="188"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6885,8 +6905,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="190"/>
-      <c r="J33" s="191"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="188"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6897,8 +6917,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="190"/>
-      <c r="J34" s="191"/>
+      <c r="I34" s="187"/>
+      <c r="J34" s="188"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6909,8 +6929,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="190"/>
-      <c r="J35" s="191"/>
+      <c r="I35" s="187"/>
+      <c r="J35" s="188"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6921,8 +6941,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="190"/>
-      <c r="J36" s="191"/>
+      <c r="I36" s="187"/>
+      <c r="J36" s="188"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6933,8 +6953,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="190"/>
-      <c r="J37" s="191"/>
+      <c r="I37" s="187"/>
+      <c r="J37" s="188"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6945,8 +6965,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="190"/>
-      <c r="J38" s="191"/>
+      <c r="I38" s="187"/>
+      <c r="J38" s="188"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6957,8 +6977,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="190"/>
-      <c r="J39" s="191"/>
+      <c r="I39" s="187"/>
+      <c r="J39" s="188"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6969,8 +6989,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="190"/>
-      <c r="J40" s="191"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="188"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6981,8 +7001,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="190"/>
-      <c r="J41" s="191"/>
+      <c r="I41" s="187"/>
+      <c r="J41" s="188"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6993,8 +7013,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="190"/>
-      <c r="J42" s="191"/>
+      <c r="I42" s="187"/>
+      <c r="J42" s="188"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -7005,8 +7025,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="192"/>
-      <c r="J43" s="193"/>
+      <c r="I43" s="189"/>
+      <c r="J43" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7018,7 +7038,7 @@
     <mergeCell ref="I11:J11"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.6" bottom="0.3" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;L&amp;"Ta,Regular"&amp;10CONFIDENTIAL&amp;C&amp;"Tahoma,Regular"&amp;10&amp;P&amp;R&amp;"Tahoma,Regular"&amp;10© 2010 ASOFT JSC. All rights reserved.</oddFooter>
@@ -7034,13 +7054,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P30" sqref="P30"/>
+      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -7049,7 +7069,7 @@
     <col min="2" max="2" width="6.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="22" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="52" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" style="135" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="133" customWidth="1"/>
     <col min="6" max="6" width="26.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
@@ -7065,13 +7085,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7079,15 +7099,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="209" t="s">
+      <c r="H1" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="210"/>
-      <c r="J1" s="200" t="s">
-        <v>211</v>
-      </c>
-      <c r="K1" s="201"/>
-      <c r="L1" s="202"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="197" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="198"/>
+      <c r="L1" s="199"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -7103,11 +7123,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="179"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7115,16 +7135,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="H2" s="209" t="s">
+      <c r="H2" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="210"/>
-      <c r="J2" s="200" t="str">
+      <c r="I2" s="201"/>
+      <c r="J2" s="197" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo KH không phát sinh đơn hàng</v>
       </c>
-      <c r="K2" s="201"/>
-      <c r="L2" s="202"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="199"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -7147,7 +7167,7 @@
         <v>161</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>109</v>
@@ -7190,19 +7210,19 @@
       </c>
     </row>
     <row r="5" spans="1:16" s="34" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A5" s="33">
+      <c r="A5" s="35">
         <v>1</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="35">
         <v>51</v>
       </c>
       <c r="D5" s="35">
         <v>1</v>
       </c>
-      <c r="E5" s="127" t="str">
+      <c r="E5" s="81" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo KH không phát sinh đơn hàng</v>
       </c>
@@ -7224,30 +7244,30 @@
       <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A6" s="33">
+      <c r="A6" s="35">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="35">
         <v>51</v>
       </c>
       <c r="D6" s="35">
         <v>2</v>
       </c>
-      <c r="E6" s="74" t="s">
-        <v>172</v>
+      <c r="E6" s="225" t="s">
+        <v>222</v>
       </c>
       <c r="F6" s="86" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="G6" s="127"/>
       <c r="H6" s="40" t="s">
         <v>163</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="J6" s="61"/>
       <c r="K6" s="61"/>
@@ -7257,35 +7277,35 @@
       <c r="M6" s="68"/>
       <c r="N6" s="68"/>
       <c r="O6" s="68"/>
-      <c r="P6" s="86"/>
+      <c r="P6" s="145" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="7" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A7" s="33">
+      <c r="A7" s="35">
         <v>3</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="35">
         <v>51</v>
       </c>
-      <c r="D7" s="131">
+      <c r="D7" s="130">
         <v>3</v>
       </c>
-      <c r="E7" s="133" t="s">
-        <v>173</v>
+      <c r="E7" s="137" t="s">
+        <v>209</v>
       </c>
       <c r="F7" s="126" t="s">
-        <v>192</v>
-      </c>
-      <c r="G7" s="130" t="s">
-        <v>192</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G7" s="129"/>
       <c r="H7" s="40" t="s">
         <v>163</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="J7" s="61"/>
       <c r="K7" s="61"/>
@@ -7295,103 +7315,95 @@
       <c r="M7" s="86"/>
       <c r="N7" s="86"/>
       <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-    </row>
-    <row r="8" spans="1:16" s="34" customFormat="1" ht="11.25">
-      <c r="A8" s="33">
+      <c r="P7" s="145" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A8" s="223">
         <v>4</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="223" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="223">
         <v>51</v>
       </c>
-      <c r="D8" s="131">
+      <c r="D8" s="220">
         <v>4</v>
       </c>
-      <c r="E8" s="133" t="s">
-        <v>174</v>
-      </c>
-      <c r="F8" s="126" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="130" t="s">
-        <v>193</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="I8" s="40"/>
+      <c r="E8" s="226" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="146" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8" s="146" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="J8" s="61"/>
       <c r="K8" s="61"/>
       <c r="L8" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="86"/>
-    </row>
-    <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="33">
-        <v>5</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="33">
-        <v>51</v>
-      </c>
-      <c r="D9" s="35">
-        <v>5</v>
-      </c>
-      <c r="E9" s="133" t="s">
-        <v>175</v>
-      </c>
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+    </row>
+    <row r="9" spans="1:16" s="34" customFormat="1" ht="11.25">
+      <c r="A9" s="224"/>
+      <c r="B9" s="224"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="227"/>
       <c r="F9" s="126" t="s">
-        <v>194</v>
-      </c>
-      <c r="G9" s="130" t="s">
-        <v>194</v>
+        <v>223</v>
+      </c>
+      <c r="G9" s="146" t="s">
+        <v>223</v>
       </c>
       <c r="H9" s="40" t="s">
         <v>163</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="J9" s="61"/>
       <c r="K9" s="61"/>
       <c r="L9" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
       <c r="P9" s="86"/>
     </row>
     <row r="10" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="33">
-        <v>6</v>
-      </c>
-      <c r="B10" s="33" t="s">
+      <c r="A10" s="35">
+        <v>5</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="35">
         <v>51</v>
       </c>
       <c r="D10" s="35">
-        <v>6</v>
-      </c>
-      <c r="E10" s="133" t="s">
-        <v>176</v>
+        <v>5</v>
+      </c>
+      <c r="E10" s="225" t="s">
+        <v>172</v>
       </c>
       <c r="F10" s="126" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="130" t="s">
-        <v>195</v>
+        <v>189</v>
+      </c>
+      <c r="G10" s="146" t="s">
+        <v>189</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>163</v>
@@ -7404,112 +7416,114 @@
       <c r="L10" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
       <c r="P10" s="86"/>
     </row>
     <row r="11" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="33">
-        <v>7</v>
-      </c>
-      <c r="B11" s="33" t="s">
+      <c r="A11" s="35">
+        <v>6</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="35">
         <v>51</v>
       </c>
-      <c r="D11" s="131">
-        <v>7</v>
-      </c>
-      <c r="E11" s="133" t="s">
-        <v>177</v>
+      <c r="D11" s="35">
+        <v>6</v>
+      </c>
+      <c r="E11" s="137" t="s">
+        <v>173</v>
       </c>
       <c r="F11" s="126" t="s">
-        <v>196</v>
-      </c>
-      <c r="G11" s="130" t="s">
-        <v>196</v>
+        <v>190</v>
+      </c>
+      <c r="G11" s="146" t="s">
+        <v>190</v>
       </c>
       <c r="H11" s="40" t="s">
         <v>163</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="J11" s="61"/>
       <c r="K11" s="61"/>
       <c r="L11" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="M11" s="82"/>
+      <c r="M11" s="68"/>
       <c r="N11" s="68"/>
       <c r="O11" s="68"/>
       <c r="P11" s="86"/>
     </row>
-    <row r="12" spans="1:16" s="34" customFormat="1" ht="11.25">
-      <c r="A12" s="33">
-        <v>8</v>
-      </c>
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A12" s="35">
+        <v>7</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="35">
         <v>51</v>
       </c>
-      <c r="D12" s="131">
-        <v>8</v>
-      </c>
-      <c r="E12" s="133" t="s">
-        <v>178</v>
+      <c r="D12" s="130">
+        <v>7</v>
+      </c>
+      <c r="E12" s="137" t="s">
+        <v>174</v>
       </c>
       <c r="F12" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="G12" s="130"/>
+        <v>191</v>
+      </c>
+      <c r="G12" s="146" t="s">
+        <v>191</v>
+      </c>
       <c r="H12" s="40" t="s">
         <v>163</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="J12" s="61"/>
       <c r="K12" s="61"/>
       <c r="L12" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="M12" s="88"/>
+      <c r="M12" s="82"/>
       <c r="N12" s="68"/>
       <c r="O12" s="68"/>
       <c r="P12" s="86"/>
     </row>
-    <row r="13" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A13" s="33">
-        <v>9</v>
-      </c>
-      <c r="B13" s="33" t="s">
+    <row r="13" spans="1:16" s="34" customFormat="1" ht="11.25">
+      <c r="A13" s="35">
+        <v>8</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="35">
         <v>51</v>
       </c>
-      <c r="D13" s="131">
-        <v>8.1</v>
-      </c>
-      <c r="E13" s="133" t="s">
-        <v>179</v>
-      </c>
-      <c r="F13" s="130" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" s="130" t="s">
-        <v>197</v>
+      <c r="D13" s="130">
+        <v>8</v>
+      </c>
+      <c r="E13" s="137" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="146" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="146" t="s">
+        <v>189</v>
       </c>
       <c r="H13" s="40" t="s">
         <v>163</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="J13" s="61"/>
       <c r="K13" s="61"/>
@@ -7521,69 +7535,71 @@
       <c r="O13" s="68"/>
       <c r="P13" s="86"/>
     </row>
-    <row r="14" spans="1:16" s="34" customFormat="1" ht="11.25">
-      <c r="A14" s="33">
-        <v>10</v>
-      </c>
-      <c r="B14" s="33" t="s">
+    <row r="14" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A14" s="35">
+        <v>9</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="35">
         <v>51</v>
       </c>
-      <c r="D14" s="131">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E14" s="133" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" s="130" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="130" t="s">
-        <v>198</v>
+      <c r="D14" s="130">
+        <v>9</v>
+      </c>
+      <c r="E14" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="146" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="146" t="s">
+        <v>190</v>
       </c>
       <c r="H14" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="40" t="s">
+        <v>164</v>
+      </c>
       <c r="J14" s="61"/>
       <c r="K14" s="61"/>
       <c r="L14" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="M14" s="61"/>
+      <c r="M14" s="88"/>
       <c r="N14" s="68"/>
       <c r="O14" s="68"/>
       <c r="P14" s="86"/>
     </row>
-    <row r="15" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="33">
-        <v>11</v>
-      </c>
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="1:16" s="34" customFormat="1" ht="11.25">
+      <c r="A15" s="35">
+        <v>10</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="35">
         <v>51</v>
       </c>
-      <c r="D15" s="131">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E15" s="133" t="s">
-        <v>181</v>
-      </c>
-      <c r="F15" s="126" t="s">
-        <v>199</v>
-      </c>
-      <c r="G15" s="130" t="s">
-        <v>199</v>
+      <c r="D15" s="130">
+        <v>10</v>
+      </c>
+      <c r="E15" s="137" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="146" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" s="146" t="s">
+        <v>191</v>
       </c>
       <c r="H15" s="40" t="s">
         <v>163</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="J15" s="61"/>
       <c r="K15" s="61"/>
@@ -7596,139 +7612,131 @@
       <c r="P15" s="86"/>
     </row>
     <row r="16" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="33">
-        <v>12</v>
-      </c>
-      <c r="B16" s="33" t="s">
+      <c r="A16" s="35">
+        <v>11</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="35">
         <v>51</v>
       </c>
-      <c r="D16" s="131">
-        <v>8</v>
-      </c>
-      <c r="E16" s="133" t="s">
-        <v>182</v>
-      </c>
-      <c r="F16" s="126" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" s="130" t="s">
-        <v>200</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="I16" s="40" t="s">
-        <v>164</v>
-      </c>
+      <c r="D16" s="130">
+        <v>11</v>
+      </c>
+      <c r="E16" s="137" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="61"/>
       <c r="K16" s="61"/>
-      <c r="L16" s="40" t="s">
-        <v>165</v>
-      </c>
+      <c r="L16" s="40"/>
       <c r="M16" s="61"/>
       <c r="N16" s="68"/>
       <c r="O16" s="68"/>
       <c r="P16" s="86"/>
     </row>
     <row r="17" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="33">
-        <v>13</v>
-      </c>
-      <c r="B17" s="33" t="s">
+      <c r="A17" s="35">
+        <v>12</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="35">
         <v>51</v>
       </c>
-      <c r="D17" s="131">
-        <v>8.5</v>
-      </c>
-      <c r="E17" s="133" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" s="126" t="s">
-        <v>201</v>
-      </c>
-      <c r="G17" s="130" t="s">
-        <v>201</v>
+      <c r="D17" s="130">
+        <v>11.1</v>
+      </c>
+      <c r="E17" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="146" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="146" t="s">
+        <v>192</v>
       </c>
       <c r="H17" s="40" t="s">
         <v>163</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="J17" s="61"/>
-      <c r="K17" s="40"/>
+      <c r="K17" s="61"/>
       <c r="L17" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="M17" s="68"/>
+      <c r="M17" s="61"/>
       <c r="N17" s="68"/>
       <c r="O17" s="68"/>
       <c r="P17" s="86"/>
     </row>
     <row r="18" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="33">
-        <v>14</v>
-      </c>
-      <c r="B18" s="33" t="s">
+      <c r="A18" s="35">
+        <v>13</v>
+      </c>
+      <c r="B18" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="35">
         <v>51</v>
       </c>
-      <c r="D18" s="131">
-        <v>9</v>
-      </c>
-      <c r="E18" s="133" t="s">
-        <v>184</v>
-      </c>
-      <c r="F18" s="126" t="s">
-        <v>202</v>
-      </c>
-      <c r="G18" s="130" t="s">
-        <v>202</v>
+      <c r="D18" s="130">
+        <v>11.2</v>
+      </c>
+      <c r="E18" s="137" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="146" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="146" t="s">
+        <v>193</v>
       </c>
       <c r="H18" s="40" t="s">
         <v>163</v>
       </c>
       <c r="I18" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="J18" s="40"/>
+        <v>229</v>
+      </c>
+      <c r="J18" s="61"/>
       <c r="K18" s="40"/>
       <c r="L18" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
       <c r="O18" s="68"/>
       <c r="P18" s="86"/>
     </row>
     <row r="19" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="33">
-        <v>15</v>
-      </c>
-      <c r="B19" s="33" t="s">
+      <c r="A19" s="35">
+        <v>14</v>
+      </c>
+      <c r="B19" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="35">
         <v>51</v>
       </c>
-      <c r="D19" s="132">
-        <v>10</v>
-      </c>
-      <c r="E19" s="133" t="s">
-        <v>185</v>
-      </c>
-      <c r="F19" s="126" t="s">
-        <v>204</v>
-      </c>
-      <c r="G19" s="130"/>
+      <c r="D19" s="130">
+        <v>11.3</v>
+      </c>
+      <c r="E19" s="137" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="146" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" s="146" t="s">
+        <v>194</v>
+      </c>
       <c r="H19" s="40" t="s">
         <v>163</v>
       </c>
@@ -7742,30 +7750,30 @@
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
-      <c r="O19" s="82"/>
+      <c r="O19" s="68"/>
       <c r="P19" s="86"/>
     </row>
     <row r="20" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="33">
-        <v>16</v>
-      </c>
-      <c r="B20" s="33" t="s">
+      <c r="A20" s="35">
+        <v>15</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="35">
         <v>51</v>
       </c>
-      <c r="D20" s="132">
-        <v>10.1</v>
-      </c>
-      <c r="E20" s="133" t="s">
-        <v>186</v>
-      </c>
-      <c r="F20" s="130" t="s">
-        <v>205</v>
-      </c>
-      <c r="G20" s="140" t="s">
-        <v>205</v>
+      <c r="D20" s="130">
+        <v>11.4</v>
+      </c>
+      <c r="E20" s="137" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" s="146" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="146" t="s">
+        <v>195</v>
       </c>
       <c r="H20" s="40" t="s">
         <v>163</v>
@@ -7780,35 +7788,37 @@
       </c>
       <c r="M20" s="40"/>
       <c r="N20" s="40"/>
-      <c r="O20" s="68"/>
+      <c r="O20" s="82"/>
       <c r="P20" s="86"/>
     </row>
-    <row r="21" spans="1:16" s="34" customFormat="1" ht="11.25">
-      <c r="A21" s="33">
-        <v>17</v>
-      </c>
-      <c r="B21" s="33" t="s">
+    <row r="21" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A21" s="35">
+        <v>16</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="35">
         <v>51</v>
       </c>
-      <c r="D21" s="35">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="E21" s="134" t="s">
-        <v>187</v>
-      </c>
-      <c r="F21" s="130" t="s">
-        <v>206</v>
-      </c>
-      <c r="G21" s="140" t="s">
-        <v>206</v>
+      <c r="D21" s="130">
+        <v>11.5</v>
+      </c>
+      <c r="E21" s="137" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" s="146" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="146" t="s">
+        <v>196</v>
       </c>
       <c r="H21" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="I21" s="40"/>
+      <c r="I21" s="40" t="s">
+        <v>164</v>
+      </c>
       <c r="J21" s="40"/>
       <c r="K21" s="40"/>
       <c r="L21" s="40" t="s">
@@ -7819,27 +7829,27 @@
       <c r="O21" s="68"/>
       <c r="P21" s="86"/>
     </row>
-    <row r="22" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="33">
-        <v>18</v>
-      </c>
-      <c r="B22" s="33" t="s">
+    <row r="22" spans="1:16" s="34" customFormat="1" ht="11.25">
+      <c r="A22" s="35">
+        <v>17</v>
+      </c>
+      <c r="B22" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="35">
         <v>51</v>
       </c>
       <c r="D22" s="35">
-        <v>10.3</v>
-      </c>
-      <c r="E22" s="133" t="s">
-        <v>188</v>
-      </c>
-      <c r="F22" s="129" t="s">
-        <v>207</v>
-      </c>
-      <c r="G22" s="141" t="s">
-        <v>207</v>
+        <v>12</v>
+      </c>
+      <c r="E22" s="137" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" s="146" t="s">
+        <v>197</v>
       </c>
       <c r="H22" s="40" t="s">
         <v>163</v>
@@ -7854,65 +7864,59 @@
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
-      <c r="O22" s="86"/>
+      <c r="O22" s="68"/>
       <c r="P22" s="86"/>
     </row>
-    <row r="23" spans="1:16" s="34" customFormat="1" ht="22.5">
-      <c r="A23" s="33">
-        <v>19</v>
-      </c>
-      <c r="B23" s="33" t="s">
+    <row r="23" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A23" s="35">
+        <v>18</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="35">
         <v>51</v>
       </c>
       <c r="D23" s="35">
-        <v>11</v>
-      </c>
-      <c r="E23" s="133" t="s">
-        <v>189</v>
-      </c>
-      <c r="F23" s="203" t="s">
-        <v>209</v>
-      </c>
-      <c r="G23" s="206" t="s">
-        <v>209</v>
-      </c>
-      <c r="H23" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="I23" s="40" t="s">
-        <v>164</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E23" s="137" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
       <c r="J23" s="40"/>
       <c r="K23" s="40"/>
-      <c r="L23" s="40" t="s">
-        <v>165</v>
-      </c>
+      <c r="L23" s="40"/>
       <c r="M23" s="40"/>
       <c r="N23" s="40"/>
-      <c r="O23" s="68"/>
+      <c r="O23" s="86"/>
       <c r="P23" s="86"/>
     </row>
-    <row r="24" spans="1:16" s="34" customFormat="1" ht="22.5">
-      <c r="A24" s="33">
-        <v>20</v>
-      </c>
-      <c r="B24" s="33" t="s">
+    <row r="24" spans="1:16" s="34" customFormat="1" ht="11.25">
+      <c r="A24" s="35">
+        <v>19</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="35">
         <v>51</v>
       </c>
       <c r="D24" s="35">
-        <v>12</v>
-      </c>
-      <c r="E24" s="133" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" s="204"/>
-      <c r="G24" s="207"/>
+        <v>13.1</v>
+      </c>
+      <c r="E24" s="137" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="146" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="146" t="s">
+        <v>198</v>
+      </c>
       <c r="H24" s="40" t="s">
         <v>163</v>
       </c>
@@ -7920,33 +7924,37 @@
         <v>164</v>
       </c>
       <c r="J24" s="40"/>
-      <c r="K24" s="60"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="32"/>
-    </row>
-    <row r="25" spans="1:16" s="34" customFormat="1" ht="22.5">
-      <c r="A25" s="33">
-        <v>21</v>
-      </c>
-      <c r="B25" s="33" t="s">
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="86"/>
+    </row>
+    <row r="25" spans="1:16" s="34" customFormat="1">
+      <c r="A25" s="35">
+        <v>20</v>
+      </c>
+      <c r="B25" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="35">
         <v>51</v>
       </c>
       <c r="D25" s="35">
-        <v>13</v>
-      </c>
-      <c r="E25" s="133" t="s">
-        <v>208</v>
-      </c>
-      <c r="F25" s="204"/>
-      <c r="G25" s="207"/>
+        <v>13.2</v>
+      </c>
+      <c r="E25" s="228" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="146" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" s="146" t="s">
+        <v>199</v>
+      </c>
       <c r="H25" s="40" t="s">
         <v>163</v>
       </c>
@@ -7958,29 +7966,33 @@
       <c r="L25" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="M25" s="61"/>
+      <c r="M25" s="60"/>
       <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
+      <c r="O25" s="40"/>
       <c r="P25" s="32"/>
     </row>
-    <row r="26" spans="1:16" s="34" customFormat="1" ht="22.5">
-      <c r="A26" s="33">
-        <v>22</v>
-      </c>
-      <c r="B26" s="33" t="s">
+    <row r="26" spans="1:16" s="34" customFormat="1">
+      <c r="A26" s="35">
+        <v>21</v>
+      </c>
+      <c r="B26" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="35">
         <v>51</v>
       </c>
       <c r="D26" s="35">
-        <v>14</v>
-      </c>
-      <c r="E26" s="133" t="s">
-        <v>191</v>
-      </c>
-      <c r="F26" s="205"/>
-      <c r="G26" s="208"/>
+        <v>13.3</v>
+      </c>
+      <c r="E26" s="137" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="145" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" s="145" t="s">
+        <v>200</v>
+      </c>
       <c r="H26" s="40" t="s">
         <v>163</v>
       </c>
@@ -7997,58 +8009,62 @@
       <c r="O26" s="60"/>
       <c r="P26" s="32"/>
     </row>
-    <row r="27" spans="1:16" s="34" customFormat="1" ht="22.5">
-      <c r="A27" s="33">
+    <row r="27" spans="1:16" s="34" customFormat="1">
+      <c r="A27" s="35">
+        <v>22</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="35">
+        <v>51</v>
+      </c>
+      <c r="D27" s="35">
+        <v>14</v>
+      </c>
+      <c r="E27" s="137" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="222" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" s="222" t="s">
+        <v>201</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="I27" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="J27" s="40"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="M27" s="61"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="32"/>
+    </row>
+    <row r="28" spans="1:16" s="34" customFormat="1" ht="22.5">
+      <c r="A28" s="35">
         <v>23</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B28" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C28" s="35">
         <v>51</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D28" s="35">
         <v>15</v>
       </c>
-      <c r="E27" s="143" t="s">
-        <v>216</v>
-      </c>
-      <c r="F27" s="142" t="s">
-        <v>217</v>
-      </c>
-      <c r="G27" s="142"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="142"/>
-      <c r="P27" s="142" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="34" customFormat="1" ht="22.5">
-      <c r="A28" s="33">
-        <v>24</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" s="33">
-        <v>51</v>
-      </c>
-      <c r="D28" s="35">
-        <v>16</v>
-      </c>
-      <c r="E28" s="143" t="s">
-        <v>218</v>
-      </c>
-      <c r="F28" s="142" t="s">
-        <v>219</v>
-      </c>
-      <c r="G28" s="142"/>
+      <c r="E28" s="131" t="s">
+        <v>224</v>
+      </c>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
       <c r="J28" s="40"/>
@@ -8056,41 +8072,59 @@
       <c r="L28" s="40"/>
       <c r="M28" s="40"/>
       <c r="N28" s="40"/>
-      <c r="O28" s="142"/>
-      <c r="P28" s="142" t="s">
+      <c r="O28" s="138"/>
+      <c r="P28" s="138" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="34" customFormat="1" ht="22.5">
+      <c r="A29" s="33">
+        <v>24</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="33">
+        <v>51</v>
+      </c>
+      <c r="D29" s="35">
+        <v>16</v>
+      </c>
+      <c r="E29" s="131" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A29" s="33">
-        <v>27</v>
-      </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="60"/>
+      <c r="K29" s="40"/>
       <c r="L29" s="40"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="32"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="138"/>
+      <c r="P29" s="138" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="30" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="33">
-        <v>50</v>
-      </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="40"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="35">
+        <v>51</v>
+      </c>
+      <c r="D30" s="35">
+        <v>17</v>
+      </c>
+      <c r="E30" s="131" t="s">
+        <v>226</v>
+      </c>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
       <c r="H30" s="40"/>
       <c r="I30" s="40"/>
       <c r="J30" s="40"/>
@@ -8101,31 +8135,54 @@
       <c r="O30" s="60"/>
       <c r="P30" s="32"/>
     </row>
+    <row r="31" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A31" s="33">
+        <v>50</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M24:N24 N25:O26 N29:O30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M25:N25 N26:O27 N30:O31">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I27 I29:I30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I30:I31 I5:I28">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5 G30"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H26 H29:H30">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5 G31"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H27 H30:H31">
       <formula1>"Caption,Textbox,DateTimePicker,GridColumn,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H27:H28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H28:H29">
       <formula1>"Caption,Textbox,DateTimePicker,Grid Column,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L31">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9128,7 +9185,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="207" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="123"/>
@@ -9163,7 +9220,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="214"/>
+      <c r="A2" s="208"/>
       <c r="B2" s="124"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -9211,15 +9268,15 @@
       <c r="E4" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="179" t="s">
+      <c r="F4" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179" t="s">
+      <c r="G4" s="175"/>
+      <c r="H4" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A5" s="33">
@@ -9229,11 +9286,11 @@
       <c r="C5" s="33"/>
       <c r="D5" s="125"/>
       <c r="E5" s="32"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="212"/>
-      <c r="H5" s="215"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="217"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="204"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9243,11 +9300,11 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="212"/>
-      <c r="H6" s="215"/>
-      <c r="I6" s="216"/>
-      <c r="J6" s="217"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="204"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9257,11 +9314,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="215"/>
-      <c r="I7" s="216"/>
-      <c r="J7" s="217"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="206"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="204"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9271,11 +9328,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="215"/>
-      <c r="I8" s="216"/>
-      <c r="J8" s="217"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="206"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="204"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9285,11 +9342,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="212"/>
-      <c r="H9" s="215"/>
-      <c r="I9" s="216"/>
-      <c r="J9" s="217"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="206"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="204"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9299,11 +9356,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="215"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="217"/>
+      <c r="F10" s="205"/>
+      <c r="G10" s="206"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="204"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9313,11 +9370,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="212"/>
-      <c r="H11" s="215"/>
-      <c r="I11" s="216"/>
-      <c r="J11" s="217"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="204"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9327,11 +9384,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="211"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="215"/>
-      <c r="I12" s="216"/>
-      <c r="J12" s="217"/>
+      <c r="F12" s="205"/>
+      <c r="G12" s="206"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="203"/>
+      <c r="J12" s="204"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9341,11 +9398,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="215"/>
-      <c r="I13" s="216"/>
-      <c r="J13" s="217"/>
+      <c r="F13" s="205"/>
+      <c r="G13" s="206"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="203"/>
+      <c r="J13" s="204"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9355,11 +9412,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="211"/>
-      <c r="G14" s="212"/>
-      <c r="H14" s="215"/>
-      <c r="I14" s="216"/>
-      <c r="J14" s="217"/>
+      <c r="F14" s="205"/>
+      <c r="G14" s="206"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="204"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9369,11 +9426,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="211"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="215"/>
-      <c r="I15" s="216"/>
-      <c r="J15" s="217"/>
+      <c r="F15" s="205"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="204"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9383,11 +9440,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="211"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="215"/>
-      <c r="I16" s="216"/>
-      <c r="J16" s="217"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="206"/>
+      <c r="H16" s="202"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="204"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9397,11 +9454,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="211"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="215"/>
-      <c r="I17" s="216"/>
-      <c r="J17" s="217"/>
+      <c r="F17" s="205"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="203"/>
+      <c r="J17" s="204"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9411,11 +9468,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="215"/>
-      <c r="I18" s="216"/>
-      <c r="J18" s="217"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="203"/>
+      <c r="J18" s="204"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9425,11 +9482,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="211"/>
-      <c r="G19" s="212"/>
-      <c r="H19" s="215"/>
-      <c r="I19" s="216"/>
-      <c r="J19" s="217"/>
+      <c r="F19" s="205"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="204"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9439,11 +9496,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="212"/>
-      <c r="H20" s="215"/>
-      <c r="I20" s="216"/>
-      <c r="J20" s="217"/>
+      <c r="F20" s="205"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="204"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9453,11 +9510,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="211"/>
-      <c r="G21" s="212"/>
-      <c r="H21" s="215"/>
-      <c r="I21" s="216"/>
-      <c r="J21" s="217"/>
+      <c r="F21" s="205"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="204"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9467,11 +9524,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="215"/>
-      <c r="I22" s="216"/>
-      <c r="J22" s="217"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="204"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9481,11 +9538,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="216"/>
-      <c r="J23" s="217"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="202"/>
+      <c r="I23" s="203"/>
+      <c r="J23" s="204"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9495,11 +9552,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="215"/>
-      <c r="I24" s="216"/>
-      <c r="J24" s="217"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="203"/>
+      <c r="J24" s="204"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9509,11 +9566,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="215"/>
-      <c r="I25" s="216"/>
-      <c r="J25" s="217"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="203"/>
+      <c r="J25" s="204"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9523,11 +9580,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="215"/>
-      <c r="I26" s="216"/>
-      <c r="J26" s="217"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="203"/>
+      <c r="J26" s="204"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9537,11 +9594,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="215"/>
-      <c r="I27" s="216"/>
-      <c r="J27" s="217"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="202"/>
+      <c r="I27" s="203"/>
+      <c r="J27" s="204"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9551,11 +9608,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="215"/>
-      <c r="I28" s="216"/>
-      <c r="J28" s="217"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="203"/>
+      <c r="J28" s="204"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9565,11 +9622,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="215"/>
-      <c r="I29" s="216"/>
-      <c r="J29" s="217"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="202"/>
+      <c r="I29" s="203"/>
+      <c r="J29" s="204"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9579,11 +9636,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="215"/>
-      <c r="I30" s="216"/>
-      <c r="J30" s="217"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="202"/>
+      <c r="I30" s="203"/>
+      <c r="J30" s="204"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9593,11 +9650,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="215"/>
-      <c r="I31" s="216"/>
-      <c r="J31" s="217"/>
+      <c r="F31" s="169"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="202"/>
+      <c r="I31" s="203"/>
+      <c r="J31" s="204"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -9607,11 +9664,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="215"/>
-      <c r="I32" s="216"/>
-      <c r="J32" s="217"/>
+      <c r="F32" s="169"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="202"/>
+      <c r="I32" s="203"/>
+      <c r="J32" s="204"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -9628,11 +9685,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="215"/>
-      <c r="I33" s="216"/>
-      <c r="J33" s="217"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="202"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="204"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -9649,11 +9706,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="175"/>
-      <c r="H34" s="215"/>
-      <c r="I34" s="216"/>
-      <c r="J34" s="217"/>
+      <c r="F34" s="169"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="202"/>
+      <c r="I34" s="203"/>
+      <c r="J34" s="204"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -9670,11 +9727,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="173"/>
-      <c r="G35" s="175"/>
-      <c r="H35" s="215"/>
-      <c r="I35" s="216"/>
-      <c r="J35" s="217"/>
+      <c r="F35" s="169"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="202"/>
+      <c r="I35" s="203"/>
+      <c r="J35" s="204"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -9691,11 +9748,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="173"/>
-      <c r="G36" s="175"/>
-      <c r="H36" s="215"/>
-      <c r="I36" s="216"/>
-      <c r="J36" s="217"/>
+      <c r="F36" s="169"/>
+      <c r="G36" s="171"/>
+      <c r="H36" s="202"/>
+      <c r="I36" s="203"/>
+      <c r="J36" s="204"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -9712,11 +9769,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="173"/>
-      <c r="G37" s="175"/>
-      <c r="H37" s="215"/>
-      <c r="I37" s="216"/>
-      <c r="J37" s="217"/>
+      <c r="F37" s="169"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="202"/>
+      <c r="I37" s="203"/>
+      <c r="J37" s="204"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -9733,11 +9790,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="173"/>
-      <c r="G38" s="175"/>
-      <c r="H38" s="215"/>
-      <c r="I38" s="216"/>
-      <c r="J38" s="217"/>
+      <c r="F38" s="169"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="202"/>
+      <c r="I38" s="203"/>
+      <c r="J38" s="204"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -9754,11 +9811,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="173"/>
-      <c r="G39" s="175"/>
-      <c r="H39" s="215"/>
-      <c r="I39" s="216"/>
-      <c r="J39" s="217"/>
+      <c r="F39" s="169"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="202"/>
+      <c r="I39" s="203"/>
+      <c r="J39" s="204"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -9775,11 +9832,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="173"/>
-      <c r="G40" s="175"/>
-      <c r="H40" s="215"/>
-      <c r="I40" s="216"/>
-      <c r="J40" s="217"/>
+      <c r="F40" s="169"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="202"/>
+      <c r="I40" s="203"/>
+      <c r="J40" s="204"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -9796,11 +9853,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="173"/>
-      <c r="G41" s="175"/>
-      <c r="H41" s="215"/>
-      <c r="I41" s="216"/>
-      <c r="J41" s="217"/>
+      <c r="F41" s="169"/>
+      <c r="G41" s="171"/>
+      <c r="H41" s="202"/>
+      <c r="I41" s="203"/>
+      <c r="J41" s="204"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -9817,11 +9874,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="173"/>
-      <c r="G42" s="175"/>
-      <c r="H42" s="215"/>
-      <c r="I42" s="216"/>
-      <c r="J42" s="217"/>
+      <c r="F42" s="169"/>
+      <c r="G42" s="171"/>
+      <c r="H42" s="202"/>
+      <c r="I42" s="203"/>
+      <c r="J42" s="204"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -9838,11 +9895,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="173"/>
-      <c r="G43" s="175"/>
-      <c r="H43" s="215"/>
-      <c r="I43" s="216"/>
-      <c r="J43" s="217"/>
+      <c r="F43" s="169"/>
+      <c r="G43" s="171"/>
+      <c r="H43" s="202"/>
+      <c r="I43" s="203"/>
+      <c r="J43" s="204"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -9859,11 +9916,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="173"/>
-      <c r="G44" s="175"/>
-      <c r="H44" s="215"/>
-      <c r="I44" s="216"/>
-      <c r="J44" s="217"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="171"/>
+      <c r="H44" s="202"/>
+      <c r="I44" s="203"/>
+      <c r="J44" s="204"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -9880,11 +9937,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="173"/>
-      <c r="G45" s="175"/>
-      <c r="H45" s="215"/>
-      <c r="I45" s="216"/>
-      <c r="J45" s="217"/>
+      <c r="F45" s="169"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="202"/>
+      <c r="I45" s="203"/>
+      <c r="J45" s="204"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -9901,11 +9958,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="173"/>
-      <c r="G46" s="175"/>
-      <c r="H46" s="215"/>
-      <c r="I46" s="216"/>
-      <c r="J46" s="217"/>
+      <c r="F46" s="169"/>
+      <c r="G46" s="171"/>
+      <c r="H46" s="202"/>
+      <c r="I46" s="203"/>
+      <c r="J46" s="204"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -9922,11 +9979,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="173"/>
-      <c r="G47" s="175"/>
-      <c r="H47" s="215"/>
-      <c r="I47" s="216"/>
-      <c r="J47" s="217"/>
+      <c r="F47" s="169"/>
+      <c r="G47" s="171"/>
+      <c r="H47" s="202"/>
+      <c r="I47" s="203"/>
+      <c r="J47" s="204"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -9943,11 +10000,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="173"/>
-      <c r="G48" s="175"/>
-      <c r="H48" s="215"/>
-      <c r="I48" s="216"/>
-      <c r="J48" s="217"/>
+      <c r="F48" s="169"/>
+      <c r="G48" s="171"/>
+      <c r="H48" s="202"/>
+      <c r="I48" s="203"/>
+      <c r="J48" s="204"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -9964,11 +10021,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="173"/>
-      <c r="G49" s="175"/>
-      <c r="H49" s="215"/>
-      <c r="I49" s="216"/>
-      <c r="J49" s="217"/>
+      <c r="F49" s="169"/>
+      <c r="G49" s="171"/>
+      <c r="H49" s="202"/>
+      <c r="I49" s="203"/>
+      <c r="J49" s="204"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -9985,11 +10042,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="173"/>
-      <c r="G50" s="175"/>
-      <c r="H50" s="215"/>
-      <c r="I50" s="216"/>
-      <c r="J50" s="217"/>
+      <c r="F50" s="169"/>
+      <c r="G50" s="171"/>
+      <c r="H50" s="202"/>
+      <c r="I50" s="203"/>
+      <c r="J50" s="204"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -10006,11 +10063,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="173"/>
-      <c r="G51" s="175"/>
-      <c r="H51" s="215"/>
-      <c r="I51" s="216"/>
-      <c r="J51" s="217"/>
+      <c r="F51" s="169"/>
+      <c r="G51" s="171"/>
+      <c r="H51" s="202"/>
+      <c r="I51" s="203"/>
+      <c r="J51" s="204"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -10027,11 +10084,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="173"/>
-      <c r="G52" s="175"/>
-      <c r="H52" s="215"/>
-      <c r="I52" s="216"/>
-      <c r="J52" s="217"/>
+      <c r="F52" s="169"/>
+      <c r="G52" s="171"/>
+      <c r="H52" s="202"/>
+      <c r="I52" s="203"/>
+      <c r="J52" s="204"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -10048,11 +10105,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="173"/>
-      <c r="G53" s="175"/>
-      <c r="H53" s="215"/>
-      <c r="I53" s="216"/>
-      <c r="J53" s="217"/>
+      <c r="F53" s="169"/>
+      <c r="G53" s="171"/>
+      <c r="H53" s="202"/>
+      <c r="I53" s="203"/>
+      <c r="J53" s="204"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -10069,11 +10126,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="173"/>
-      <c r="G54" s="175"/>
-      <c r="H54" s="215"/>
-      <c r="I54" s="216"/>
-      <c r="J54" s="217"/>
+      <c r="F54" s="169"/>
+      <c r="G54" s="171"/>
+      <c r="H54" s="202"/>
+      <c r="I54" s="203"/>
+      <c r="J54" s="204"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -10090,11 +10147,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="173"/>
-      <c r="G55" s="175"/>
-      <c r="H55" s="215"/>
-      <c r="I55" s="216"/>
-      <c r="J55" s="217"/>
+      <c r="F55" s="169"/>
+      <c r="G55" s="171"/>
+      <c r="H55" s="202"/>
+      <c r="I55" s="203"/>
+      <c r="J55" s="204"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -10111,11 +10168,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="173"/>
-      <c r="G56" s="175"/>
-      <c r="H56" s="215"/>
-      <c r="I56" s="216"/>
-      <c r="J56" s="217"/>
+      <c r="F56" s="169"/>
+      <c r="G56" s="171"/>
+      <c r="H56" s="202"/>
+      <c r="I56" s="203"/>
+      <c r="J56" s="204"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -10127,6 +10184,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="F54:G54"/>
@@ -10141,99 +10291,6 @@
     <mergeCell ref="H54:J54"/>
     <mergeCell ref="H55:J55"/>
     <mergeCell ref="H56:J56"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -10251,8 +10308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10281,24 +10338,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="224" t="str">
+      <c r="J1" s="212" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="224"/>
+      <c r="K1" s="212"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10325,22 +10382,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="179"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="224" t="str">
+      <c r="J2" s="212" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="K2" s="224"/>
+      <c r="K2" s="212"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10370,8 +10427,8 @@
       <c r="A4" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="144" t="s">
-        <v>215</v>
+      <c r="B4" s="139" t="s">
+        <v>207</v>
       </c>
       <c r="C4" s="122" t="s">
         <v>32</v>
@@ -10397,12 +10454,12 @@
       <c r="J4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="185" t="s">
+      <c r="K4" s="182" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="187"/>
-      <c r="M4" s="187"/>
-      <c r="N4" s="186"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="183"/>
       <c r="O4" s="39" t="s">
         <v>56</v>
       </c>
@@ -10419,51 +10476,51 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="149" customFormat="1" ht="138.75" customHeight="1">
-      <c r="A5" s="145">
+    <row r="5" spans="1:21" s="144" customFormat="1" ht="138.75" customHeight="1">
+      <c r="A5" s="140">
         <v>1</v>
       </c>
-      <c r="B5" s="145">
+      <c r="B5" s="140">
         <v>51</v>
       </c>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="147" t="s">
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="142" t="s">
         <v>169</v>
       </c>
-      <c r="H5" s="147" t="s">
+      <c r="H5" s="142" t="s">
         <v>166</v>
       </c>
-      <c r="I5" s="147" t="s">
-        <v>224</v>
-      </c>
-      <c r="J5" s="146" t="s">
+      <c r="I5" s="142" t="s">
+        <v>215</v>
+      </c>
+      <c r="J5" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="K5" s="221" t="s">
-        <v>226</v>
-      </c>
-      <c r="L5" s="222"/>
-      <c r="M5" s="222"/>
-      <c r="N5" s="223"/>
-      <c r="O5" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="P5" s="146" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q5" s="148" t="s">
-        <v>214</v>
-      </c>
-      <c r="R5" s="148" t="s">
+      <c r="K5" s="213" t="s">
+        <v>219</v>
+      </c>
+      <c r="L5" s="214"/>
+      <c r="M5" s="214"/>
+      <c r="N5" s="215"/>
+      <c r="O5" s="141" t="s">
+        <v>217</v>
+      </c>
+      <c r="P5" s="141" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q5" s="143" t="s">
+        <v>206</v>
+      </c>
+      <c r="R5" s="143" t="s">
         <v>168</v>
       </c>
-      <c r="S5" s="147" t="s">
-        <v>220</v>
+      <c r="S5" s="142" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="34" customFormat="1" ht="11.25">
@@ -10479,10 +10536,10 @@
       <c r="H6" s="62"/>
       <c r="I6" s="62"/>
       <c r="J6" s="81"/>
-      <c r="K6" s="218"/>
-      <c r="L6" s="219"/>
-      <c r="M6" s="219"/>
-      <c r="N6" s="220"/>
+      <c r="K6" s="209"/>
+      <c r="L6" s="210"/>
+      <c r="M6" s="210"/>
+      <c r="N6" s="211"/>
       <c r="O6" s="86"/>
       <c r="P6" s="87"/>
       <c r="Q6" s="75"/>
@@ -10504,15 +10561,15 @@
       <c r="H7" s="62"/>
       <c r="I7" s="62"/>
       <c r="J7" s="81"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="219"/>
-      <c r="M7" s="219"/>
-      <c r="N7" s="220"/>
+      <c r="K7" s="209"/>
+      <c r="L7" s="210"/>
+      <c r="M7" s="210"/>
+      <c r="N7" s="211"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
       <c r="Q7" s="75"/>
       <c r="R7" s="128"/>
-      <c r="S7" s="139"/>
+      <c r="S7" s="137"/>
       <c r="T7" s="63"/>
       <c r="U7" s="63"/>
     </row>
@@ -10529,15 +10586,15 @@
       <c r="H8" s="62"/>
       <c r="I8" s="62"/>
       <c r="J8" s="81"/>
-      <c r="K8" s="218"/>
-      <c r="L8" s="219"/>
-      <c r="M8" s="219"/>
-      <c r="N8" s="220"/>
+      <c r="K8" s="209"/>
+      <c r="L8" s="210"/>
+      <c r="M8" s="210"/>
+      <c r="N8" s="211"/>
       <c r="O8" s="87"/>
       <c r="P8" s="87"/>
       <c r="Q8" s="75"/>
       <c r="R8" s="128"/>
-      <c r="S8" s="139"/>
+      <c r="S8" s="137"/>
       <c r="T8" s="63"/>
       <c r="U8" s="63"/>
     </row>
@@ -10554,15 +10611,15 @@
       <c r="H9" s="62"/>
       <c r="I9" s="62"/>
       <c r="J9" s="81"/>
-      <c r="K9" s="218"/>
-      <c r="L9" s="219"/>
-      <c r="M9" s="219"/>
-      <c r="N9" s="220"/>
+      <c r="K9" s="209"/>
+      <c r="L9" s="210"/>
+      <c r="M9" s="210"/>
+      <c r="N9" s="211"/>
       <c r="O9" s="87"/>
       <c r="P9" s="87"/>
       <c r="Q9" s="75"/>
-      <c r="R9" s="138"/>
-      <c r="S9" s="139"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="137"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
     </row>
@@ -10579,15 +10636,15 @@
       <c r="H10" s="62"/>
       <c r="I10" s="62"/>
       <c r="J10" s="81"/>
-      <c r="K10" s="218"/>
-      <c r="L10" s="219"/>
-      <c r="M10" s="219"/>
-      <c r="N10" s="220"/>
+      <c r="K10" s="209"/>
+      <c r="L10" s="210"/>
+      <c r="M10" s="210"/>
+      <c r="N10" s="211"/>
       <c r="O10" s="87"/>
       <c r="P10" s="87"/>
       <c r="Q10" s="75"/>
-      <c r="R10" s="137"/>
-      <c r="S10" s="139"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="137"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
     </row>
@@ -10604,15 +10661,15 @@
       <c r="H11" s="62"/>
       <c r="I11" s="62"/>
       <c r="J11" s="81"/>
-      <c r="K11" s="218"/>
-      <c r="L11" s="219"/>
-      <c r="M11" s="219"/>
-      <c r="N11" s="220"/>
+      <c r="K11" s="209"/>
+      <c r="L11" s="210"/>
+      <c r="M11" s="210"/>
+      <c r="N11" s="211"/>
       <c r="O11" s="87"/>
       <c r="P11" s="87"/>
       <c r="Q11" s="75"/>
       <c r="R11" s="128"/>
-      <c r="S11" s="139"/>
+      <c r="S11" s="137"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
     </row>
@@ -10629,15 +10686,15 @@
       <c r="H12" s="62"/>
       <c r="I12" s="62"/>
       <c r="J12" s="81"/>
-      <c r="K12" s="218"/>
-      <c r="L12" s="219"/>
-      <c r="M12" s="219"/>
-      <c r="N12" s="220"/>
+      <c r="K12" s="209"/>
+      <c r="L12" s="210"/>
+      <c r="M12" s="210"/>
+      <c r="N12" s="211"/>
       <c r="O12" s="84"/>
       <c r="P12" s="84"/>
       <c r="Q12" s="75"/>
       <c r="R12" s="128"/>
-      <c r="S12" s="139"/>
+      <c r="S12" s="137"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
     </row>
@@ -10654,15 +10711,15 @@
       <c r="H13" s="62"/>
       <c r="I13" s="62"/>
       <c r="J13" s="81"/>
-      <c r="K13" s="218"/>
-      <c r="L13" s="219"/>
-      <c r="M13" s="219"/>
-      <c r="N13" s="220"/>
+      <c r="K13" s="209"/>
+      <c r="L13" s="210"/>
+      <c r="M13" s="210"/>
+      <c r="N13" s="211"/>
       <c r="O13" s="84"/>
       <c r="P13" s="84"/>
       <c r="Q13" s="75"/>
       <c r="R13" s="128"/>
-      <c r="S13" s="139"/>
+      <c r="S13" s="137"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
     </row>
@@ -10679,15 +10736,15 @@
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
       <c r="J14" s="81"/>
-      <c r="K14" s="218"/>
-      <c r="L14" s="219"/>
-      <c r="M14" s="219"/>
-      <c r="N14" s="220"/>
+      <c r="K14" s="209"/>
+      <c r="L14" s="210"/>
+      <c r="M14" s="210"/>
+      <c r="N14" s="211"/>
       <c r="O14" s="80"/>
       <c r="P14" s="80"/>
       <c r="Q14" s="75"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="134"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="132"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
     </row>
@@ -10704,10 +10761,10 @@
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
       <c r="J15" s="81"/>
-      <c r="K15" s="218"/>
-      <c r="L15" s="219"/>
-      <c r="M15" s="219"/>
-      <c r="N15" s="220"/>
+      <c r="K15" s="209"/>
+      <c r="L15" s="210"/>
+      <c r="M15" s="210"/>
+      <c r="N15" s="211"/>
       <c r="O15" s="80"/>
       <c r="P15" s="80"/>
       <c r="Q15" s="75"/>
@@ -10729,10 +10786,10 @@
       <c r="H16" s="62"/>
       <c r="I16" s="62"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="218"/>
-      <c r="L16" s="219"/>
-      <c r="M16" s="219"/>
-      <c r="N16" s="220"/>
+      <c r="K16" s="209"/>
+      <c r="L16" s="210"/>
+      <c r="M16" s="210"/>
+      <c r="N16" s="211"/>
       <c r="O16" s="71"/>
       <c r="P16" s="59"/>
       <c r="Q16" s="75"/>
@@ -10754,10 +10811,10 @@
       <c r="H17" s="62"/>
       <c r="I17" s="62"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="218"/>
-      <c r="L17" s="219"/>
-      <c r="M17" s="219"/>
-      <c r="N17" s="220"/>
+      <c r="K17" s="209"/>
+      <c r="L17" s="210"/>
+      <c r="M17" s="210"/>
+      <c r="N17" s="211"/>
       <c r="O17" s="59"/>
       <c r="P17" s="59"/>
       <c r="Q17" s="75"/>
@@ -10779,10 +10836,10 @@
       <c r="H18" s="62"/>
       <c r="I18" s="62"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="218"/>
-      <c r="L18" s="219"/>
-      <c r="M18" s="219"/>
-      <c r="N18" s="220"/>
+      <c r="K18" s="209"/>
+      <c r="L18" s="210"/>
+      <c r="M18" s="210"/>
+      <c r="N18" s="211"/>
       <c r="O18" s="59"/>
       <c r="P18" s="59"/>
       <c r="Q18" s="75"/>
@@ -10804,10 +10861,10 @@
       <c r="H19" s="62"/>
       <c r="I19" s="62"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="218"/>
-      <c r="L19" s="219"/>
-      <c r="M19" s="219"/>
-      <c r="N19" s="220"/>
+      <c r="K19" s="209"/>
+      <c r="L19" s="210"/>
+      <c r="M19" s="210"/>
+      <c r="N19" s="211"/>
       <c r="O19" s="59"/>
       <c r="P19" s="59"/>
       <c r="Q19" s="75"/>
@@ -10829,10 +10886,10 @@
       <c r="H20" s="62"/>
       <c r="I20" s="62"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="218"/>
-      <c r="L20" s="219"/>
-      <c r="M20" s="219"/>
-      <c r="N20" s="220"/>
+      <c r="K20" s="209"/>
+      <c r="L20" s="210"/>
+      <c r="M20" s="210"/>
+      <c r="N20" s="211"/>
       <c r="O20" s="59"/>
       <c r="P20" s="59"/>
       <c r="Q20" s="75"/>
@@ -10854,10 +10911,10 @@
       <c r="H21" s="62"/>
       <c r="I21" s="62"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="218"/>
-      <c r="L21" s="219"/>
-      <c r="M21" s="219"/>
-      <c r="N21" s="220"/>
+      <c r="K21" s="209"/>
+      <c r="L21" s="210"/>
+      <c r="M21" s="210"/>
+      <c r="N21" s="211"/>
       <c r="O21" s="59"/>
       <c r="P21" s="59"/>
       <c r="Q21" s="75"/>
@@ -10879,10 +10936,10 @@
       <c r="H22" s="62"/>
       <c r="I22" s="62"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="218"/>
-      <c r="L22" s="219"/>
-      <c r="M22" s="219"/>
-      <c r="N22" s="220"/>
+      <c r="K22" s="209"/>
+      <c r="L22" s="210"/>
+      <c r="M22" s="210"/>
+      <c r="N22" s="211"/>
       <c r="O22" s="59"/>
       <c r="P22" s="59"/>
       <c r="Q22" s="75"/>
@@ -10904,10 +10961,10 @@
       <c r="H23" s="62"/>
       <c r="I23" s="62"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="218"/>
-      <c r="L23" s="219"/>
-      <c r="M23" s="219"/>
-      <c r="N23" s="220"/>
+      <c r="K23" s="209"/>
+      <c r="L23" s="210"/>
+      <c r="M23" s="210"/>
+      <c r="N23" s="211"/>
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
       <c r="Q23" s="75"/>
@@ -10929,10 +10986,10 @@
       <c r="H24" s="62"/>
       <c r="I24" s="62"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="218"/>
-      <c r="L24" s="219"/>
-      <c r="M24" s="219"/>
-      <c r="N24" s="220"/>
+      <c r="K24" s="209"/>
+      <c r="L24" s="210"/>
+      <c r="M24" s="210"/>
+      <c r="N24" s="211"/>
       <c r="O24" s="59"/>
       <c r="P24" s="59"/>
       <c r="Q24" s="75"/>
@@ -10954,10 +11011,10 @@
       <c r="H25" s="62"/>
       <c r="I25" s="62"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="218"/>
-      <c r="L25" s="219"/>
-      <c r="M25" s="219"/>
-      <c r="N25" s="220"/>
+      <c r="K25" s="209"/>
+      <c r="L25" s="210"/>
+      <c r="M25" s="210"/>
+      <c r="N25" s="211"/>
       <c r="O25" s="59"/>
       <c r="P25" s="59"/>
       <c r="Q25" s="75"/>
@@ -10979,10 +11036,10 @@
       <c r="H26" s="62"/>
       <c r="I26" s="62"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="218"/>
-      <c r="L26" s="219"/>
-      <c r="M26" s="219"/>
-      <c r="N26" s="220"/>
+      <c r="K26" s="209"/>
+      <c r="L26" s="210"/>
+      <c r="M26" s="210"/>
+      <c r="N26" s="211"/>
       <c r="O26" s="59"/>
       <c r="P26" s="59"/>
       <c r="Q26" s="75"/>
@@ -11004,10 +11061,10 @@
       <c r="H27" s="62"/>
       <c r="I27" s="62"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="218"/>
-      <c r="L27" s="219"/>
-      <c r="M27" s="219"/>
-      <c r="N27" s="220"/>
+      <c r="K27" s="209"/>
+      <c r="L27" s="210"/>
+      <c r="M27" s="210"/>
+      <c r="N27" s="211"/>
       <c r="O27" s="59"/>
       <c r="P27" s="59"/>
       <c r="Q27" s="75"/>
@@ -11029,10 +11086,10 @@
       <c r="H28" s="62"/>
       <c r="I28" s="62"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="218"/>
-      <c r="L28" s="219"/>
-      <c r="M28" s="219"/>
-      <c r="N28" s="220"/>
+      <c r="K28" s="209"/>
+      <c r="L28" s="210"/>
+      <c r="M28" s="210"/>
+      <c r="N28" s="211"/>
       <c r="O28" s="59"/>
       <c r="P28" s="59"/>
       <c r="Q28" s="75"/>
@@ -11054,10 +11111,10 @@
       <c r="H29" s="62"/>
       <c r="I29" s="62"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="218"/>
-      <c r="L29" s="219"/>
-      <c r="M29" s="219"/>
-      <c r="N29" s="220"/>
+      <c r="K29" s="209"/>
+      <c r="L29" s="210"/>
+      <c r="M29" s="210"/>
+      <c r="N29" s="211"/>
       <c r="O29" s="59"/>
       <c r="P29" s="59"/>
       <c r="Q29" s="75"/>
@@ -11079,10 +11136,10 @@
       <c r="H30" s="62"/>
       <c r="I30" s="62"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="218"/>
-      <c r="L30" s="219"/>
-      <c r="M30" s="219"/>
-      <c r="N30" s="220"/>
+      <c r="K30" s="209"/>
+      <c r="L30" s="210"/>
+      <c r="M30" s="210"/>
+      <c r="N30" s="211"/>
       <c r="O30" s="59"/>
       <c r="P30" s="59"/>
       <c r="Q30" s="75"/>
@@ -11104,10 +11161,10 @@
       <c r="H31" s="62"/>
       <c r="I31" s="62"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="218"/>
-      <c r="L31" s="219"/>
-      <c r="M31" s="219"/>
-      <c r="N31" s="220"/>
+      <c r="K31" s="209"/>
+      <c r="L31" s="210"/>
+      <c r="M31" s="210"/>
+      <c r="N31" s="211"/>
       <c r="O31" s="59"/>
       <c r="P31" s="59"/>
       <c r="Q31" s="75"/>
@@ -11129,10 +11186,10 @@
       <c r="H32" s="62"/>
       <c r="I32" s="62"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="218"/>
-      <c r="L32" s="219"/>
-      <c r="M32" s="219"/>
-      <c r="N32" s="220"/>
+      <c r="K32" s="209"/>
+      <c r="L32" s="210"/>
+      <c r="M32" s="210"/>
+      <c r="N32" s="211"/>
       <c r="O32" s="59"/>
       <c r="P32" s="59"/>
       <c r="Q32" s="75"/>
@@ -11154,10 +11211,10 @@
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="218"/>
-      <c r="L33" s="219"/>
-      <c r="M33" s="219"/>
-      <c r="N33" s="220"/>
+      <c r="K33" s="209"/>
+      <c r="L33" s="210"/>
+      <c r="M33" s="210"/>
+      <c r="N33" s="211"/>
       <c r="O33" s="59"/>
       <c r="P33" s="59"/>
       <c r="Q33" s="75"/>
@@ -11179,10 +11236,10 @@
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
       <c r="J34" s="81"/>
-      <c r="K34" s="218"/>
-      <c r="L34" s="219"/>
-      <c r="M34" s="219"/>
-      <c r="N34" s="220"/>
+      <c r="K34" s="209"/>
+      <c r="L34" s="210"/>
+      <c r="M34" s="210"/>
+      <c r="N34" s="211"/>
       <c r="O34" s="84"/>
       <c r="P34" s="84"/>
       <c r="Q34" s="75"/>
@@ -11204,10 +11261,10 @@
       <c r="H35" s="62"/>
       <c r="I35" s="62"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="218"/>
-      <c r="L35" s="219"/>
-      <c r="M35" s="219"/>
-      <c r="N35" s="220"/>
+      <c r="K35" s="209"/>
+      <c r="L35" s="210"/>
+      <c r="M35" s="210"/>
+      <c r="N35" s="211"/>
       <c r="O35" s="59"/>
       <c r="P35" s="59"/>
       <c r="Q35" s="75"/>
@@ -11229,10 +11286,10 @@
       <c r="H36" s="62"/>
       <c r="I36" s="62"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="218"/>
-      <c r="L36" s="219"/>
-      <c r="M36" s="219"/>
-      <c r="N36" s="220"/>
+      <c r="K36" s="209"/>
+      <c r="L36" s="210"/>
+      <c r="M36" s="210"/>
+      <c r="N36" s="211"/>
       <c r="O36" s="59"/>
       <c r="P36" s="59"/>
       <c r="Q36" s="75"/>
@@ -11254,10 +11311,10 @@
       <c r="H37" s="62"/>
       <c r="I37" s="62"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="218"/>
-      <c r="L37" s="219"/>
-      <c r="M37" s="219"/>
-      <c r="N37" s="220"/>
+      <c r="K37" s="209"/>
+      <c r="L37" s="210"/>
+      <c r="M37" s="210"/>
+      <c r="N37" s="211"/>
       <c r="O37" s="59"/>
       <c r="P37" s="59"/>
       <c r="Q37" s="75"/>
@@ -11279,10 +11336,10 @@
       <c r="H38" s="62"/>
       <c r="I38" s="62"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="218"/>
-      <c r="L38" s="219"/>
-      <c r="M38" s="219"/>
-      <c r="N38" s="220"/>
+      <c r="K38" s="209"/>
+      <c r="L38" s="210"/>
+      <c r="M38" s="210"/>
+      <c r="N38" s="211"/>
       <c r="O38" s="59"/>
       <c r="P38" s="59"/>
       <c r="Q38" s="75"/>
@@ -11304,10 +11361,10 @@
       <c r="H39" s="62"/>
       <c r="I39" s="62"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="218"/>
-      <c r="L39" s="219"/>
-      <c r="M39" s="219"/>
-      <c r="N39" s="220"/>
+      <c r="K39" s="209"/>
+      <c r="L39" s="210"/>
+      <c r="M39" s="210"/>
+      <c r="N39" s="211"/>
       <c r="O39" s="59"/>
       <c r="P39" s="59"/>
       <c r="Q39" s="75"/>
@@ -11329,10 +11386,10 @@
       <c r="H40" s="62"/>
       <c r="I40" s="62"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="218"/>
-      <c r="L40" s="219"/>
-      <c r="M40" s="219"/>
-      <c r="N40" s="220"/>
+      <c r="K40" s="209"/>
+      <c r="L40" s="210"/>
+      <c r="M40" s="210"/>
+      <c r="N40" s="211"/>
       <c r="O40" s="73"/>
       <c r="P40" s="73"/>
       <c r="Q40" s="75"/>
@@ -11354,10 +11411,10 @@
       <c r="H41" s="62"/>
       <c r="I41" s="62"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="218"/>
-      <c r="L41" s="219"/>
-      <c r="M41" s="219"/>
-      <c r="N41" s="220"/>
+      <c r="K41" s="209"/>
+      <c r="L41" s="210"/>
+      <c r="M41" s="210"/>
+      <c r="N41" s="211"/>
       <c r="O41" s="73"/>
       <c r="P41" s="73"/>
       <c r="Q41" s="75"/>
@@ -11379,10 +11436,10 @@
       <c r="H42" s="62"/>
       <c r="I42" s="62"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="218"/>
-      <c r="L42" s="219"/>
-      <c r="M42" s="219"/>
-      <c r="N42" s="220"/>
+      <c r="K42" s="209"/>
+      <c r="L42" s="210"/>
+      <c r="M42" s="210"/>
+      <c r="N42" s="211"/>
       <c r="O42" s="73"/>
       <c r="P42" s="73"/>
       <c r="Q42" s="75"/>
@@ -11404,10 +11461,10 @@
       <c r="H43" s="62"/>
       <c r="I43" s="62"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="218"/>
-      <c r="L43" s="219"/>
-      <c r="M43" s="219"/>
-      <c r="N43" s="220"/>
+      <c r="K43" s="209"/>
+      <c r="L43" s="210"/>
+      <c r="M43" s="210"/>
+      <c r="N43" s="211"/>
       <c r="O43" s="73"/>
       <c r="P43" s="73"/>
       <c r="Q43" s="75"/>
@@ -11429,10 +11486,10 @@
       <c r="H44" s="62"/>
       <c r="I44" s="62"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="218"/>
-      <c r="L44" s="219"/>
-      <c r="M44" s="219"/>
-      <c r="N44" s="220"/>
+      <c r="K44" s="209"/>
+      <c r="L44" s="210"/>
+      <c r="M44" s="210"/>
+      <c r="N44" s="211"/>
       <c r="O44" s="73"/>
       <c r="P44" s="73"/>
       <c r="Q44" s="75"/>
@@ -11454,10 +11511,10 @@
       <c r="H45" s="62"/>
       <c r="I45" s="62"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="218"/>
-      <c r="L45" s="219"/>
-      <c r="M45" s="219"/>
-      <c r="N45" s="220"/>
+      <c r="K45" s="209"/>
+      <c r="L45" s="210"/>
+      <c r="M45" s="210"/>
+      <c r="N45" s="211"/>
       <c r="O45" s="73"/>
       <c r="P45" s="73"/>
       <c r="Q45" s="75"/>
@@ -11479,10 +11536,10 @@
       <c r="H46" s="62"/>
       <c r="I46" s="62"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="218"/>
-      <c r="L46" s="219"/>
-      <c r="M46" s="219"/>
-      <c r="N46" s="220"/>
+      <c r="K46" s="209"/>
+      <c r="L46" s="210"/>
+      <c r="M46" s="210"/>
+      <c r="N46" s="211"/>
       <c r="O46" s="73"/>
       <c r="P46" s="73"/>
       <c r="Q46" s="75"/>
@@ -11504,10 +11561,10 @@
       <c r="H47" s="62"/>
       <c r="I47" s="62"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="218"/>
-      <c r="L47" s="219"/>
-      <c r="M47" s="219"/>
-      <c r="N47" s="220"/>
+      <c r="K47" s="209"/>
+      <c r="L47" s="210"/>
+      <c r="M47" s="210"/>
+      <c r="N47" s="211"/>
       <c r="O47" s="73"/>
       <c r="P47" s="73"/>
       <c r="Q47" s="75"/>
@@ -11529,10 +11586,10 @@
       <c r="H48" s="62"/>
       <c r="I48" s="62"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="218"/>
-      <c r="L48" s="219"/>
-      <c r="M48" s="219"/>
-      <c r="N48" s="220"/>
+      <c r="K48" s="209"/>
+      <c r="L48" s="210"/>
+      <c r="M48" s="210"/>
+      <c r="N48" s="211"/>
       <c r="O48" s="73"/>
       <c r="P48" s="73"/>
       <c r="Q48" s="75"/>
@@ -11554,10 +11611,10 @@
       <c r="H49" s="62"/>
       <c r="I49" s="62"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="218"/>
-      <c r="L49" s="219"/>
-      <c r="M49" s="219"/>
-      <c r="N49" s="220"/>
+      <c r="K49" s="209"/>
+      <c r="L49" s="210"/>
+      <c r="M49" s="210"/>
+      <c r="N49" s="211"/>
       <c r="O49" s="73"/>
       <c r="P49" s="73"/>
       <c r="Q49" s="75"/>
@@ -11579,10 +11636,10 @@
       <c r="H50" s="62"/>
       <c r="I50" s="62"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="218"/>
-      <c r="L50" s="219"/>
-      <c r="M50" s="219"/>
-      <c r="N50" s="220"/>
+      <c r="K50" s="209"/>
+      <c r="L50" s="210"/>
+      <c r="M50" s="210"/>
+      <c r="N50" s="211"/>
       <c r="O50" s="73"/>
       <c r="P50" s="73"/>
       <c r="Q50" s="75"/>
@@ -11604,10 +11661,10 @@
       <c r="H51" s="62"/>
       <c r="I51" s="62"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="218"/>
-      <c r="L51" s="219"/>
-      <c r="M51" s="219"/>
-      <c r="N51" s="220"/>
+      <c r="K51" s="209"/>
+      <c r="L51" s="210"/>
+      <c r="M51" s="210"/>
+      <c r="N51" s="211"/>
       <c r="O51" s="73"/>
       <c r="P51" s="73"/>
       <c r="Q51" s="75"/>
@@ -11629,10 +11686,10 @@
       <c r="H52" s="62"/>
       <c r="I52" s="62"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="218"/>
-      <c r="L52" s="219"/>
-      <c r="M52" s="219"/>
-      <c r="N52" s="220"/>
+      <c r="K52" s="209"/>
+      <c r="L52" s="210"/>
+      <c r="M52" s="210"/>
+      <c r="N52" s="211"/>
       <c r="O52" s="73"/>
       <c r="P52" s="73"/>
       <c r="Q52" s="75"/>
@@ -11654,10 +11711,10 @@
       <c r="H53" s="62"/>
       <c r="I53" s="62"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="218"/>
-      <c r="L53" s="219"/>
-      <c r="M53" s="219"/>
-      <c r="N53" s="220"/>
+      <c r="K53" s="209"/>
+      <c r="L53" s="210"/>
+      <c r="M53" s="210"/>
+      <c r="N53" s="211"/>
       <c r="O53" s="73"/>
       <c r="P53" s="73"/>
       <c r="Q53" s="75"/>
@@ -11679,10 +11736,10 @@
       <c r="H54" s="62"/>
       <c r="I54" s="62"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="218"/>
-      <c r="L54" s="219"/>
-      <c r="M54" s="219"/>
-      <c r="N54" s="220"/>
+      <c r="K54" s="209"/>
+      <c r="L54" s="210"/>
+      <c r="M54" s="210"/>
+      <c r="N54" s="211"/>
       <c r="O54" s="73"/>
       <c r="P54" s="73"/>
       <c r="Q54" s="75"/>
@@ -11704,10 +11761,10 @@
       <c r="H55" s="62"/>
       <c r="I55" s="62"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="218"/>
-      <c r="L55" s="219"/>
-      <c r="M55" s="219"/>
-      <c r="N55" s="220"/>
+      <c r="K55" s="209"/>
+      <c r="L55" s="210"/>
+      <c r="M55" s="210"/>
+      <c r="N55" s="211"/>
       <c r="O55" s="73"/>
       <c r="P55" s="73"/>
       <c r="Q55" s="75"/>
@@ -11729,10 +11786,10 @@
       <c r="H56" s="62"/>
       <c r="I56" s="62"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="218"/>
-      <c r="L56" s="219"/>
-      <c r="M56" s="219"/>
-      <c r="N56" s="220"/>
+      <c r="K56" s="209"/>
+      <c r="L56" s="210"/>
+      <c r="M56" s="210"/>
+      <c r="N56" s="211"/>
       <c r="O56" s="73"/>
       <c r="P56" s="73"/>
       <c r="Q56" s="75"/>
@@ -11754,10 +11811,10 @@
       <c r="H57" s="62"/>
       <c r="I57" s="62"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="218"/>
-      <c r="L57" s="219"/>
-      <c r="M57" s="219"/>
-      <c r="N57" s="220"/>
+      <c r="K57" s="209"/>
+      <c r="L57" s="210"/>
+      <c r="M57" s="210"/>
+      <c r="N57" s="211"/>
       <c r="O57" s="73"/>
       <c r="P57" s="73"/>
       <c r="Q57" s="75"/>
@@ -11779,10 +11836,10 @@
       <c r="H58" s="62"/>
       <c r="I58" s="62"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="218"/>
-      <c r="L58" s="219"/>
-      <c r="M58" s="219"/>
-      <c r="N58" s="220"/>
+      <c r="K58" s="209"/>
+      <c r="L58" s="210"/>
+      <c r="M58" s="210"/>
+      <c r="N58" s="211"/>
       <c r="O58" s="73"/>
       <c r="P58" s="73"/>
       <c r="Q58" s="75"/>
@@ -11804,10 +11861,10 @@
       <c r="H59" s="62"/>
       <c r="I59" s="62"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="218"/>
-      <c r="L59" s="219"/>
-      <c r="M59" s="219"/>
-      <c r="N59" s="220"/>
+      <c r="K59" s="209"/>
+      <c r="L59" s="210"/>
+      <c r="M59" s="210"/>
+      <c r="N59" s="211"/>
       <c r="O59" s="73"/>
       <c r="P59" s="73"/>
       <c r="Q59" s="75"/>
@@ -11829,10 +11886,10 @@
       <c r="H60" s="62"/>
       <c r="I60" s="62"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="218"/>
-      <c r="L60" s="219"/>
-      <c r="M60" s="219"/>
-      <c r="N60" s="220"/>
+      <c r="K60" s="209"/>
+      <c r="L60" s="210"/>
+      <c r="M60" s="210"/>
+      <c r="N60" s="211"/>
       <c r="O60" s="73"/>
       <c r="P60" s="73"/>
       <c r="Q60" s="75"/>
@@ -11854,10 +11911,10 @@
       <c r="H61" s="62"/>
       <c r="I61" s="62"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="218"/>
-      <c r="L61" s="219"/>
-      <c r="M61" s="219"/>
-      <c r="N61" s="220"/>
+      <c r="K61" s="209"/>
+      <c r="L61" s="210"/>
+      <c r="M61" s="210"/>
+      <c r="N61" s="211"/>
       <c r="O61" s="73"/>
       <c r="P61" s="73"/>
       <c r="Q61" s="75"/>
@@ -11879,10 +11936,10 @@
       <c r="H62" s="62"/>
       <c r="I62" s="62"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="218"/>
-      <c r="L62" s="219"/>
-      <c r="M62" s="219"/>
-      <c r="N62" s="220"/>
+      <c r="K62" s="209"/>
+      <c r="L62" s="210"/>
+      <c r="M62" s="210"/>
+      <c r="N62" s="211"/>
       <c r="O62" s="83"/>
       <c r="P62" s="83"/>
       <c r="Q62" s="75"/>
@@ -11904,10 +11961,10 @@
       <c r="H63" s="62"/>
       <c r="I63" s="62"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="218"/>
-      <c r="L63" s="219"/>
-      <c r="M63" s="219"/>
-      <c r="N63" s="220"/>
+      <c r="K63" s="209"/>
+      <c r="L63" s="210"/>
+      <c r="M63" s="210"/>
+      <c r="N63" s="211"/>
       <c r="O63" s="83"/>
       <c r="P63" s="83"/>
       <c r="Q63" s="75"/>
@@ -11929,10 +11986,10 @@
       <c r="H64" s="62"/>
       <c r="I64" s="62"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="218"/>
-      <c r="L64" s="219"/>
-      <c r="M64" s="219"/>
-      <c r="N64" s="220"/>
+      <c r="K64" s="209"/>
+      <c r="L64" s="210"/>
+      <c r="M64" s="210"/>
+      <c r="N64" s="211"/>
       <c r="O64" s="83"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="75"/>
@@ -11952,10 +12009,10 @@
       <c r="H65" s="62"/>
       <c r="I65" s="62"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="218"/>
-      <c r="L65" s="219"/>
-      <c r="M65" s="219"/>
-      <c r="N65" s="220"/>
+      <c r="K65" s="209"/>
+      <c r="L65" s="210"/>
+      <c r="M65" s="210"/>
+      <c r="N65" s="211"/>
       <c r="O65" s="83"/>
       <c r="P65" s="83"/>
       <c r="Q65" s="75"/>
@@ -11975,10 +12032,10 @@
       <c r="H66" s="62"/>
       <c r="I66" s="62"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="218"/>
-      <c r="L66" s="219"/>
-      <c r="M66" s="219"/>
-      <c r="N66" s="220"/>
+      <c r="K66" s="209"/>
+      <c r="L66" s="210"/>
+      <c r="M66" s="210"/>
+      <c r="N66" s="211"/>
       <c r="O66" s="83"/>
       <c r="P66" s="83"/>
       <c r="Q66" s="75"/>
@@ -11998,10 +12055,10 @@
       <c r="H67" s="62"/>
       <c r="I67" s="62"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="218"/>
-      <c r="L67" s="219"/>
-      <c r="M67" s="219"/>
-      <c r="N67" s="220"/>
+      <c r="K67" s="209"/>
+      <c r="L67" s="210"/>
+      <c r="M67" s="210"/>
+      <c r="N67" s="211"/>
       <c r="O67" s="83"/>
       <c r="P67" s="83"/>
       <c r="Q67" s="75"/>
@@ -12021,10 +12078,10 @@
       <c r="H68" s="62"/>
       <c r="I68" s="62"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="218"/>
-      <c r="L68" s="219"/>
-      <c r="M68" s="219"/>
-      <c r="N68" s="220"/>
+      <c r="K68" s="209"/>
+      <c r="L68" s="210"/>
+      <c r="M68" s="210"/>
+      <c r="N68" s="211"/>
       <c r="O68" s="83"/>
       <c r="P68" s="83"/>
       <c r="Q68" s="75"/>
@@ -12044,10 +12101,10 @@
       <c r="H69" s="62"/>
       <c r="I69" s="62"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="218"/>
-      <c r="L69" s="219"/>
-      <c r="M69" s="219"/>
-      <c r="N69" s="220"/>
+      <c r="K69" s="209"/>
+      <c r="L69" s="210"/>
+      <c r="M69" s="210"/>
+      <c r="N69" s="211"/>
       <c r="O69" s="83"/>
       <c r="P69" s="83"/>
       <c r="Q69" s="75"/>
@@ -12067,10 +12124,10 @@
       <c r="H70" s="62"/>
       <c r="I70" s="62"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="218"/>
-      <c r="L70" s="219"/>
-      <c r="M70" s="219"/>
-      <c r="N70" s="220"/>
+      <c r="K70" s="209"/>
+      <c r="L70" s="210"/>
+      <c r="M70" s="210"/>
+      <c r="N70" s="211"/>
       <c r="O70" s="83"/>
       <c r="P70" s="83"/>
       <c r="Q70" s="75"/>
@@ -12090,10 +12147,10 @@
       <c r="H71" s="62"/>
       <c r="I71" s="62"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="218"/>
-      <c r="L71" s="219"/>
-      <c r="M71" s="219"/>
-      <c r="N71" s="220"/>
+      <c r="K71" s="209"/>
+      <c r="L71" s="210"/>
+      <c r="M71" s="210"/>
+      <c r="N71" s="211"/>
       <c r="O71" s="83"/>
       <c r="P71" s="83"/>
       <c r="Q71" s="75"/>
@@ -12113,10 +12170,10 @@
       <c r="H72" s="62"/>
       <c r="I72" s="62"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="218"/>
-      <c r="L72" s="219"/>
-      <c r="M72" s="219"/>
-      <c r="N72" s="220"/>
+      <c r="K72" s="209"/>
+      <c r="L72" s="210"/>
+      <c r="M72" s="210"/>
+      <c r="N72" s="211"/>
       <c r="O72" s="83"/>
       <c r="P72" s="83"/>
       <c r="Q72" s="75"/>
@@ -12136,10 +12193,10 @@
       <c r="H73" s="62"/>
       <c r="I73" s="62"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="218"/>
-      <c r="L73" s="219"/>
-      <c r="M73" s="219"/>
-      <c r="N73" s="220"/>
+      <c r="K73" s="209"/>
+      <c r="L73" s="210"/>
+      <c r="M73" s="210"/>
+      <c r="N73" s="211"/>
       <c r="O73" s="83"/>
       <c r="P73" s="83"/>
       <c r="Q73" s="75"/>
@@ -12159,10 +12216,10 @@
       <c r="H74" s="62"/>
       <c r="I74" s="62"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="218"/>
-      <c r="L74" s="219"/>
-      <c r="M74" s="219"/>
-      <c r="N74" s="220"/>
+      <c r="K74" s="209"/>
+      <c r="L74" s="210"/>
+      <c r="M74" s="210"/>
+      <c r="N74" s="211"/>
       <c r="O74" s="83"/>
       <c r="P74" s="83"/>
       <c r="Q74" s="75"/>
@@ -12182,10 +12239,10 @@
       <c r="H75" s="62"/>
       <c r="I75" s="62"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="218"/>
-      <c r="L75" s="219"/>
-      <c r="M75" s="219"/>
-      <c r="N75" s="220"/>
+      <c r="K75" s="209"/>
+      <c r="L75" s="210"/>
+      <c r="M75" s="210"/>
+      <c r="N75" s="211"/>
       <c r="O75" s="83"/>
       <c r="P75" s="83"/>
       <c r="Q75" s="75"/>
@@ -12205,10 +12262,10 @@
       <c r="H76" s="62"/>
       <c r="I76" s="62"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="218"/>
-      <c r="L76" s="219"/>
-      <c r="M76" s="219"/>
-      <c r="N76" s="220"/>
+      <c r="K76" s="209"/>
+      <c r="L76" s="210"/>
+      <c r="M76" s="210"/>
+      <c r="N76" s="211"/>
       <c r="O76" s="83"/>
       <c r="P76" s="83"/>
       <c r="Q76" s="75"/>
@@ -12228,10 +12285,10 @@
       <c r="H77" s="62"/>
       <c r="I77" s="62"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="218"/>
-      <c r="L77" s="219"/>
-      <c r="M77" s="219"/>
-      <c r="N77" s="220"/>
+      <c r="K77" s="209"/>
+      <c r="L77" s="210"/>
+      <c r="M77" s="210"/>
+      <c r="N77" s="211"/>
       <c r="O77" s="83"/>
       <c r="P77" s="83"/>
       <c r="Q77" s="75"/>
@@ -12251,10 +12308,10 @@
       <c r="H78" s="62"/>
       <c r="I78" s="62"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="218"/>
-      <c r="L78" s="219"/>
-      <c r="M78" s="219"/>
-      <c r="N78" s="220"/>
+      <c r="K78" s="209"/>
+      <c r="L78" s="210"/>
+      <c r="M78" s="210"/>
+      <c r="N78" s="211"/>
       <c r="O78" s="83"/>
       <c r="P78" s="83"/>
       <c r="Q78" s="75"/>
@@ -12274,10 +12331,10 @@
       <c r="H79" s="62"/>
       <c r="I79" s="62"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="218"/>
-      <c r="L79" s="219"/>
-      <c r="M79" s="219"/>
-      <c r="N79" s="220"/>
+      <c r="K79" s="209"/>
+      <c r="L79" s="210"/>
+      <c r="M79" s="210"/>
+      <c r="N79" s="211"/>
       <c r="O79" s="83"/>
       <c r="P79" s="83"/>
       <c r="Q79" s="75"/>
@@ -12297,10 +12354,10 @@
       <c r="H80" s="62"/>
       <c r="I80" s="62"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="218"/>
-      <c r="L80" s="219"/>
-      <c r="M80" s="219"/>
-      <c r="N80" s="220"/>
+      <c r="K80" s="209"/>
+      <c r="L80" s="210"/>
+      <c r="M80" s="210"/>
+      <c r="N80" s="211"/>
       <c r="O80" s="83"/>
       <c r="P80" s="83"/>
       <c r="Q80" s="75"/>
@@ -12320,10 +12377,10 @@
       <c r="H81" s="62"/>
       <c r="I81" s="62"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="218"/>
-      <c r="L81" s="219"/>
-      <c r="M81" s="219"/>
-      <c r="N81" s="220"/>
+      <c r="K81" s="209"/>
+      <c r="L81" s="210"/>
+      <c r="M81" s="210"/>
+      <c r="N81" s="211"/>
       <c r="O81" s="83"/>
       <c r="P81" s="83"/>
       <c r="Q81" s="75"/>
@@ -12343,10 +12400,10 @@
       <c r="H82" s="62"/>
       <c r="I82" s="62"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="218"/>
-      <c r="L82" s="219"/>
-      <c r="M82" s="219"/>
-      <c r="N82" s="220"/>
+      <c r="K82" s="209"/>
+      <c r="L82" s="210"/>
+      <c r="M82" s="210"/>
+      <c r="N82" s="211"/>
       <c r="O82" s="83"/>
       <c r="P82" s="83"/>
       <c r="Q82" s="75"/>
@@ -12366,10 +12423,10 @@
       <c r="H83" s="62"/>
       <c r="I83" s="62"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="218"/>
-      <c r="L83" s="219"/>
-      <c r="M83" s="219"/>
-      <c r="N83" s="220"/>
+      <c r="K83" s="209"/>
+      <c r="L83" s="210"/>
+      <c r="M83" s="210"/>
+      <c r="N83" s="211"/>
       <c r="O83" s="83"/>
       <c r="P83" s="83"/>
       <c r="Q83" s="75"/>
@@ -12389,10 +12446,10 @@
       <c r="H84" s="62"/>
       <c r="I84" s="62"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="218"/>
-      <c r="L84" s="219"/>
-      <c r="M84" s="219"/>
-      <c r="N84" s="220"/>
+      <c r="K84" s="209"/>
+      <c r="L84" s="210"/>
+      <c r="M84" s="210"/>
+      <c r="N84" s="211"/>
       <c r="O84" s="83"/>
       <c r="P84" s="83"/>
       <c r="Q84" s="75"/>
@@ -12412,10 +12469,10 @@
       <c r="H85" s="62"/>
       <c r="I85" s="62"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="218"/>
-      <c r="L85" s="219"/>
-      <c r="M85" s="219"/>
-      <c r="N85" s="220"/>
+      <c r="K85" s="209"/>
+      <c r="L85" s="210"/>
+      <c r="M85" s="210"/>
+      <c r="N85" s="211"/>
       <c r="O85" s="83"/>
       <c r="P85" s="83"/>
       <c r="Q85" s="75"/>
@@ -12435,10 +12492,10 @@
       <c r="H86" s="62"/>
       <c r="I86" s="62"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="218"/>
-      <c r="L86" s="219"/>
-      <c r="M86" s="219"/>
-      <c r="N86" s="220"/>
+      <c r="K86" s="209"/>
+      <c r="L86" s="210"/>
+      <c r="M86" s="210"/>
+      <c r="N86" s="211"/>
       <c r="O86" s="83"/>
       <c r="P86" s="83"/>
       <c r="Q86" s="75"/>
@@ -12458,10 +12515,10 @@
       <c r="H87" s="62"/>
       <c r="I87" s="62"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="218"/>
-      <c r="L87" s="219"/>
-      <c r="M87" s="219"/>
-      <c r="N87" s="220"/>
+      <c r="K87" s="209"/>
+      <c r="L87" s="210"/>
+      <c r="M87" s="210"/>
+      <c r="N87" s="211"/>
       <c r="O87" s="83"/>
       <c r="P87" s="83"/>
       <c r="Q87" s="75"/>
@@ -12481,10 +12538,10 @@
       <c r="H88" s="62"/>
       <c r="I88" s="62"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="218"/>
-      <c r="L88" s="219"/>
-      <c r="M88" s="219"/>
-      <c r="N88" s="220"/>
+      <c r="K88" s="209"/>
+      <c r="L88" s="210"/>
+      <c r="M88" s="210"/>
+      <c r="N88" s="211"/>
       <c r="O88" s="83"/>
       <c r="P88" s="83"/>
       <c r="Q88" s="75"/>
@@ -12504,10 +12561,10 @@
       <c r="H89" s="62"/>
       <c r="I89" s="62"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="218"/>
-      <c r="L89" s="219"/>
-      <c r="M89" s="219"/>
-      <c r="N89" s="220"/>
+      <c r="K89" s="209"/>
+      <c r="L89" s="210"/>
+      <c r="M89" s="210"/>
+      <c r="N89" s="211"/>
       <c r="O89" s="83"/>
       <c r="P89" s="83"/>
       <c r="Q89" s="75"/>
@@ -12527,10 +12584,10 @@
       <c r="H90" s="62"/>
       <c r="I90" s="62"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="218"/>
-      <c r="L90" s="219"/>
-      <c r="M90" s="219"/>
-      <c r="N90" s="220"/>
+      <c r="K90" s="209"/>
+      <c r="L90" s="210"/>
+      <c r="M90" s="210"/>
+      <c r="N90" s="211"/>
       <c r="O90" s="83"/>
       <c r="P90" s="83"/>
       <c r="Q90" s="75"/>
@@ -12550,10 +12607,10 @@
       <c r="H91" s="62"/>
       <c r="I91" s="62"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="218"/>
-      <c r="L91" s="219"/>
-      <c r="M91" s="219"/>
-      <c r="N91" s="220"/>
+      <c r="K91" s="209"/>
+      <c r="L91" s="210"/>
+      <c r="M91" s="210"/>
+      <c r="N91" s="211"/>
       <c r="O91" s="83"/>
       <c r="P91" s="83"/>
       <c r="Q91" s="75"/>
@@ -12573,10 +12630,10 @@
       <c r="H92" s="62"/>
       <c r="I92" s="62"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="218"/>
-      <c r="L92" s="219"/>
-      <c r="M92" s="219"/>
-      <c r="N92" s="220"/>
+      <c r="K92" s="209"/>
+      <c r="L92" s="210"/>
+      <c r="M92" s="210"/>
+      <c r="N92" s="211"/>
       <c r="O92" s="83"/>
       <c r="P92" s="83"/>
       <c r="Q92" s="75"/>
@@ -12596,10 +12653,10 @@
       <c r="H93" s="62"/>
       <c r="I93" s="62"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="218"/>
-      <c r="L93" s="219"/>
-      <c r="M93" s="219"/>
-      <c r="N93" s="220"/>
+      <c r="K93" s="209"/>
+      <c r="L93" s="210"/>
+      <c r="M93" s="210"/>
+      <c r="N93" s="211"/>
       <c r="O93" s="83"/>
       <c r="P93" s="83"/>
       <c r="Q93" s="75"/>
@@ -12619,10 +12676,10 @@
       <c r="H94" s="62"/>
       <c r="I94" s="62"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="218"/>
-      <c r="L94" s="219"/>
-      <c r="M94" s="219"/>
-      <c r="N94" s="220"/>
+      <c r="K94" s="209"/>
+      <c r="L94" s="210"/>
+      <c r="M94" s="210"/>
+      <c r="N94" s="211"/>
       <c r="O94" s="83"/>
       <c r="P94" s="83"/>
       <c r="Q94" s="75"/>
@@ -12635,47 +12692,43 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
     <mergeCell ref="K59:N59"/>
     <mergeCell ref="K42:N42"/>
     <mergeCell ref="K43:N43"/>
@@ -12692,43 +12745,47 @@
     <mergeCell ref="K57:N57"/>
     <mergeCell ref="K51:N51"/>
     <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -12774,10 +12831,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="179"/>
+      <c r="B1" s="175"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12807,8 +12864,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="179"/>
-      <c r="B2" s="179"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12866,7 +12923,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -12921,7 +12978,7 @@
       <c r="A10" s="79"/>
       <c r="B10" s="43"/>
       <c r="C10" s="85" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
@@ -12949,7 +13006,7 @@
       <c r="A12" s="79"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -13035,7 +13092,7 @@
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="B20" s="43"/>
       <c r="C20" s="85" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
@@ -13400,7 +13457,7 @@
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1">
       <c r="B50" s="85" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C50" s="85"/>
       <c r="D50" s="43"/>
@@ -13870,7 +13927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J2"/>
     </sheetView>
   </sheetViews>
@@ -13887,10 +13944,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="179"/>
+      <c r="B1" s="175"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13920,8 +13977,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="179"/>
-      <c r="B2" s="179"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang khong phat sinh don hang/CRMR30401_Bao cao kh khong phat sinh don hang.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang khong phat sinh don hang/CRMR30401_Bao cao kh khong phat sinh don hang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="864" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="864" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1590,7 +1590,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="229">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2379,12 +2379,6 @@
     <t>Tổng (theo GroupTime)</t>
   </si>
   <si>
-    <t>Tổng (theo các GroupTime)</t>
-  </si>
-  <si>
-    <t>Tổng (theo DivisionID)</t>
-  </si>
-  <si>
     <t>Division</t>
   </si>
   <si>
@@ -2392,6 +2386,9 @@
   </si>
   <si>
     <t>Text</t>
+  </si>
+  <si>
+    <t>Tổng (theo các đơn vị)</t>
   </si>
 </sst>
 </file>
@@ -3399,9 +3396,36 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3447,23 +3471,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3492,9 +3501,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3564,6 +3570,36 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3573,18 +3609,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3594,18 +3618,18 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3617,33 +3641,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3726,19 +3723,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>4657725</xdr:colOff>
+      <xdr:colOff>4591050</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3758,8 +3755,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="85725" y="1162050"/>
-          <a:ext cx="11449050" cy="3533775"/>
+          <a:off x="19050" y="1114425"/>
+          <a:ext cx="11449050" cy="3467100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4570,65 +4567,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="152"/>
-      <c r="B1" s="152"/>
-      <c r="C1" s="154" t="s">
+      <c r="A1" s="161"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="163" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="153" t="s">
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="162" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153" t="s">
+      <c r="H1" s="162"/>
+      <c r="I1" s="162" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="153"/>
+      <c r="J1" s="162"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="152"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="153" t="s">
+      <c r="A2" s="161"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="162" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="152"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="149" t="s">
+      <c r="A3" s="161"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="158" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="150"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="150"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="159"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="116"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="151"/>
-      <c r="B13" s="151"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
+      <c r="A13" s="160"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="160"/>
       <c r="K13" s="117"/>
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
@@ -4639,56 +4636,56 @@
       <c r="R13" s="117"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="147"/>
-      <c r="M14" s="147"/>
-      <c r="N14" s="147"/>
-      <c r="O14" s="147"/>
-      <c r="P14" s="147"/>
-      <c r="Q14" s="147"/>
-      <c r="R14" s="147"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
+      <c r="N14" s="154"/>
+      <c r="O14" s="154"/>
+      <c r="P14" s="154"/>
+      <c r="Q14" s="154"/>
+      <c r="R14" s="154"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="147"/>
-      <c r="M15" s="147"/>
-      <c r="N15" s="147"/>
-      <c r="O15" s="147"/>
-      <c r="P15" s="147"/>
-      <c r="Q15" s="147"/>
-      <c r="R15" s="147"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="154"/>
+      <c r="P15" s="154"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="154"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="148" t="s">
+      <c r="A16" s="157" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="148"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
       <c r="K16" s="118"/>
       <c r="L16" s="118"/>
       <c r="M16" s="118"/>
@@ -4699,384 +4696,384 @@
       <c r="R16" s="118"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="147"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="147"/>
-      <c r="O17" s="147"/>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="147"/>
-      <c r="R17" s="147"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="154"/>
+      <c r="O17" s="154"/>
+      <c r="P17" s="154"/>
+      <c r="Q17" s="154"/>
+      <c r="R17" s="154"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="147"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="147"/>
-      <c r="M18" s="147"/>
-      <c r="N18" s="147"/>
-      <c r="O18" s="147"/>
-      <c r="P18" s="147"/>
-      <c r="Q18" s="147"/>
-      <c r="R18" s="147"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="154"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="164"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="164"/>
-      <c r="K19" s="164"/>
-      <c r="L19" s="164"/>
-      <c r="M19" s="164"/>
-      <c r="N19" s="164"/>
-      <c r="O19" s="164"/>
-      <c r="P19" s="164"/>
-      <c r="Q19" s="164"/>
-      <c r="R19" s="164"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="156"/>
+      <c r="Q19" s="156"/>
+      <c r="R19" s="156"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="147"/>
-      <c r="Q20" s="147"/>
-      <c r="R20" s="147"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="154"/>
+      <c r="O20" s="154"/>
+      <c r="P20" s="154"/>
+      <c r="Q20" s="154"/>
+      <c r="R20" s="154"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="147"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="147"/>
-      <c r="M21" s="147"/>
-      <c r="N21" s="147"/>
-      <c r="O21" s="147"/>
-      <c r="P21" s="147"/>
-      <c r="Q21" s="147"/>
-      <c r="R21" s="147"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="R21" s="154"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="163"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="163"/>
-      <c r="K22" s="163"/>
-      <c r="L22" s="163"/>
-      <c r="M22" s="163"/>
-      <c r="N22" s="163"/>
-      <c r="O22" s="163"/>
-      <c r="P22" s="163"/>
-      <c r="Q22" s="163"/>
-      <c r="R22" s="163"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="155"/>
+      <c r="O22" s="155"/>
+      <c r="P22" s="155"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="155"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="163"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="163"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="163"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="163"/>
-      <c r="P23" s="163"/>
-      <c r="Q23" s="163"/>
-      <c r="R23" s="163"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="155"/>
+      <c r="O23" s="155"/>
+      <c r="P23" s="155"/>
+      <c r="Q23" s="155"/>
+      <c r="R23" s="155"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="165"/>
-      <c r="C26" s="165"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="165"/>
-      <c r="I26" s="165"/>
-      <c r="J26" s="165"/>
-      <c r="K26" s="165"/>
-      <c r="L26" s="165"/>
-      <c r="M26" s="165"/>
-      <c r="N26" s="165"/>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="165"/>
-      <c r="R26" s="165"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="152"/>
+      <c r="R26" s="152"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="167"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="167"/>
-      <c r="L28" s="167"/>
-      <c r="M28" s="167"/>
-      <c r="N28" s="167"/>
-      <c r="O28" s="167"/>
-      <c r="P28" s="167"/>
-      <c r="Q28" s="167"/>
-      <c r="R28" s="167"/>
-      <c r="S28" s="166"/>
-      <c r="T28" s="166"/>
-      <c r="U28" s="166"/>
-      <c r="V28" s="166"/>
-      <c r="W28" s="166"/>
-      <c r="X28" s="166"/>
-      <c r="Y28" s="166"/>
-      <c r="Z28" s="166"/>
-      <c r="AA28" s="166"/>
-      <c r="AB28" s="166"/>
-      <c r="AC28" s="166"/>
-      <c r="AD28" s="166"/>
-      <c r="AE28" s="166"/>
-      <c r="AF28" s="166"/>
-      <c r="AG28" s="166"/>
-      <c r="AH28" s="166"/>
-      <c r="AI28" s="166"/>
-      <c r="AJ28" s="166"/>
-      <c r="AK28" s="166"/>
-      <c r="AL28" s="166"/>
-      <c r="AM28" s="166"/>
-      <c r="AN28" s="166"/>
-      <c r="AO28" s="166"/>
-      <c r="AP28" s="166"/>
-      <c r="AQ28" s="166"/>
-      <c r="AR28" s="166"/>
-      <c r="AS28" s="166"/>
-      <c r="AT28" s="166"/>
-      <c r="AU28" s="166"/>
-      <c r="AV28" s="166"/>
-      <c r="AW28" s="166"/>
-      <c r="AX28" s="166"/>
-      <c r="AY28" s="166"/>
-      <c r="AZ28" s="166"/>
-      <c r="BA28" s="166"/>
-      <c r="BB28" s="166"/>
-      <c r="BC28" s="166"/>
-      <c r="BD28" s="166"/>
-      <c r="BE28" s="166"/>
-      <c r="BF28" s="166"/>
-      <c r="BG28" s="166"/>
-      <c r="BH28" s="166"/>
-      <c r="BI28" s="166"/>
-      <c r="BJ28" s="166"/>
-      <c r="BK28" s="166"/>
-      <c r="BL28" s="166"/>
-      <c r="BM28" s="166"/>
-      <c r="BN28" s="166"/>
-      <c r="BO28" s="166"/>
-      <c r="BP28" s="166"/>
-      <c r="BQ28" s="166"/>
-      <c r="BR28" s="166"/>
-      <c r="BS28" s="166"/>
-      <c r="BT28" s="166"/>
-      <c r="BU28" s="166"/>
-      <c r="BV28" s="166"/>
-      <c r="BW28" s="166"/>
-      <c r="BX28" s="166"/>
-      <c r="BY28" s="166"/>
-      <c r="BZ28" s="166"/>
-      <c r="CA28" s="166"/>
-      <c r="CB28" s="166"/>
-      <c r="CC28" s="166"/>
-      <c r="CD28" s="166"/>
-      <c r="CE28" s="166"/>
-      <c r="CF28" s="166"/>
-      <c r="CG28" s="166"/>
-      <c r="CH28" s="166"/>
-      <c r="CI28" s="166"/>
-      <c r="CJ28" s="166"/>
-      <c r="CK28" s="166"/>
-      <c r="CL28" s="166"/>
-      <c r="CM28" s="166"/>
-      <c r="CN28" s="166"/>
-      <c r="CO28" s="166"/>
-      <c r="CP28" s="166"/>
-      <c r="CQ28" s="166"/>
-      <c r="CR28" s="166"/>
-      <c r="CS28" s="166"/>
-      <c r="CT28" s="166"/>
-      <c r="CU28" s="166"/>
-      <c r="CV28" s="166"/>
-      <c r="CW28" s="166"/>
-      <c r="CX28" s="166"/>
-      <c r="CY28" s="166"/>
-      <c r="CZ28" s="166"/>
-      <c r="DA28" s="166"/>
-      <c r="DB28" s="166"/>
-      <c r="DC28" s="166"/>
-      <c r="DD28" s="166"/>
-      <c r="DE28" s="166"/>
-      <c r="DF28" s="166"/>
-      <c r="DG28" s="166"/>
-      <c r="DH28" s="166"/>
-      <c r="DI28" s="166"/>
-      <c r="DJ28" s="166"/>
-      <c r="DK28" s="166"/>
-      <c r="DL28" s="166"/>
-      <c r="DM28" s="166"/>
-      <c r="DN28" s="166"/>
-      <c r="DO28" s="166"/>
-      <c r="DP28" s="166"/>
-      <c r="DQ28" s="166"/>
-      <c r="DR28" s="166"/>
-      <c r="DS28" s="166"/>
-      <c r="DT28" s="166"/>
-      <c r="DU28" s="166"/>
-      <c r="DV28" s="166"/>
-      <c r="DW28" s="166"/>
-      <c r="DX28" s="166"/>
-      <c r="DY28" s="166"/>
-      <c r="DZ28" s="166"/>
-      <c r="EA28" s="166"/>
-      <c r="EB28" s="166"/>
-      <c r="EC28" s="166"/>
-      <c r="ED28" s="166"/>
-      <c r="EE28" s="166"/>
-      <c r="EF28" s="166"/>
-      <c r="EG28" s="166"/>
-      <c r="EH28" s="166"/>
-      <c r="EI28" s="166"/>
-      <c r="EJ28" s="166"/>
-      <c r="EK28" s="166"/>
-      <c r="EL28" s="166"/>
-      <c r="EM28" s="166"/>
-      <c r="EN28" s="166"/>
-      <c r="EO28" s="166"/>
-      <c r="EP28" s="166"/>
-      <c r="EQ28" s="166"/>
-      <c r="ER28" s="166"/>
-      <c r="ES28" s="166"/>
-      <c r="ET28" s="166"/>
-      <c r="EU28" s="166"/>
-      <c r="EV28" s="166"/>
-      <c r="EW28" s="166"/>
-      <c r="EX28" s="166"/>
-      <c r="EY28" s="166"/>
-      <c r="EZ28" s="166"/>
-      <c r="FA28" s="166"/>
-      <c r="FB28" s="166"/>
-      <c r="FC28" s="166"/>
-      <c r="FD28" s="166"/>
-      <c r="FE28" s="166"/>
-      <c r="FF28" s="166"/>
-      <c r="FG28" s="166"/>
-      <c r="FH28" s="166"/>
-      <c r="FI28" s="166"/>
-      <c r="FJ28" s="166"/>
-      <c r="FK28" s="166"/>
-      <c r="FL28" s="166"/>
-      <c r="FM28" s="166"/>
-      <c r="FN28" s="166"/>
-      <c r="FO28" s="166"/>
-      <c r="FP28" s="166"/>
-      <c r="FQ28" s="166"/>
-      <c r="FR28" s="166"/>
-      <c r="FS28" s="166"/>
-      <c r="FT28" s="166"/>
-      <c r="FU28" s="166"/>
-      <c r="FV28" s="166"/>
-      <c r="FW28" s="166"/>
-      <c r="FX28" s="166"/>
-      <c r="FY28" s="166"/>
-      <c r="FZ28" s="166"/>
-      <c r="GA28" s="166"/>
-      <c r="GB28" s="166"/>
-      <c r="GC28" s="166"/>
-      <c r="GD28" s="166"/>
-      <c r="GE28" s="166"/>
-      <c r="GF28" s="166"/>
-      <c r="GG28" s="166"/>
-      <c r="GH28" s="166"/>
-      <c r="GI28" s="166"/>
-      <c r="GJ28" s="166"/>
-      <c r="GK28" s="166"/>
-      <c r="GL28" s="166"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="153"/>
+      <c r="O28" s="153"/>
+      <c r="P28" s="153"/>
+      <c r="Q28" s="153"/>
+      <c r="R28" s="153"/>
+      <c r="S28" s="151"/>
+      <c r="T28" s="151"/>
+      <c r="U28" s="151"/>
+      <c r="V28" s="151"/>
+      <c r="W28" s="151"/>
+      <c r="X28" s="151"/>
+      <c r="Y28" s="151"/>
+      <c r="Z28" s="151"/>
+      <c r="AA28" s="151"/>
+      <c r="AB28" s="151"/>
+      <c r="AC28" s="151"/>
+      <c r="AD28" s="151"/>
+      <c r="AE28" s="151"/>
+      <c r="AF28" s="151"/>
+      <c r="AG28" s="151"/>
+      <c r="AH28" s="151"/>
+      <c r="AI28" s="151"/>
+      <c r="AJ28" s="151"/>
+      <c r="AK28" s="151"/>
+      <c r="AL28" s="151"/>
+      <c r="AM28" s="151"/>
+      <c r="AN28" s="151"/>
+      <c r="AO28" s="151"/>
+      <c r="AP28" s="151"/>
+      <c r="AQ28" s="151"/>
+      <c r="AR28" s="151"/>
+      <c r="AS28" s="151"/>
+      <c r="AT28" s="151"/>
+      <c r="AU28" s="151"/>
+      <c r="AV28" s="151"/>
+      <c r="AW28" s="151"/>
+      <c r="AX28" s="151"/>
+      <c r="AY28" s="151"/>
+      <c r="AZ28" s="151"/>
+      <c r="BA28" s="151"/>
+      <c r="BB28" s="151"/>
+      <c r="BC28" s="151"/>
+      <c r="BD28" s="151"/>
+      <c r="BE28" s="151"/>
+      <c r="BF28" s="151"/>
+      <c r="BG28" s="151"/>
+      <c r="BH28" s="151"/>
+      <c r="BI28" s="151"/>
+      <c r="BJ28" s="151"/>
+      <c r="BK28" s="151"/>
+      <c r="BL28" s="151"/>
+      <c r="BM28" s="151"/>
+      <c r="BN28" s="151"/>
+      <c r="BO28" s="151"/>
+      <c r="BP28" s="151"/>
+      <c r="BQ28" s="151"/>
+      <c r="BR28" s="151"/>
+      <c r="BS28" s="151"/>
+      <c r="BT28" s="151"/>
+      <c r="BU28" s="151"/>
+      <c r="BV28" s="151"/>
+      <c r="BW28" s="151"/>
+      <c r="BX28" s="151"/>
+      <c r="BY28" s="151"/>
+      <c r="BZ28" s="151"/>
+      <c r="CA28" s="151"/>
+      <c r="CB28" s="151"/>
+      <c r="CC28" s="151"/>
+      <c r="CD28" s="151"/>
+      <c r="CE28" s="151"/>
+      <c r="CF28" s="151"/>
+      <c r="CG28" s="151"/>
+      <c r="CH28" s="151"/>
+      <c r="CI28" s="151"/>
+      <c r="CJ28" s="151"/>
+      <c r="CK28" s="151"/>
+      <c r="CL28" s="151"/>
+      <c r="CM28" s="151"/>
+      <c r="CN28" s="151"/>
+      <c r="CO28" s="151"/>
+      <c r="CP28" s="151"/>
+      <c r="CQ28" s="151"/>
+      <c r="CR28" s="151"/>
+      <c r="CS28" s="151"/>
+      <c r="CT28" s="151"/>
+      <c r="CU28" s="151"/>
+      <c r="CV28" s="151"/>
+      <c r="CW28" s="151"/>
+      <c r="CX28" s="151"/>
+      <c r="CY28" s="151"/>
+      <c r="CZ28" s="151"/>
+      <c r="DA28" s="151"/>
+      <c r="DB28" s="151"/>
+      <c r="DC28" s="151"/>
+      <c r="DD28" s="151"/>
+      <c r="DE28" s="151"/>
+      <c r="DF28" s="151"/>
+      <c r="DG28" s="151"/>
+      <c r="DH28" s="151"/>
+      <c r="DI28" s="151"/>
+      <c r="DJ28" s="151"/>
+      <c r="DK28" s="151"/>
+      <c r="DL28" s="151"/>
+      <c r="DM28" s="151"/>
+      <c r="DN28" s="151"/>
+      <c r="DO28" s="151"/>
+      <c r="DP28" s="151"/>
+      <c r="DQ28" s="151"/>
+      <c r="DR28" s="151"/>
+      <c r="DS28" s="151"/>
+      <c r="DT28" s="151"/>
+      <c r="DU28" s="151"/>
+      <c r="DV28" s="151"/>
+      <c r="DW28" s="151"/>
+      <c r="DX28" s="151"/>
+      <c r="DY28" s="151"/>
+      <c r="DZ28" s="151"/>
+      <c r="EA28" s="151"/>
+      <c r="EB28" s="151"/>
+      <c r="EC28" s="151"/>
+      <c r="ED28" s="151"/>
+      <c r="EE28" s="151"/>
+      <c r="EF28" s="151"/>
+      <c r="EG28" s="151"/>
+      <c r="EH28" s="151"/>
+      <c r="EI28" s="151"/>
+      <c r="EJ28" s="151"/>
+      <c r="EK28" s="151"/>
+      <c r="EL28" s="151"/>
+      <c r="EM28" s="151"/>
+      <c r="EN28" s="151"/>
+      <c r="EO28" s="151"/>
+      <c r="EP28" s="151"/>
+      <c r="EQ28" s="151"/>
+      <c r="ER28" s="151"/>
+      <c r="ES28" s="151"/>
+      <c r="ET28" s="151"/>
+      <c r="EU28" s="151"/>
+      <c r="EV28" s="151"/>
+      <c r="EW28" s="151"/>
+      <c r="EX28" s="151"/>
+      <c r="EY28" s="151"/>
+      <c r="EZ28" s="151"/>
+      <c r="FA28" s="151"/>
+      <c r="FB28" s="151"/>
+      <c r="FC28" s="151"/>
+      <c r="FD28" s="151"/>
+      <c r="FE28" s="151"/>
+      <c r="FF28" s="151"/>
+      <c r="FG28" s="151"/>
+      <c r="FH28" s="151"/>
+      <c r="FI28" s="151"/>
+      <c r="FJ28" s="151"/>
+      <c r="FK28" s="151"/>
+      <c r="FL28" s="151"/>
+      <c r="FM28" s="151"/>
+      <c r="FN28" s="151"/>
+      <c r="FO28" s="151"/>
+      <c r="FP28" s="151"/>
+      <c r="FQ28" s="151"/>
+      <c r="FR28" s="151"/>
+      <c r="FS28" s="151"/>
+      <c r="FT28" s="151"/>
+      <c r="FU28" s="151"/>
+      <c r="FV28" s="151"/>
+      <c r="FW28" s="151"/>
+      <c r="FX28" s="151"/>
+      <c r="FY28" s="151"/>
+      <c r="FZ28" s="151"/>
+      <c r="GA28" s="151"/>
+      <c r="GB28" s="151"/>
+      <c r="GC28" s="151"/>
+      <c r="GD28" s="151"/>
+      <c r="GE28" s="151"/>
+      <c r="GF28" s="151"/>
+      <c r="GG28" s="151"/>
+      <c r="GH28" s="151"/>
+      <c r="GI28" s="151"/>
+      <c r="GJ28" s="151"/>
+      <c r="GK28" s="151"/>
+      <c r="GL28" s="151"/>
       <c r="GM28" s="119"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="165"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="165"/>
-      <c r="K29" s="165"/>
-      <c r="L29" s="165"/>
-      <c r="M29" s="165"/>
-      <c r="N29" s="165"/>
-      <c r="O29" s="165"/>
-      <c r="P29" s="165"/>
-      <c r="Q29" s="165"/>
-      <c r="R29" s="165"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="152"/>
+      <c r="R29" s="152"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="168"/>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="168"/>
+      <c r="A30" s="150"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
       <c r="K30" s="120"/>
       <c r="L30" s="120"/>
       <c r="M30" s="120"/>
@@ -5087,16 +5084,16 @@
       <c r="R30" s="120"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="168"/>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="168"/>
+      <c r="A31" s="150"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
       <c r="K31" s="120"/>
       <c r="L31" s="120"/>
       <c r="M31" s="120"/>
@@ -5108,28 +5105,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -5143,6 +5118,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5169,14 +5166,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="216" t="s">
+      <c r="B1" s="225" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5369,11 +5366,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="217" t="s">
+      <c r="E27" s="226" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="218"/>
-      <c r="G27" s="219"/>
+      <c r="F27" s="227"/>
+      <c r="G27" s="228"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5697,10 +5694,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="175"/>
+      <c r="B1" s="179"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5727,8 +5724,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="175"/>
-      <c r="B2" s="175"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="179"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5767,14 +5764,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="176" t="s">
+      <c r="E4" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
     </row>
     <row r="5" spans="1:10" ht="33" customHeight="1">
       <c r="A5" s="40">
@@ -5789,14 +5786,14 @@
       <c r="D5" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="177" t="s">
+      <c r="E5" s="181" t="s">
         <v>202</v>
       </c>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="178"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="172"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="89">
@@ -5807,12 +5804,12 @@
       </c>
       <c r="C6" s="77"/>
       <c r="D6" s="64"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="181"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="184"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="90">
@@ -5823,12 +5820,12 @@
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="171"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="175"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="91">
@@ -5839,12 +5836,12 @@
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="174"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="178"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="92">
@@ -5855,12 +5852,12 @@
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="171"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="175"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="93">
@@ -5871,12 +5868,12 @@
       </c>
       <c r="C10" s="78"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="171"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="175"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="94">
@@ -5887,12 +5884,12 @@
       </c>
       <c r="C11" s="78"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="171"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="175"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="95">
@@ -5903,12 +5900,12 @@
       </c>
       <c r="C12" s="78"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="171"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="175"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="96">
@@ -5919,12 +5916,12 @@
       </c>
       <c r="C13" s="78"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="171"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="175"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="97">
@@ -5935,12 +5932,12 @@
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="171"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="175"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5951,12 +5948,12 @@
       </c>
       <c r="C15" s="78"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="172"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="89">
@@ -5967,12 +5964,12 @@
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="90">
@@ -5983,12 +5980,12 @@
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="178"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="91">
@@ -5999,12 +5996,12 @@
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="92">
@@ -6015,12 +6012,12 @@
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="178"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="172"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="93">
@@ -6031,12 +6028,12 @@
       </c>
       <c r="C20" s="78"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="172"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="94">
@@ -6047,12 +6044,12 @@
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="178"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="172"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="95">
@@ -6063,12 +6060,12 @@
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="178"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="172"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="96">
@@ -6079,12 +6076,12 @@
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="172"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="97">
@@ -6095,12 +6092,12 @@
       </c>
       <c r="C24" s="78"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="178"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="172"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -6111,12 +6108,12 @@
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="172"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -6127,12 +6124,12 @@
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="178"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="172"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="89">
@@ -6143,12 +6140,12 @@
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="178"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="172"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="90">
@@ -6159,12 +6156,12 @@
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="178"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="172"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="91">
@@ -6175,12 +6172,12 @@
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="178"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="172"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="92">
@@ -6191,12 +6188,12 @@
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="178"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="172"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="93">
@@ -6207,12 +6204,12 @@
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="178"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="172"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="94">
@@ -6223,12 +6220,12 @@
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="178"/>
-      <c r="G32" s="178"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="178"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="172"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="172"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="95">
@@ -6239,12 +6236,12 @@
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="178"/>
-      <c r="G33" s="178"/>
-      <c r="H33" s="178"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="178"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="172"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="96">
@@ -6255,12 +6252,12 @@
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="178"/>
-      <c r="F34" s="178"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="178"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="172"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="97">
@@ -6271,12 +6268,12 @@
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="178"/>
-      <c r="G35" s="178"/>
-      <c r="H35" s="178"/>
-      <c r="I35" s="178"/>
-      <c r="J35" s="178"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="172"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6287,12 +6284,12 @@
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="178"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="178"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="172"/>
+      <c r="J36" s="172"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="89">
@@ -6303,12 +6300,12 @@
       </c>
       <c r="C37" s="78"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="178"/>
-      <c r="G37" s="178"/>
-      <c r="H37" s="178"/>
-      <c r="I37" s="178"/>
-      <c r="J37" s="178"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="172"/>
+      <c r="I37" s="172"/>
+      <c r="J37" s="172"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="90">
@@ -6319,12 +6316,12 @@
       </c>
       <c r="C38" s="78"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="178"/>
-      <c r="F38" s="178"/>
-      <c r="G38" s="178"/>
-      <c r="H38" s="178"/>
-      <c r="I38" s="178"/>
-      <c r="J38" s="178"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="172"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="172"/>
+      <c r="J38" s="172"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="91">
@@ -6335,12 +6332,12 @@
       </c>
       <c r="C39" s="78"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="178"/>
-      <c r="F39" s="178"/>
-      <c r="G39" s="178"/>
-      <c r="H39" s="178"/>
-      <c r="I39" s="178"/>
-      <c r="J39" s="178"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="172"/>
+      <c r="G39" s="172"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="172"/>
+      <c r="J39" s="172"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="92">
@@ -6351,12 +6348,12 @@
       </c>
       <c r="C40" s="78"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="178"/>
-      <c r="F40" s="178"/>
-      <c r="G40" s="178"/>
-      <c r="H40" s="178"/>
-      <c r="I40" s="178"/>
-      <c r="J40" s="178"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="172"/>
+      <c r="G40" s="172"/>
+      <c r="H40" s="172"/>
+      <c r="I40" s="172"/>
+      <c r="J40" s="172"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="93">
@@ -6367,12 +6364,12 @@
       </c>
       <c r="C41" s="78"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="178"/>
-      <c r="F41" s="178"/>
-      <c r="G41" s="178"/>
-      <c r="H41" s="178"/>
-      <c r="I41" s="178"/>
-      <c r="J41" s="178"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="172"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="172"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="94">
@@ -6383,32 +6380,23 @@
       </c>
       <c r="C42" s="78"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="178"/>
-      <c r="F42" s="178"/>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
-      <c r="J42" s="178"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="172"/>
+      <c r="G42" s="172"/>
+      <c r="H42" s="172"/>
+      <c r="I42" s="172"/>
+      <c r="J42" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6424,14 +6412,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6457,7 +6454,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F25" sqref="F25:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6469,16 +6466,16 @@
     <col min="5" max="5" width="12.85546875" style="22" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" style="22" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="72.5703125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="71.140625" style="22" customWidth="1"/>
     <col min="9" max="10" width="12.7109375" style="22" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="175"/>
+      <c r="B1" s="179"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6508,8 +6505,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="175"/>
-      <c r="B2" s="175"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="179"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6539,20 +6536,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="182" t="s">
+      <c r="A4" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="182" t="s">
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="183"/>
+      <c r="J4" s="186"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6563,10 +6560,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="191" t="s">
+      <c r="I5" s="194" t="s">
         <v>171</v>
       </c>
-      <c r="J5" s="192"/>
+      <c r="J5" s="195"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6577,8 +6574,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="194"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="197"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6589,8 +6586,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="194"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="197"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6601,8 +6598,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="194"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="197"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6613,8 +6610,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="194"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6625,8 +6622,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="195"/>
-      <c r="J10" s="196"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="199"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6637,10 +6634,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="182" t="s">
+      <c r="I11" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="183"/>
+      <c r="J11" s="186"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6651,10 +6648,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="185" t="s">
+      <c r="I12" s="188" t="s">
         <v>214</v>
       </c>
-      <c r="J12" s="186"/>
+      <c r="J12" s="189"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6665,8 +6662,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="187"/>
-      <c r="J13" s="188"/>
+      <c r="I13" s="190"/>
+      <c r="J13" s="191"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6677,8 +6674,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="187"/>
-      <c r="J14" s="188"/>
+      <c r="I14" s="190"/>
+      <c r="J14" s="191"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6689,8 +6686,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="188"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="191"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6701,8 +6698,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="188"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="191"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6713,8 +6710,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="188"/>
+      <c r="I17" s="190"/>
+      <c r="J17" s="191"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6725,8 +6722,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="188"/>
+      <c r="I18" s="190"/>
+      <c r="J18" s="191"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6737,8 +6734,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="188"/>
+      <c r="I19" s="190"/>
+      <c r="J19" s="191"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6749,8 +6746,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="188"/>
+      <c r="I20" s="190"/>
+      <c r="J20" s="191"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6761,8 +6758,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="188"/>
+      <c r="I21" s="190"/>
+      <c r="J21" s="191"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6773,8 +6770,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="187"/>
-      <c r="J22" s="188"/>
+      <c r="I22" s="190"/>
+      <c r="J22" s="191"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6785,8 +6782,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="188"/>
+      <c r="I23" s="190"/>
+      <c r="J23" s="191"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6797,8 +6794,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="188"/>
+      <c r="I24" s="190"/>
+      <c r="J24" s="191"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6809,8 +6806,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="188"/>
+      <c r="I25" s="190"/>
+      <c r="J25" s="191"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6821,8 +6818,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="188"/>
+      <c r="I26" s="190"/>
+      <c r="J26" s="191"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6833,8 +6830,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="188"/>
+      <c r="I27" s="190"/>
+      <c r="J27" s="191"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6845,8 +6842,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="187"/>
-      <c r="J28" s="188"/>
+      <c r="I28" s="190"/>
+      <c r="J28" s="191"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6857,8 +6854,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="187"/>
-      <c r="J29" s="188"/>
+      <c r="I29" s="190"/>
+      <c r="J29" s="191"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6869,8 +6866,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="188"/>
+      <c r="I30" s="190"/>
+      <c r="J30" s="191"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6881,8 +6878,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="187"/>
-      <c r="J31" s="188"/>
+      <c r="I31" s="190"/>
+      <c r="J31" s="191"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6893,8 +6890,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="187"/>
-      <c r="J32" s="188"/>
+      <c r="I32" s="190"/>
+      <c r="J32" s="191"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6905,8 +6902,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="188"/>
+      <c r="I33" s="190"/>
+      <c r="J33" s="191"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6917,8 +6914,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="187"/>
-      <c r="J34" s="188"/>
+      <c r="I34" s="190"/>
+      <c r="J34" s="191"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6929,8 +6926,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="187"/>
-      <c r="J35" s="188"/>
+      <c r="I35" s="190"/>
+      <c r="J35" s="191"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6941,8 +6938,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="187"/>
-      <c r="J36" s="188"/>
+      <c r="I36" s="190"/>
+      <c r="J36" s="191"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6953,8 +6950,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="187"/>
-      <c r="J37" s="188"/>
+      <c r="I37" s="190"/>
+      <c r="J37" s="191"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6965,8 +6962,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="187"/>
-      <c r="J38" s="188"/>
+      <c r="I38" s="190"/>
+      <c r="J38" s="191"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6977,8 +6974,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="187"/>
-      <c r="J39" s="188"/>
+      <c r="I39" s="190"/>
+      <c r="J39" s="191"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6989,8 +6986,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="188"/>
+      <c r="I40" s="190"/>
+      <c r="J40" s="191"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -7001,8 +6998,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="187"/>
-      <c r="J41" s="188"/>
+      <c r="I41" s="190"/>
+      <c r="J41" s="191"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -7013,8 +7010,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="187"/>
-      <c r="J42" s="188"/>
+      <c r="I42" s="190"/>
+      <c r="J42" s="191"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -7025,8 +7022,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="189"/>
-      <c r="J43" s="190"/>
+      <c r="I43" s="192"/>
+      <c r="J43" s="193"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7056,11 +7053,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -7085,13 +7082,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7099,15 +7096,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="200" t="s">
+      <c r="H1" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="201"/>
-      <c r="J1" s="197" t="s">
+      <c r="I1" s="204"/>
+      <c r="J1" s="200" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="198"/>
-      <c r="L1" s="199"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="202"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -7123,11 +7120,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="175"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7135,16 +7132,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="H2" s="200" t="s">
+      <c r="H2" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="201"/>
-      <c r="J2" s="197" t="str">
+      <c r="I2" s="204"/>
+      <c r="J2" s="200" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo KH không phát sinh đơn hàng</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="199"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="202"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -7256,7 +7253,7 @@
       <c r="D6" s="35">
         <v>2</v>
       </c>
-      <c r="E6" s="225" t="s">
+      <c r="E6" s="148" t="s">
         <v>222</v>
       </c>
       <c r="F6" s="86" t="s">
@@ -7267,7 +7264,7 @@
         <v>163</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J6" s="61"/>
       <c r="K6" s="61"/>
@@ -7305,7 +7302,7 @@
         <v>163</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J7" s="61"/>
       <c r="K7" s="61"/>
@@ -7320,30 +7317,30 @@
       </c>
     </row>
     <row r="8" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A8" s="223">
+      <c r="A8" s="205">
         <v>4</v>
       </c>
-      <c r="B8" s="223" t="s">
+      <c r="B8" s="205" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="223">
+      <c r="C8" s="205">
         <v>51</v>
       </c>
-      <c r="D8" s="220">
+      <c r="D8" s="207">
         <v>4</v>
       </c>
-      <c r="E8" s="226" t="s">
+      <c r="E8" s="209" t="s">
         <v>220</v>
       </c>
       <c r="F8" s="146" t="s">
         <v>221</v>
       </c>
       <c r="G8" s="146" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H8" s="40"/>
       <c r="I8" s="40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J8" s="61"/>
       <c r="K8" s="61"/>
@@ -7356,11 +7353,11 @@
       <c r="P8" s="145"/>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="11.25">
-      <c r="A9" s="224"/>
-      <c r="B9" s="224"/>
-      <c r="C9" s="224"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="227"/>
+      <c r="A9" s="206"/>
+      <c r="B9" s="206"/>
+      <c r="C9" s="206"/>
+      <c r="D9" s="208"/>
+      <c r="E9" s="210"/>
       <c r="F9" s="126" t="s">
         <v>223</v>
       </c>
@@ -7371,7 +7368,7 @@
         <v>163</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J9" s="61"/>
       <c r="K9" s="61"/>
@@ -7396,7 +7393,7 @@
       <c r="D10" s="35">
         <v>5</v>
       </c>
-      <c r="E10" s="225" t="s">
+      <c r="E10" s="148" t="s">
         <v>172</v>
       </c>
       <c r="F10" s="126" t="s">
@@ -7447,7 +7444,7 @@
         <v>163</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J11" s="61"/>
       <c r="K11" s="61"/>
@@ -7485,7 +7482,7 @@
         <v>163</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J12" s="61"/>
       <c r="K12" s="61"/>
@@ -7523,7 +7520,7 @@
         <v>163</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J13" s="61"/>
       <c r="K13" s="61"/>
@@ -7599,7 +7596,7 @@
         <v>163</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J15" s="61"/>
       <c r="K15" s="61"/>
@@ -7665,7 +7662,7 @@
         <v>163</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J17" s="61"/>
       <c r="K17" s="61"/>
@@ -7703,7 +7700,7 @@
         <v>163</v>
       </c>
       <c r="I18" s="40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J18" s="61"/>
       <c r="K18" s="40"/>
@@ -7946,7 +7943,7 @@
       <c r="D25" s="35">
         <v>13.2</v>
       </c>
-      <c r="E25" s="228" t="s">
+      <c r="E25" s="149" t="s">
         <v>187</v>
       </c>
       <c r="F25" s="146" t="s">
@@ -8025,17 +8022,17 @@
       <c r="E27" s="137" t="s">
         <v>201</v>
       </c>
-      <c r="F27" s="222" t="s">
+      <c r="F27" s="147" t="s">
         <v>201</v>
       </c>
-      <c r="G27" s="222" t="s">
+      <c r="G27" s="147" t="s">
         <v>201</v>
       </c>
       <c r="H27" s="40" t="s">
         <v>163</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J27" s="40"/>
       <c r="K27" s="60"/>
@@ -8091,7 +8088,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="131" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F29" s="138"/>
       <c r="G29" s="138"/>
@@ -8111,18 +8108,10 @@
       <c r="A30" s="33">
         <v>27</v>
       </c>
-      <c r="B30" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="35">
-        <v>51</v>
-      </c>
-      <c r="D30" s="35">
-        <v>17</v>
-      </c>
-      <c r="E30" s="131" t="s">
-        <v>226</v>
-      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="131"/>
       <c r="F30" s="127"/>
       <c r="G30" s="127"/>
       <c r="H30" s="40"/>
@@ -8157,16 +8146,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M25:N25 N26:O27 N30:O31">
@@ -9185,7 +9174,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="123"/>
@@ -9220,7 +9209,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="208"/>
+      <c r="A2" s="214"/>
       <c r="B2" s="124"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -9268,15 +9257,15 @@
       <c r="E4" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="175" t="s">
+      <c r="F4" s="179" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175" t="s">
+      <c r="G4" s="179"/>
+      <c r="H4" s="179" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A5" s="33">
@@ -9286,11 +9275,11 @@
       <c r="C5" s="33"/>
       <c r="D5" s="125"/>
       <c r="E5" s="32"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="206"/>
-      <c r="H5" s="202"/>
-      <c r="I5" s="203"/>
-      <c r="J5" s="204"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="212"/>
+      <c r="H5" s="215"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="217"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9300,11 +9289,11 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="206"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="203"/>
-      <c r="J6" s="204"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="212"/>
+      <c r="H6" s="215"/>
+      <c r="I6" s="216"/>
+      <c r="J6" s="217"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9314,11 +9303,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="206"/>
-      <c r="H7" s="202"/>
-      <c r="I7" s="203"/>
-      <c r="J7" s="204"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="215"/>
+      <c r="I7" s="216"/>
+      <c r="J7" s="217"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9328,11 +9317,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="205"/>
-      <c r="G8" s="206"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="204"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="212"/>
+      <c r="H8" s="215"/>
+      <c r="I8" s="216"/>
+      <c r="J8" s="217"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9342,11 +9331,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="202"/>
-      <c r="I9" s="203"/>
-      <c r="J9" s="204"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="212"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="216"/>
+      <c r="J9" s="217"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9356,11 +9345,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="206"/>
-      <c r="H10" s="202"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="204"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="212"/>
+      <c r="H10" s="215"/>
+      <c r="I10" s="216"/>
+      <c r="J10" s="217"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9370,11 +9359,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="206"/>
-      <c r="H11" s="202"/>
-      <c r="I11" s="203"/>
-      <c r="J11" s="204"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="212"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="216"/>
+      <c r="J11" s="217"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9384,11 +9373,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="205"/>
-      <c r="G12" s="206"/>
-      <c r="H12" s="202"/>
-      <c r="I12" s="203"/>
-      <c r="J12" s="204"/>
+      <c r="F12" s="211"/>
+      <c r="G12" s="212"/>
+      <c r="H12" s="215"/>
+      <c r="I12" s="216"/>
+      <c r="J12" s="217"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9398,11 +9387,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="205"/>
-      <c r="G13" s="206"/>
-      <c r="H13" s="202"/>
-      <c r="I13" s="203"/>
-      <c r="J13" s="204"/>
+      <c r="F13" s="211"/>
+      <c r="G13" s="212"/>
+      <c r="H13" s="215"/>
+      <c r="I13" s="216"/>
+      <c r="J13" s="217"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9412,11 +9401,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="205"/>
-      <c r="G14" s="206"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="203"/>
-      <c r="J14" s="204"/>
+      <c r="F14" s="211"/>
+      <c r="G14" s="212"/>
+      <c r="H14" s="215"/>
+      <c r="I14" s="216"/>
+      <c r="J14" s="217"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9426,11 +9415,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="205"/>
-      <c r="G15" s="206"/>
-      <c r="H15" s="202"/>
-      <c r="I15" s="203"/>
-      <c r="J15" s="204"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="215"/>
+      <c r="I15" s="216"/>
+      <c r="J15" s="217"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9440,11 +9429,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="206"/>
-      <c r="H16" s="202"/>
-      <c r="I16" s="203"/>
-      <c r="J16" s="204"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="215"/>
+      <c r="I16" s="216"/>
+      <c r="J16" s="217"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9454,11 +9443,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="206"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="203"/>
-      <c r="J17" s="204"/>
+      <c r="F17" s="211"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="215"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="217"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9468,11 +9457,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="206"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="203"/>
-      <c r="J18" s="204"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="212"/>
+      <c r="H18" s="215"/>
+      <c r="I18" s="216"/>
+      <c r="J18" s="217"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9482,11 +9471,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="205"/>
-      <c r="G19" s="206"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="203"/>
-      <c r="J19" s="204"/>
+      <c r="F19" s="211"/>
+      <c r="G19" s="212"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="216"/>
+      <c r="J19" s="217"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9496,11 +9485,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="205"/>
-      <c r="G20" s="206"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="203"/>
-      <c r="J20" s="204"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="212"/>
+      <c r="H20" s="215"/>
+      <c r="I20" s="216"/>
+      <c r="J20" s="217"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9510,11 +9499,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="205"/>
-      <c r="G21" s="206"/>
-      <c r="H21" s="202"/>
-      <c r="I21" s="203"/>
-      <c r="J21" s="204"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="212"/>
+      <c r="H21" s="215"/>
+      <c r="I21" s="216"/>
+      <c r="J21" s="217"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9524,11 +9513,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="203"/>
-      <c r="J22" s="204"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="216"/>
+      <c r="J22" s="217"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9538,11 +9527,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="202"/>
-      <c r="I23" s="203"/>
-      <c r="J23" s="204"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="216"/>
+      <c r="J23" s="217"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9552,11 +9541,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="202"/>
-      <c r="I24" s="203"/>
-      <c r="J24" s="204"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="215"/>
+      <c r="I24" s="216"/>
+      <c r="J24" s="217"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9566,11 +9555,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="202"/>
-      <c r="I25" s="203"/>
-      <c r="J25" s="204"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="215"/>
+      <c r="I25" s="216"/>
+      <c r="J25" s="217"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9580,11 +9569,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="202"/>
-      <c r="I26" s="203"/>
-      <c r="J26" s="204"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="215"/>
+      <c r="I26" s="216"/>
+      <c r="J26" s="217"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9594,11 +9583,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="202"/>
-      <c r="I27" s="203"/>
-      <c r="J27" s="204"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="215"/>
+      <c r="I27" s="216"/>
+      <c r="J27" s="217"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9608,11 +9597,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="202"/>
-      <c r="I28" s="203"/>
-      <c r="J28" s="204"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="215"/>
+      <c r="I28" s="216"/>
+      <c r="J28" s="217"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9622,11 +9611,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="202"/>
-      <c r="I29" s="203"/>
-      <c r="J29" s="204"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="215"/>
+      <c r="I29" s="216"/>
+      <c r="J29" s="217"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9636,11 +9625,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="202"/>
-      <c r="I30" s="203"/>
-      <c r="J30" s="204"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="215"/>
+      <c r="I30" s="216"/>
+      <c r="J30" s="217"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9650,11 +9639,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="202"/>
-      <c r="I31" s="203"/>
-      <c r="J31" s="204"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="215"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="217"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -9664,11 +9653,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="171"/>
-      <c r="H32" s="202"/>
-      <c r="I32" s="203"/>
-      <c r="J32" s="204"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="215"/>
+      <c r="I32" s="216"/>
+      <c r="J32" s="217"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -9685,11 +9674,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="202"/>
-      <c r="I33" s="203"/>
-      <c r="J33" s="204"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="215"/>
+      <c r="I33" s="216"/>
+      <c r="J33" s="217"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -9706,11 +9695,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="171"/>
-      <c r="H34" s="202"/>
-      <c r="I34" s="203"/>
-      <c r="J34" s="204"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="215"/>
+      <c r="I34" s="216"/>
+      <c r="J34" s="217"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -9727,11 +9716,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="169"/>
-      <c r="G35" s="171"/>
-      <c r="H35" s="202"/>
-      <c r="I35" s="203"/>
-      <c r="J35" s="204"/>
+      <c r="F35" s="173"/>
+      <c r="G35" s="175"/>
+      <c r="H35" s="215"/>
+      <c r="I35" s="216"/>
+      <c r="J35" s="217"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -9748,11 +9737,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="169"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="203"/>
-      <c r="J36" s="204"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="175"/>
+      <c r="H36" s="215"/>
+      <c r="I36" s="216"/>
+      <c r="J36" s="217"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -9769,11 +9758,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="202"/>
-      <c r="I37" s="203"/>
-      <c r="J37" s="204"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="175"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="216"/>
+      <c r="J37" s="217"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -9790,11 +9779,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="169"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="202"/>
-      <c r="I38" s="203"/>
-      <c r="J38" s="204"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="215"/>
+      <c r="I38" s="216"/>
+      <c r="J38" s="217"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -9811,11 +9800,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="169"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="202"/>
-      <c r="I39" s="203"/>
-      <c r="J39" s="204"/>
+      <c r="F39" s="173"/>
+      <c r="G39" s="175"/>
+      <c r="H39" s="215"/>
+      <c r="I39" s="216"/>
+      <c r="J39" s="217"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -9832,11 +9821,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="169"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="202"/>
-      <c r="I40" s="203"/>
-      <c r="J40" s="204"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="175"/>
+      <c r="H40" s="215"/>
+      <c r="I40" s="216"/>
+      <c r="J40" s="217"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -9853,11 +9842,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="169"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="202"/>
-      <c r="I41" s="203"/>
-      <c r="J41" s="204"/>
+      <c r="F41" s="173"/>
+      <c r="G41" s="175"/>
+      <c r="H41" s="215"/>
+      <c r="I41" s="216"/>
+      <c r="J41" s="217"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -9874,11 +9863,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="169"/>
-      <c r="G42" s="171"/>
-      <c r="H42" s="202"/>
-      <c r="I42" s="203"/>
-      <c r="J42" s="204"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="175"/>
+      <c r="H42" s="215"/>
+      <c r="I42" s="216"/>
+      <c r="J42" s="217"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -9895,11 +9884,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="169"/>
-      <c r="G43" s="171"/>
-      <c r="H43" s="202"/>
-      <c r="I43" s="203"/>
-      <c r="J43" s="204"/>
+      <c r="F43" s="173"/>
+      <c r="G43" s="175"/>
+      <c r="H43" s="215"/>
+      <c r="I43" s="216"/>
+      <c r="J43" s="217"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -9916,11 +9905,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="171"/>
-      <c r="H44" s="202"/>
-      <c r="I44" s="203"/>
-      <c r="J44" s="204"/>
+      <c r="F44" s="173"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="215"/>
+      <c r="I44" s="216"/>
+      <c r="J44" s="217"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -9937,11 +9926,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="169"/>
-      <c r="G45" s="171"/>
-      <c r="H45" s="202"/>
-      <c r="I45" s="203"/>
-      <c r="J45" s="204"/>
+      <c r="F45" s="173"/>
+      <c r="G45" s="175"/>
+      <c r="H45" s="215"/>
+      <c r="I45" s="216"/>
+      <c r="J45" s="217"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -9958,11 +9947,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="169"/>
-      <c r="G46" s="171"/>
-      <c r="H46" s="202"/>
-      <c r="I46" s="203"/>
-      <c r="J46" s="204"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="175"/>
+      <c r="H46" s="215"/>
+      <c r="I46" s="216"/>
+      <c r="J46" s="217"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -9979,11 +9968,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="169"/>
-      <c r="G47" s="171"/>
-      <c r="H47" s="202"/>
-      <c r="I47" s="203"/>
-      <c r="J47" s="204"/>
+      <c r="F47" s="173"/>
+      <c r="G47" s="175"/>
+      <c r="H47" s="215"/>
+      <c r="I47" s="216"/>
+      <c r="J47" s="217"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -10000,11 +9989,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="169"/>
-      <c r="G48" s="171"/>
-      <c r="H48" s="202"/>
-      <c r="I48" s="203"/>
-      <c r="J48" s="204"/>
+      <c r="F48" s="173"/>
+      <c r="G48" s="175"/>
+      <c r="H48" s="215"/>
+      <c r="I48" s="216"/>
+      <c r="J48" s="217"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -10021,11 +10010,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="169"/>
-      <c r="G49" s="171"/>
-      <c r="H49" s="202"/>
-      <c r="I49" s="203"/>
-      <c r="J49" s="204"/>
+      <c r="F49" s="173"/>
+      <c r="G49" s="175"/>
+      <c r="H49" s="215"/>
+      <c r="I49" s="216"/>
+      <c r="J49" s="217"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -10042,11 +10031,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="169"/>
-      <c r="G50" s="171"/>
-      <c r="H50" s="202"/>
-      <c r="I50" s="203"/>
-      <c r="J50" s="204"/>
+      <c r="F50" s="173"/>
+      <c r="G50" s="175"/>
+      <c r="H50" s="215"/>
+      <c r="I50" s="216"/>
+      <c r="J50" s="217"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -10063,11 +10052,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="169"/>
-      <c r="G51" s="171"/>
-      <c r="H51" s="202"/>
-      <c r="I51" s="203"/>
-      <c r="J51" s="204"/>
+      <c r="F51" s="173"/>
+      <c r="G51" s="175"/>
+      <c r="H51" s="215"/>
+      <c r="I51" s="216"/>
+      <c r="J51" s="217"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -10084,11 +10073,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="169"/>
-      <c r="G52" s="171"/>
-      <c r="H52" s="202"/>
-      <c r="I52" s="203"/>
-      <c r="J52" s="204"/>
+      <c r="F52" s="173"/>
+      <c r="G52" s="175"/>
+      <c r="H52" s="215"/>
+      <c r="I52" s="216"/>
+      <c r="J52" s="217"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -10105,11 +10094,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="169"/>
-      <c r="G53" s="171"/>
-      <c r="H53" s="202"/>
-      <c r="I53" s="203"/>
-      <c r="J53" s="204"/>
+      <c r="F53" s="173"/>
+      <c r="G53" s="175"/>
+      <c r="H53" s="215"/>
+      <c r="I53" s="216"/>
+      <c r="J53" s="217"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -10126,11 +10115,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="169"/>
-      <c r="G54" s="171"/>
-      <c r="H54" s="202"/>
-      <c r="I54" s="203"/>
-      <c r="J54" s="204"/>
+      <c r="F54" s="173"/>
+      <c r="G54" s="175"/>
+      <c r="H54" s="215"/>
+      <c r="I54" s="216"/>
+      <c r="J54" s="217"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -10147,11 +10136,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="169"/>
-      <c r="G55" s="171"/>
-      <c r="H55" s="202"/>
-      <c r="I55" s="203"/>
-      <c r="J55" s="204"/>
+      <c r="F55" s="173"/>
+      <c r="G55" s="175"/>
+      <c r="H55" s="215"/>
+      <c r="I55" s="216"/>
+      <c r="J55" s="217"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -10168,11 +10157,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="169"/>
-      <c r="G56" s="171"/>
-      <c r="H56" s="202"/>
-      <c r="I56" s="203"/>
-      <c r="J56" s="204"/>
+      <c r="F56" s="173"/>
+      <c r="G56" s="175"/>
+      <c r="H56" s="215"/>
+      <c r="I56" s="216"/>
+      <c r="J56" s="217"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -10184,25 +10173,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
@@ -10217,80 +10261,25 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -10338,24 +10327,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="212" t="str">
+      <c r="J1" s="224" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="212"/>
+      <c r="K1" s="224"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10382,22 +10371,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="175"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="212" t="str">
+      <c r="J2" s="224" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="K2" s="212"/>
+      <c r="K2" s="224"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10454,12 +10443,12 @@
       <c r="J4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="182" t="s">
+      <c r="K4" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="184"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="183"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="186"/>
       <c r="O4" s="39" t="s">
         <v>56</v>
       </c>
@@ -10501,12 +10490,12 @@
       <c r="J5" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="K5" s="213" t="s">
+      <c r="K5" s="221" t="s">
         <v>219</v>
       </c>
-      <c r="L5" s="214"/>
-      <c r="M5" s="214"/>
-      <c r="N5" s="215"/>
+      <c r="L5" s="222"/>
+      <c r="M5" s="222"/>
+      <c r="N5" s="223"/>
       <c r="O5" s="141" t="s">
         <v>217</v>
       </c>
@@ -10536,10 +10525,10 @@
       <c r="H6" s="62"/>
       <c r="I6" s="62"/>
       <c r="J6" s="81"/>
-      <c r="K6" s="209"/>
-      <c r="L6" s="210"/>
-      <c r="M6" s="210"/>
-      <c r="N6" s="211"/>
+      <c r="K6" s="218"/>
+      <c r="L6" s="219"/>
+      <c r="M6" s="219"/>
+      <c r="N6" s="220"/>
       <c r="O6" s="86"/>
       <c r="P6" s="87"/>
       <c r="Q6" s="75"/>
@@ -10561,10 +10550,10 @@
       <c r="H7" s="62"/>
       <c r="I7" s="62"/>
       <c r="J7" s="81"/>
-      <c r="K7" s="209"/>
-      <c r="L7" s="210"/>
-      <c r="M7" s="210"/>
-      <c r="N7" s="211"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="219"/>
+      <c r="M7" s="219"/>
+      <c r="N7" s="220"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
       <c r="Q7" s="75"/>
@@ -10586,10 +10575,10 @@
       <c r="H8" s="62"/>
       <c r="I8" s="62"/>
       <c r="J8" s="81"/>
-      <c r="K8" s="209"/>
-      <c r="L8" s="210"/>
-      <c r="M8" s="210"/>
-      <c r="N8" s="211"/>
+      <c r="K8" s="218"/>
+      <c r="L8" s="219"/>
+      <c r="M8" s="219"/>
+      <c r="N8" s="220"/>
       <c r="O8" s="87"/>
       <c r="P8" s="87"/>
       <c r="Q8" s="75"/>
@@ -10611,10 +10600,10 @@
       <c r="H9" s="62"/>
       <c r="I9" s="62"/>
       <c r="J9" s="81"/>
-      <c r="K9" s="209"/>
-      <c r="L9" s="210"/>
-      <c r="M9" s="210"/>
-      <c r="N9" s="211"/>
+      <c r="K9" s="218"/>
+      <c r="L9" s="219"/>
+      <c r="M9" s="219"/>
+      <c r="N9" s="220"/>
       <c r="O9" s="87"/>
       <c r="P9" s="87"/>
       <c r="Q9" s="75"/>
@@ -10636,10 +10625,10 @@
       <c r="H10" s="62"/>
       <c r="I10" s="62"/>
       <c r="J10" s="81"/>
-      <c r="K10" s="209"/>
-      <c r="L10" s="210"/>
-      <c r="M10" s="210"/>
-      <c r="N10" s="211"/>
+      <c r="K10" s="218"/>
+      <c r="L10" s="219"/>
+      <c r="M10" s="219"/>
+      <c r="N10" s="220"/>
       <c r="O10" s="87"/>
       <c r="P10" s="87"/>
       <c r="Q10" s="75"/>
@@ -10661,10 +10650,10 @@
       <c r="H11" s="62"/>
       <c r="I11" s="62"/>
       <c r="J11" s="81"/>
-      <c r="K11" s="209"/>
-      <c r="L11" s="210"/>
-      <c r="M11" s="210"/>
-      <c r="N11" s="211"/>
+      <c r="K11" s="218"/>
+      <c r="L11" s="219"/>
+      <c r="M11" s="219"/>
+      <c r="N11" s="220"/>
       <c r="O11" s="87"/>
       <c r="P11" s="87"/>
       <c r="Q11" s="75"/>
@@ -10686,10 +10675,10 @@
       <c r="H12" s="62"/>
       <c r="I12" s="62"/>
       <c r="J12" s="81"/>
-      <c r="K12" s="209"/>
-      <c r="L12" s="210"/>
-      <c r="M12" s="210"/>
-      <c r="N12" s="211"/>
+      <c r="K12" s="218"/>
+      <c r="L12" s="219"/>
+      <c r="M12" s="219"/>
+      <c r="N12" s="220"/>
       <c r="O12" s="84"/>
       <c r="P12" s="84"/>
       <c r="Q12" s="75"/>
@@ -10711,10 +10700,10 @@
       <c r="H13" s="62"/>
       <c r="I13" s="62"/>
       <c r="J13" s="81"/>
-      <c r="K13" s="209"/>
-      <c r="L13" s="210"/>
-      <c r="M13" s="210"/>
-      <c r="N13" s="211"/>
+      <c r="K13" s="218"/>
+      <c r="L13" s="219"/>
+      <c r="M13" s="219"/>
+      <c r="N13" s="220"/>
       <c r="O13" s="84"/>
       <c r="P13" s="84"/>
       <c r="Q13" s="75"/>
@@ -10736,10 +10725,10 @@
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
       <c r="J14" s="81"/>
-      <c r="K14" s="209"/>
-      <c r="L14" s="210"/>
-      <c r="M14" s="210"/>
-      <c r="N14" s="211"/>
+      <c r="K14" s="218"/>
+      <c r="L14" s="219"/>
+      <c r="M14" s="219"/>
+      <c r="N14" s="220"/>
       <c r="O14" s="80"/>
       <c r="P14" s="80"/>
       <c r="Q14" s="75"/>
@@ -10761,10 +10750,10 @@
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
       <c r="J15" s="81"/>
-      <c r="K15" s="209"/>
-      <c r="L15" s="210"/>
-      <c r="M15" s="210"/>
-      <c r="N15" s="211"/>
+      <c r="K15" s="218"/>
+      <c r="L15" s="219"/>
+      <c r="M15" s="219"/>
+      <c r="N15" s="220"/>
       <c r="O15" s="80"/>
       <c r="P15" s="80"/>
       <c r="Q15" s="75"/>
@@ -10786,10 +10775,10 @@
       <c r="H16" s="62"/>
       <c r="I16" s="62"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="209"/>
-      <c r="L16" s="210"/>
-      <c r="M16" s="210"/>
-      <c r="N16" s="211"/>
+      <c r="K16" s="218"/>
+      <c r="L16" s="219"/>
+      <c r="M16" s="219"/>
+      <c r="N16" s="220"/>
       <c r="O16" s="71"/>
       <c r="P16" s="59"/>
       <c r="Q16" s="75"/>
@@ -10811,10 +10800,10 @@
       <c r="H17" s="62"/>
       <c r="I17" s="62"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="209"/>
-      <c r="L17" s="210"/>
-      <c r="M17" s="210"/>
-      <c r="N17" s="211"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="219"/>
+      <c r="M17" s="219"/>
+      <c r="N17" s="220"/>
       <c r="O17" s="59"/>
       <c r="P17" s="59"/>
       <c r="Q17" s="75"/>
@@ -10836,10 +10825,10 @@
       <c r="H18" s="62"/>
       <c r="I18" s="62"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="209"/>
-      <c r="L18" s="210"/>
-      <c r="M18" s="210"/>
-      <c r="N18" s="211"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="219"/>
+      <c r="M18" s="219"/>
+      <c r="N18" s="220"/>
       <c r="O18" s="59"/>
       <c r="P18" s="59"/>
       <c r="Q18" s="75"/>
@@ -10861,10 +10850,10 @@
       <c r="H19" s="62"/>
       <c r="I19" s="62"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="209"/>
-      <c r="L19" s="210"/>
-      <c r="M19" s="210"/>
-      <c r="N19" s="211"/>
+      <c r="K19" s="218"/>
+      <c r="L19" s="219"/>
+      <c r="M19" s="219"/>
+      <c r="N19" s="220"/>
       <c r="O19" s="59"/>
       <c r="P19" s="59"/>
       <c r="Q19" s="75"/>
@@ -10886,10 +10875,10 @@
       <c r="H20" s="62"/>
       <c r="I20" s="62"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="209"/>
-      <c r="L20" s="210"/>
-      <c r="M20" s="210"/>
-      <c r="N20" s="211"/>
+      <c r="K20" s="218"/>
+      <c r="L20" s="219"/>
+      <c r="M20" s="219"/>
+      <c r="N20" s="220"/>
       <c r="O20" s="59"/>
       <c r="P20" s="59"/>
       <c r="Q20" s="75"/>
@@ -10911,10 +10900,10 @@
       <c r="H21" s="62"/>
       <c r="I21" s="62"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="209"/>
-      <c r="L21" s="210"/>
-      <c r="M21" s="210"/>
-      <c r="N21" s="211"/>
+      <c r="K21" s="218"/>
+      <c r="L21" s="219"/>
+      <c r="M21" s="219"/>
+      <c r="N21" s="220"/>
       <c r="O21" s="59"/>
       <c r="P21" s="59"/>
       <c r="Q21" s="75"/>
@@ -10936,10 +10925,10 @@
       <c r="H22" s="62"/>
       <c r="I22" s="62"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="209"/>
-      <c r="L22" s="210"/>
-      <c r="M22" s="210"/>
-      <c r="N22" s="211"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="219"/>
+      <c r="M22" s="219"/>
+      <c r="N22" s="220"/>
       <c r="O22" s="59"/>
       <c r="P22" s="59"/>
       <c r="Q22" s="75"/>
@@ -10961,10 +10950,10 @@
       <c r="H23" s="62"/>
       <c r="I23" s="62"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="209"/>
-      <c r="L23" s="210"/>
-      <c r="M23" s="210"/>
-      <c r="N23" s="211"/>
+      <c r="K23" s="218"/>
+      <c r="L23" s="219"/>
+      <c r="M23" s="219"/>
+      <c r="N23" s="220"/>
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
       <c r="Q23" s="75"/>
@@ -10986,10 +10975,10 @@
       <c r="H24" s="62"/>
       <c r="I24" s="62"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="209"/>
-      <c r="L24" s="210"/>
-      <c r="M24" s="210"/>
-      <c r="N24" s="211"/>
+      <c r="K24" s="218"/>
+      <c r="L24" s="219"/>
+      <c r="M24" s="219"/>
+      <c r="N24" s="220"/>
       <c r="O24" s="59"/>
       <c r="P24" s="59"/>
       <c r="Q24" s="75"/>
@@ -11011,10 +11000,10 @@
       <c r="H25" s="62"/>
       <c r="I25" s="62"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="209"/>
-      <c r="L25" s="210"/>
-      <c r="M25" s="210"/>
-      <c r="N25" s="211"/>
+      <c r="K25" s="218"/>
+      <c r="L25" s="219"/>
+      <c r="M25" s="219"/>
+      <c r="N25" s="220"/>
       <c r="O25" s="59"/>
       <c r="P25" s="59"/>
       <c r="Q25" s="75"/>
@@ -11036,10 +11025,10 @@
       <c r="H26" s="62"/>
       <c r="I26" s="62"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="209"/>
-      <c r="L26" s="210"/>
-      <c r="M26" s="210"/>
-      <c r="N26" s="211"/>
+      <c r="K26" s="218"/>
+      <c r="L26" s="219"/>
+      <c r="M26" s="219"/>
+      <c r="N26" s="220"/>
       <c r="O26" s="59"/>
       <c r="P26" s="59"/>
       <c r="Q26" s="75"/>
@@ -11061,10 +11050,10 @@
       <c r="H27" s="62"/>
       <c r="I27" s="62"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="209"/>
-      <c r="L27" s="210"/>
-      <c r="M27" s="210"/>
-      <c r="N27" s="211"/>
+      <c r="K27" s="218"/>
+      <c r="L27" s="219"/>
+      <c r="M27" s="219"/>
+      <c r="N27" s="220"/>
       <c r="O27" s="59"/>
       <c r="P27" s="59"/>
       <c r="Q27" s="75"/>
@@ -11086,10 +11075,10 @@
       <c r="H28" s="62"/>
       <c r="I28" s="62"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="209"/>
-      <c r="L28" s="210"/>
-      <c r="M28" s="210"/>
-      <c r="N28" s="211"/>
+      <c r="K28" s="218"/>
+      <c r="L28" s="219"/>
+      <c r="M28" s="219"/>
+      <c r="N28" s="220"/>
       <c r="O28" s="59"/>
       <c r="P28" s="59"/>
       <c r="Q28" s="75"/>
@@ -11111,10 +11100,10 @@
       <c r="H29" s="62"/>
       <c r="I29" s="62"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="209"/>
-      <c r="L29" s="210"/>
-      <c r="M29" s="210"/>
-      <c r="N29" s="211"/>
+      <c r="K29" s="218"/>
+      <c r="L29" s="219"/>
+      <c r="M29" s="219"/>
+      <c r="N29" s="220"/>
       <c r="O29" s="59"/>
       <c r="P29" s="59"/>
       <c r="Q29" s="75"/>
@@ -11136,10 +11125,10 @@
       <c r="H30" s="62"/>
       <c r="I30" s="62"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="209"/>
-      <c r="L30" s="210"/>
-      <c r="M30" s="210"/>
-      <c r="N30" s="211"/>
+      <c r="K30" s="218"/>
+      <c r="L30" s="219"/>
+      <c r="M30" s="219"/>
+      <c r="N30" s="220"/>
       <c r="O30" s="59"/>
       <c r="P30" s="59"/>
       <c r="Q30" s="75"/>
@@ -11161,10 +11150,10 @@
       <c r="H31" s="62"/>
       <c r="I31" s="62"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="209"/>
-      <c r="L31" s="210"/>
-      <c r="M31" s="210"/>
-      <c r="N31" s="211"/>
+      <c r="K31" s="218"/>
+      <c r="L31" s="219"/>
+      <c r="M31" s="219"/>
+      <c r="N31" s="220"/>
       <c r="O31" s="59"/>
       <c r="P31" s="59"/>
       <c r="Q31" s="75"/>
@@ -11186,10 +11175,10 @@
       <c r="H32" s="62"/>
       <c r="I32" s="62"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="209"/>
-      <c r="L32" s="210"/>
-      <c r="M32" s="210"/>
-      <c r="N32" s="211"/>
+      <c r="K32" s="218"/>
+      <c r="L32" s="219"/>
+      <c r="M32" s="219"/>
+      <c r="N32" s="220"/>
       <c r="O32" s="59"/>
       <c r="P32" s="59"/>
       <c r="Q32" s="75"/>
@@ -11211,10 +11200,10 @@
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="209"/>
-      <c r="L33" s="210"/>
-      <c r="M33" s="210"/>
-      <c r="N33" s="211"/>
+      <c r="K33" s="218"/>
+      <c r="L33" s="219"/>
+      <c r="M33" s="219"/>
+      <c r="N33" s="220"/>
       <c r="O33" s="59"/>
       <c r="P33" s="59"/>
       <c r="Q33" s="75"/>
@@ -11236,10 +11225,10 @@
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
       <c r="J34" s="81"/>
-      <c r="K34" s="209"/>
-      <c r="L34" s="210"/>
-      <c r="M34" s="210"/>
-      <c r="N34" s="211"/>
+      <c r="K34" s="218"/>
+      <c r="L34" s="219"/>
+      <c r="M34" s="219"/>
+      <c r="N34" s="220"/>
       <c r="O34" s="84"/>
       <c r="P34" s="84"/>
       <c r="Q34" s="75"/>
@@ -11261,10 +11250,10 @@
       <c r="H35" s="62"/>
       <c r="I35" s="62"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="209"/>
-      <c r="L35" s="210"/>
-      <c r="M35" s="210"/>
-      <c r="N35" s="211"/>
+      <c r="K35" s="218"/>
+      <c r="L35" s="219"/>
+      <c r="M35" s="219"/>
+      <c r="N35" s="220"/>
       <c r="O35" s="59"/>
       <c r="P35" s="59"/>
       <c r="Q35" s="75"/>
@@ -11286,10 +11275,10 @@
       <c r="H36" s="62"/>
       <c r="I36" s="62"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="209"/>
-      <c r="L36" s="210"/>
-      <c r="M36" s="210"/>
-      <c r="N36" s="211"/>
+      <c r="K36" s="218"/>
+      <c r="L36" s="219"/>
+      <c r="M36" s="219"/>
+      <c r="N36" s="220"/>
       <c r="O36" s="59"/>
       <c r="P36" s="59"/>
       <c r="Q36" s="75"/>
@@ -11311,10 +11300,10 @@
       <c r="H37" s="62"/>
       <c r="I37" s="62"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="209"/>
-      <c r="L37" s="210"/>
-      <c r="M37" s="210"/>
-      <c r="N37" s="211"/>
+      <c r="K37" s="218"/>
+      <c r="L37" s="219"/>
+      <c r="M37" s="219"/>
+      <c r="N37" s="220"/>
       <c r="O37" s="59"/>
       <c r="P37" s="59"/>
       <c r="Q37" s="75"/>
@@ -11336,10 +11325,10 @@
       <c r="H38" s="62"/>
       <c r="I38" s="62"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="209"/>
-      <c r="L38" s="210"/>
-      <c r="M38" s="210"/>
-      <c r="N38" s="211"/>
+      <c r="K38" s="218"/>
+      <c r="L38" s="219"/>
+      <c r="M38" s="219"/>
+      <c r="N38" s="220"/>
       <c r="O38" s="59"/>
       <c r="P38" s="59"/>
       <c r="Q38" s="75"/>
@@ -11361,10 +11350,10 @@
       <c r="H39" s="62"/>
       <c r="I39" s="62"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="209"/>
-      <c r="L39" s="210"/>
-      <c r="M39" s="210"/>
-      <c r="N39" s="211"/>
+      <c r="K39" s="218"/>
+      <c r="L39" s="219"/>
+      <c r="M39" s="219"/>
+      <c r="N39" s="220"/>
       <c r="O39" s="59"/>
       <c r="P39" s="59"/>
       <c r="Q39" s="75"/>
@@ -11386,10 +11375,10 @@
       <c r="H40" s="62"/>
       <c r="I40" s="62"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="209"/>
-      <c r="L40" s="210"/>
-      <c r="M40" s="210"/>
-      <c r="N40" s="211"/>
+      <c r="K40" s="218"/>
+      <c r="L40" s="219"/>
+      <c r="M40" s="219"/>
+      <c r="N40" s="220"/>
       <c r="O40" s="73"/>
       <c r="P40" s="73"/>
       <c r="Q40" s="75"/>
@@ -11411,10 +11400,10 @@
       <c r="H41" s="62"/>
       <c r="I41" s="62"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="209"/>
-      <c r="L41" s="210"/>
-      <c r="M41" s="210"/>
-      <c r="N41" s="211"/>
+      <c r="K41" s="218"/>
+      <c r="L41" s="219"/>
+      <c r="M41" s="219"/>
+      <c r="N41" s="220"/>
       <c r="O41" s="73"/>
       <c r="P41" s="73"/>
       <c r="Q41" s="75"/>
@@ -11436,10 +11425,10 @@
       <c r="H42" s="62"/>
       <c r="I42" s="62"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="209"/>
-      <c r="L42" s="210"/>
-      <c r="M42" s="210"/>
-      <c r="N42" s="211"/>
+      <c r="K42" s="218"/>
+      <c r="L42" s="219"/>
+      <c r="M42" s="219"/>
+      <c r="N42" s="220"/>
       <c r="O42" s="73"/>
       <c r="P42" s="73"/>
       <c r="Q42" s="75"/>
@@ -11461,10 +11450,10 @@
       <c r="H43" s="62"/>
       <c r="I43" s="62"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="209"/>
-      <c r="L43" s="210"/>
-      <c r="M43" s="210"/>
-      <c r="N43" s="211"/>
+      <c r="K43" s="218"/>
+      <c r="L43" s="219"/>
+      <c r="M43" s="219"/>
+      <c r="N43" s="220"/>
       <c r="O43" s="73"/>
       <c r="P43" s="73"/>
       <c r="Q43" s="75"/>
@@ -11486,10 +11475,10 @@
       <c r="H44" s="62"/>
       <c r="I44" s="62"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="209"/>
-      <c r="L44" s="210"/>
-      <c r="M44" s="210"/>
-      <c r="N44" s="211"/>
+      <c r="K44" s="218"/>
+      <c r="L44" s="219"/>
+      <c r="M44" s="219"/>
+      <c r="N44" s="220"/>
       <c r="O44" s="73"/>
       <c r="P44" s="73"/>
       <c r="Q44" s="75"/>
@@ -11511,10 +11500,10 @@
       <c r="H45" s="62"/>
       <c r="I45" s="62"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="209"/>
-      <c r="L45" s="210"/>
-      <c r="M45" s="210"/>
-      <c r="N45" s="211"/>
+      <c r="K45" s="218"/>
+      <c r="L45" s="219"/>
+      <c r="M45" s="219"/>
+      <c r="N45" s="220"/>
       <c r="O45" s="73"/>
       <c r="P45" s="73"/>
       <c r="Q45" s="75"/>
@@ -11536,10 +11525,10 @@
       <c r="H46" s="62"/>
       <c r="I46" s="62"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="209"/>
-      <c r="L46" s="210"/>
-      <c r="M46" s="210"/>
-      <c r="N46" s="211"/>
+      <c r="K46" s="218"/>
+      <c r="L46" s="219"/>
+      <c r="M46" s="219"/>
+      <c r="N46" s="220"/>
       <c r="O46" s="73"/>
       <c r="P46" s="73"/>
       <c r="Q46" s="75"/>
@@ -11561,10 +11550,10 @@
       <c r="H47" s="62"/>
       <c r="I47" s="62"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="209"/>
-      <c r="L47" s="210"/>
-      <c r="M47" s="210"/>
-      <c r="N47" s="211"/>
+      <c r="K47" s="218"/>
+      <c r="L47" s="219"/>
+      <c r="M47" s="219"/>
+      <c r="N47" s="220"/>
       <c r="O47" s="73"/>
       <c r="P47" s="73"/>
       <c r="Q47" s="75"/>
@@ -11586,10 +11575,10 @@
       <c r="H48" s="62"/>
       <c r="I48" s="62"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="209"/>
-      <c r="L48" s="210"/>
-      <c r="M48" s="210"/>
-      <c r="N48" s="211"/>
+      <c r="K48" s="218"/>
+      <c r="L48" s="219"/>
+      <c r="M48" s="219"/>
+      <c r="N48" s="220"/>
       <c r="O48" s="73"/>
       <c r="P48" s="73"/>
       <c r="Q48" s="75"/>
@@ -11611,10 +11600,10 @@
       <c r="H49" s="62"/>
       <c r="I49" s="62"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="209"/>
-      <c r="L49" s="210"/>
-      <c r="M49" s="210"/>
-      <c r="N49" s="211"/>
+      <c r="K49" s="218"/>
+      <c r="L49" s="219"/>
+      <c r="M49" s="219"/>
+      <c r="N49" s="220"/>
       <c r="O49" s="73"/>
       <c r="P49" s="73"/>
       <c r="Q49" s="75"/>
@@ -11636,10 +11625,10 @@
       <c r="H50" s="62"/>
       <c r="I50" s="62"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="209"/>
-      <c r="L50" s="210"/>
-      <c r="M50" s="210"/>
-      <c r="N50" s="211"/>
+      <c r="K50" s="218"/>
+      <c r="L50" s="219"/>
+      <c r="M50" s="219"/>
+      <c r="N50" s="220"/>
       <c r="O50" s="73"/>
       <c r="P50" s="73"/>
       <c r="Q50" s="75"/>
@@ -11661,10 +11650,10 @@
       <c r="H51" s="62"/>
       <c r="I51" s="62"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="209"/>
-      <c r="L51" s="210"/>
-      <c r="M51" s="210"/>
-      <c r="N51" s="211"/>
+      <c r="K51" s="218"/>
+      <c r="L51" s="219"/>
+      <c r="M51" s="219"/>
+      <c r="N51" s="220"/>
       <c r="O51" s="73"/>
       <c r="P51" s="73"/>
       <c r="Q51" s="75"/>
@@ -11686,10 +11675,10 @@
       <c r="H52" s="62"/>
       <c r="I52" s="62"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="209"/>
-      <c r="L52" s="210"/>
-      <c r="M52" s="210"/>
-      <c r="N52" s="211"/>
+      <c r="K52" s="218"/>
+      <c r="L52" s="219"/>
+      <c r="M52" s="219"/>
+      <c r="N52" s="220"/>
       <c r="O52" s="73"/>
       <c r="P52" s="73"/>
       <c r="Q52" s="75"/>
@@ -11711,10 +11700,10 @@
       <c r="H53" s="62"/>
       <c r="I53" s="62"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="209"/>
-      <c r="L53" s="210"/>
-      <c r="M53" s="210"/>
-      <c r="N53" s="211"/>
+      <c r="K53" s="218"/>
+      <c r="L53" s="219"/>
+      <c r="M53" s="219"/>
+      <c r="N53" s="220"/>
       <c r="O53" s="73"/>
       <c r="P53" s="73"/>
       <c r="Q53" s="75"/>
@@ -11736,10 +11725,10 @@
       <c r="H54" s="62"/>
       <c r="I54" s="62"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="209"/>
-      <c r="L54" s="210"/>
-      <c r="M54" s="210"/>
-      <c r="N54" s="211"/>
+      <c r="K54" s="218"/>
+      <c r="L54" s="219"/>
+      <c r="M54" s="219"/>
+      <c r="N54" s="220"/>
       <c r="O54" s="73"/>
       <c r="P54" s="73"/>
       <c r="Q54" s="75"/>
@@ -11761,10 +11750,10 @@
       <c r="H55" s="62"/>
       <c r="I55" s="62"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="209"/>
-      <c r="L55" s="210"/>
-      <c r="M55" s="210"/>
-      <c r="N55" s="211"/>
+      <c r="K55" s="218"/>
+      <c r="L55" s="219"/>
+      <c r="M55" s="219"/>
+      <c r="N55" s="220"/>
       <c r="O55" s="73"/>
       <c r="P55" s="73"/>
       <c r="Q55" s="75"/>
@@ -11786,10 +11775,10 @@
       <c r="H56" s="62"/>
       <c r="I56" s="62"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="209"/>
-      <c r="L56" s="210"/>
-      <c r="M56" s="210"/>
-      <c r="N56" s="211"/>
+      <c r="K56" s="218"/>
+      <c r="L56" s="219"/>
+      <c r="M56" s="219"/>
+      <c r="N56" s="220"/>
       <c r="O56" s="73"/>
       <c r="P56" s="73"/>
       <c r="Q56" s="75"/>
@@ -11811,10 +11800,10 @@
       <c r="H57" s="62"/>
       <c r="I57" s="62"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="209"/>
-      <c r="L57" s="210"/>
-      <c r="M57" s="210"/>
-      <c r="N57" s="211"/>
+      <c r="K57" s="218"/>
+      <c r="L57" s="219"/>
+      <c r="M57" s="219"/>
+      <c r="N57" s="220"/>
       <c r="O57" s="73"/>
       <c r="P57" s="73"/>
       <c r="Q57" s="75"/>
@@ -11836,10 +11825,10 @@
       <c r="H58" s="62"/>
       <c r="I58" s="62"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="209"/>
-      <c r="L58" s="210"/>
-      <c r="M58" s="210"/>
-      <c r="N58" s="211"/>
+      <c r="K58" s="218"/>
+      <c r="L58" s="219"/>
+      <c r="M58" s="219"/>
+      <c r="N58" s="220"/>
       <c r="O58" s="73"/>
       <c r="P58" s="73"/>
       <c r="Q58" s="75"/>
@@ -11861,10 +11850,10 @@
       <c r="H59" s="62"/>
       <c r="I59" s="62"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="209"/>
-      <c r="L59" s="210"/>
-      <c r="M59" s="210"/>
-      <c r="N59" s="211"/>
+      <c r="K59" s="218"/>
+      <c r="L59" s="219"/>
+      <c r="M59" s="219"/>
+      <c r="N59" s="220"/>
       <c r="O59" s="73"/>
       <c r="P59" s="73"/>
       <c r="Q59" s="75"/>
@@ -11886,10 +11875,10 @@
       <c r="H60" s="62"/>
       <c r="I60" s="62"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="209"/>
-      <c r="L60" s="210"/>
-      <c r="M60" s="210"/>
-      <c r="N60" s="211"/>
+      <c r="K60" s="218"/>
+      <c r="L60" s="219"/>
+      <c r="M60" s="219"/>
+      <c r="N60" s="220"/>
       <c r="O60" s="73"/>
       <c r="P60" s="73"/>
       <c r="Q60" s="75"/>
@@ -11911,10 +11900,10 @@
       <c r="H61" s="62"/>
       <c r="I61" s="62"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="209"/>
-      <c r="L61" s="210"/>
-      <c r="M61" s="210"/>
-      <c r="N61" s="211"/>
+      <c r="K61" s="218"/>
+      <c r="L61" s="219"/>
+      <c r="M61" s="219"/>
+      <c r="N61" s="220"/>
       <c r="O61" s="73"/>
       <c r="P61" s="73"/>
       <c r="Q61" s="75"/>
@@ -11936,10 +11925,10 @@
       <c r="H62" s="62"/>
       <c r="I62" s="62"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="209"/>
-      <c r="L62" s="210"/>
-      <c r="M62" s="210"/>
-      <c r="N62" s="211"/>
+      <c r="K62" s="218"/>
+      <c r="L62" s="219"/>
+      <c r="M62" s="219"/>
+      <c r="N62" s="220"/>
       <c r="O62" s="83"/>
       <c r="P62" s="83"/>
       <c r="Q62" s="75"/>
@@ -11961,10 +11950,10 @@
       <c r="H63" s="62"/>
       <c r="I63" s="62"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="209"/>
-      <c r="L63" s="210"/>
-      <c r="M63" s="210"/>
-      <c r="N63" s="211"/>
+      <c r="K63" s="218"/>
+      <c r="L63" s="219"/>
+      <c r="M63" s="219"/>
+      <c r="N63" s="220"/>
       <c r="O63" s="83"/>
       <c r="P63" s="83"/>
       <c r="Q63" s="75"/>
@@ -11986,10 +11975,10 @@
       <c r="H64" s="62"/>
       <c r="I64" s="62"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="209"/>
-      <c r="L64" s="210"/>
-      <c r="M64" s="210"/>
-      <c r="N64" s="211"/>
+      <c r="K64" s="218"/>
+      <c r="L64" s="219"/>
+      <c r="M64" s="219"/>
+      <c r="N64" s="220"/>
       <c r="O64" s="83"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="75"/>
@@ -12009,10 +11998,10 @@
       <c r="H65" s="62"/>
       <c r="I65" s="62"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="209"/>
-      <c r="L65" s="210"/>
-      <c r="M65" s="210"/>
-      <c r="N65" s="211"/>
+      <c r="K65" s="218"/>
+      <c r="L65" s="219"/>
+      <c r="M65" s="219"/>
+      <c r="N65" s="220"/>
       <c r="O65" s="83"/>
       <c r="P65" s="83"/>
       <c r="Q65" s="75"/>
@@ -12032,10 +12021,10 @@
       <c r="H66" s="62"/>
       <c r="I66" s="62"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="209"/>
-      <c r="L66" s="210"/>
-      <c r="M66" s="210"/>
-      <c r="N66" s="211"/>
+      <c r="K66" s="218"/>
+      <c r="L66" s="219"/>
+      <c r="M66" s="219"/>
+      <c r="N66" s="220"/>
       <c r="O66" s="83"/>
       <c r="P66" s="83"/>
       <c r="Q66" s="75"/>
@@ -12055,10 +12044,10 @@
       <c r="H67" s="62"/>
       <c r="I67" s="62"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="209"/>
-      <c r="L67" s="210"/>
-      <c r="M67" s="210"/>
-      <c r="N67" s="211"/>
+      <c r="K67" s="218"/>
+      <c r="L67" s="219"/>
+      <c r="M67" s="219"/>
+      <c r="N67" s="220"/>
       <c r="O67" s="83"/>
       <c r="P67" s="83"/>
       <c r="Q67" s="75"/>
@@ -12078,10 +12067,10 @@
       <c r="H68" s="62"/>
       <c r="I68" s="62"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="209"/>
-      <c r="L68" s="210"/>
-      <c r="M68" s="210"/>
-      <c r="N68" s="211"/>
+      <c r="K68" s="218"/>
+      <c r="L68" s="219"/>
+      <c r="M68" s="219"/>
+      <c r="N68" s="220"/>
       <c r="O68" s="83"/>
       <c r="P68" s="83"/>
       <c r="Q68" s="75"/>
@@ -12101,10 +12090,10 @@
       <c r="H69" s="62"/>
       <c r="I69" s="62"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="209"/>
-      <c r="L69" s="210"/>
-      <c r="M69" s="210"/>
-      <c r="N69" s="211"/>
+      <c r="K69" s="218"/>
+      <c r="L69" s="219"/>
+      <c r="M69" s="219"/>
+      <c r="N69" s="220"/>
       <c r="O69" s="83"/>
       <c r="P69" s="83"/>
       <c r="Q69" s="75"/>
@@ -12124,10 +12113,10 @@
       <c r="H70" s="62"/>
       <c r="I70" s="62"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="209"/>
-      <c r="L70" s="210"/>
-      <c r="M70" s="210"/>
-      <c r="N70" s="211"/>
+      <c r="K70" s="218"/>
+      <c r="L70" s="219"/>
+      <c r="M70" s="219"/>
+      <c r="N70" s="220"/>
       <c r="O70" s="83"/>
       <c r="P70" s="83"/>
       <c r="Q70" s="75"/>
@@ -12147,10 +12136,10 @@
       <c r="H71" s="62"/>
       <c r="I71" s="62"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="209"/>
-      <c r="L71" s="210"/>
-      <c r="M71" s="210"/>
-      <c r="N71" s="211"/>
+      <c r="K71" s="218"/>
+      <c r="L71" s="219"/>
+      <c r="M71" s="219"/>
+      <c r="N71" s="220"/>
       <c r="O71" s="83"/>
       <c r="P71" s="83"/>
       <c r="Q71" s="75"/>
@@ -12170,10 +12159,10 @@
       <c r="H72" s="62"/>
       <c r="I72" s="62"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="209"/>
-      <c r="L72" s="210"/>
-      <c r="M72" s="210"/>
-      <c r="N72" s="211"/>
+      <c r="K72" s="218"/>
+      <c r="L72" s="219"/>
+      <c r="M72" s="219"/>
+      <c r="N72" s="220"/>
       <c r="O72" s="83"/>
       <c r="P72" s="83"/>
       <c r="Q72" s="75"/>
@@ -12193,10 +12182,10 @@
       <c r="H73" s="62"/>
       <c r="I73" s="62"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="209"/>
-      <c r="L73" s="210"/>
-      <c r="M73" s="210"/>
-      <c r="N73" s="211"/>
+      <c r="K73" s="218"/>
+      <c r="L73" s="219"/>
+      <c r="M73" s="219"/>
+      <c r="N73" s="220"/>
       <c r="O73" s="83"/>
       <c r="P73" s="83"/>
       <c r="Q73" s="75"/>
@@ -12216,10 +12205,10 @@
       <c r="H74" s="62"/>
       <c r="I74" s="62"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="209"/>
-      <c r="L74" s="210"/>
-      <c r="M74" s="210"/>
-      <c r="N74" s="211"/>
+      <c r="K74" s="218"/>
+      <c r="L74" s="219"/>
+      <c r="M74" s="219"/>
+      <c r="N74" s="220"/>
       <c r="O74" s="83"/>
       <c r="P74" s="83"/>
       <c r="Q74" s="75"/>
@@ -12239,10 +12228,10 @@
       <c r="H75" s="62"/>
       <c r="I75" s="62"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="209"/>
-      <c r="L75" s="210"/>
-      <c r="M75" s="210"/>
-      <c r="N75" s="211"/>
+      <c r="K75" s="218"/>
+      <c r="L75" s="219"/>
+      <c r="M75" s="219"/>
+      <c r="N75" s="220"/>
       <c r="O75" s="83"/>
       <c r="P75" s="83"/>
       <c r="Q75" s="75"/>
@@ -12262,10 +12251,10 @@
       <c r="H76" s="62"/>
       <c r="I76" s="62"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="209"/>
-      <c r="L76" s="210"/>
-      <c r="M76" s="210"/>
-      <c r="N76" s="211"/>
+      <c r="K76" s="218"/>
+      <c r="L76" s="219"/>
+      <c r="M76" s="219"/>
+      <c r="N76" s="220"/>
       <c r="O76" s="83"/>
       <c r="P76" s="83"/>
       <c r="Q76" s="75"/>
@@ -12285,10 +12274,10 @@
       <c r="H77" s="62"/>
       <c r="I77" s="62"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="209"/>
-      <c r="L77" s="210"/>
-      <c r="M77" s="210"/>
-      <c r="N77" s="211"/>
+      <c r="K77" s="218"/>
+      <c r="L77" s="219"/>
+      <c r="M77" s="219"/>
+      <c r="N77" s="220"/>
       <c r="O77" s="83"/>
       <c r="P77" s="83"/>
       <c r="Q77" s="75"/>
@@ -12308,10 +12297,10 @@
       <c r="H78" s="62"/>
       <c r="I78" s="62"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="209"/>
-      <c r="L78" s="210"/>
-      <c r="M78" s="210"/>
-      <c r="N78" s="211"/>
+      <c r="K78" s="218"/>
+      <c r="L78" s="219"/>
+      <c r="M78" s="219"/>
+      <c r="N78" s="220"/>
       <c r="O78" s="83"/>
       <c r="P78" s="83"/>
       <c r="Q78" s="75"/>
@@ -12331,10 +12320,10 @@
       <c r="H79" s="62"/>
       <c r="I79" s="62"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="209"/>
-      <c r="L79" s="210"/>
-      <c r="M79" s="210"/>
-      <c r="N79" s="211"/>
+      <c r="K79" s="218"/>
+      <c r="L79" s="219"/>
+      <c r="M79" s="219"/>
+      <c r="N79" s="220"/>
       <c r="O79" s="83"/>
       <c r="P79" s="83"/>
       <c r="Q79" s="75"/>
@@ -12354,10 +12343,10 @@
       <c r="H80" s="62"/>
       <c r="I80" s="62"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="209"/>
-      <c r="L80" s="210"/>
-      <c r="M80" s="210"/>
-      <c r="N80" s="211"/>
+      <c r="K80" s="218"/>
+      <c r="L80" s="219"/>
+      <c r="M80" s="219"/>
+      <c r="N80" s="220"/>
       <c r="O80" s="83"/>
       <c r="P80" s="83"/>
       <c r="Q80" s="75"/>
@@ -12377,10 +12366,10 @@
       <c r="H81" s="62"/>
       <c r="I81" s="62"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="209"/>
-      <c r="L81" s="210"/>
-      <c r="M81" s="210"/>
-      <c r="N81" s="211"/>
+      <c r="K81" s="218"/>
+      <c r="L81" s="219"/>
+      <c r="M81" s="219"/>
+      <c r="N81" s="220"/>
       <c r="O81" s="83"/>
       <c r="P81" s="83"/>
       <c r="Q81" s="75"/>
@@ -12400,10 +12389,10 @@
       <c r="H82" s="62"/>
       <c r="I82" s="62"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="209"/>
-      <c r="L82" s="210"/>
-      <c r="M82" s="210"/>
-      <c r="N82" s="211"/>
+      <c r="K82" s="218"/>
+      <c r="L82" s="219"/>
+      <c r="M82" s="219"/>
+      <c r="N82" s="220"/>
       <c r="O82" s="83"/>
       <c r="P82" s="83"/>
       <c r="Q82" s="75"/>
@@ -12423,10 +12412,10 @@
       <c r="H83" s="62"/>
       <c r="I83" s="62"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="209"/>
-      <c r="L83" s="210"/>
-      <c r="M83" s="210"/>
-      <c r="N83" s="211"/>
+      <c r="K83" s="218"/>
+      <c r="L83" s="219"/>
+      <c r="M83" s="219"/>
+      <c r="N83" s="220"/>
       <c r="O83" s="83"/>
       <c r="P83" s="83"/>
       <c r="Q83" s="75"/>
@@ -12446,10 +12435,10 @@
       <c r="H84" s="62"/>
       <c r="I84" s="62"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="209"/>
-      <c r="L84" s="210"/>
-      <c r="M84" s="210"/>
-      <c r="N84" s="211"/>
+      <c r="K84" s="218"/>
+      <c r="L84" s="219"/>
+      <c r="M84" s="219"/>
+      <c r="N84" s="220"/>
       <c r="O84" s="83"/>
       <c r="P84" s="83"/>
       <c r="Q84" s="75"/>
@@ -12469,10 +12458,10 @@
       <c r="H85" s="62"/>
       <c r="I85" s="62"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="209"/>
-      <c r="L85" s="210"/>
-      <c r="M85" s="210"/>
-      <c r="N85" s="211"/>
+      <c r="K85" s="218"/>
+      <c r="L85" s="219"/>
+      <c r="M85" s="219"/>
+      <c r="N85" s="220"/>
       <c r="O85" s="83"/>
       <c r="P85" s="83"/>
       <c r="Q85" s="75"/>
@@ -12492,10 +12481,10 @@
       <c r="H86" s="62"/>
       <c r="I86" s="62"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="209"/>
-      <c r="L86" s="210"/>
-      <c r="M86" s="210"/>
-      <c r="N86" s="211"/>
+      <c r="K86" s="218"/>
+      <c r="L86" s="219"/>
+      <c r="M86" s="219"/>
+      <c r="N86" s="220"/>
       <c r="O86" s="83"/>
       <c r="P86" s="83"/>
       <c r="Q86" s="75"/>
@@ -12515,10 +12504,10 @@
       <c r="H87" s="62"/>
       <c r="I87" s="62"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="209"/>
-      <c r="L87" s="210"/>
-      <c r="M87" s="210"/>
-      <c r="N87" s="211"/>
+      <c r="K87" s="218"/>
+      <c r="L87" s="219"/>
+      <c r="M87" s="219"/>
+      <c r="N87" s="220"/>
       <c r="O87" s="83"/>
       <c r="P87" s="83"/>
       <c r="Q87" s="75"/>
@@ -12538,10 +12527,10 @@
       <c r="H88" s="62"/>
       <c r="I88" s="62"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="209"/>
-      <c r="L88" s="210"/>
-      <c r="M88" s="210"/>
-      <c r="N88" s="211"/>
+      <c r="K88" s="218"/>
+      <c r="L88" s="219"/>
+      <c r="M88" s="219"/>
+      <c r="N88" s="220"/>
       <c r="O88" s="83"/>
       <c r="P88" s="83"/>
       <c r="Q88" s="75"/>
@@ -12561,10 +12550,10 @@
       <c r="H89" s="62"/>
       <c r="I89" s="62"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="209"/>
-      <c r="L89" s="210"/>
-      <c r="M89" s="210"/>
-      <c r="N89" s="211"/>
+      <c r="K89" s="218"/>
+      <c r="L89" s="219"/>
+      <c r="M89" s="219"/>
+      <c r="N89" s="220"/>
       <c r="O89" s="83"/>
       <c r="P89" s="83"/>
       <c r="Q89" s="75"/>
@@ -12584,10 +12573,10 @@
       <c r="H90" s="62"/>
       <c r="I90" s="62"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="209"/>
-      <c r="L90" s="210"/>
-      <c r="M90" s="210"/>
-      <c r="N90" s="211"/>
+      <c r="K90" s="218"/>
+      <c r="L90" s="219"/>
+      <c r="M90" s="219"/>
+      <c r="N90" s="220"/>
       <c r="O90" s="83"/>
       <c r="P90" s="83"/>
       <c r="Q90" s="75"/>
@@ -12607,10 +12596,10 @@
       <c r="H91" s="62"/>
       <c r="I91" s="62"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="209"/>
-      <c r="L91" s="210"/>
-      <c r="M91" s="210"/>
-      <c r="N91" s="211"/>
+      <c r="K91" s="218"/>
+      <c r="L91" s="219"/>
+      <c r="M91" s="219"/>
+      <c r="N91" s="220"/>
       <c r="O91" s="83"/>
       <c r="P91" s="83"/>
       <c r="Q91" s="75"/>
@@ -12630,10 +12619,10 @@
       <c r="H92" s="62"/>
       <c r="I92" s="62"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="209"/>
-      <c r="L92" s="210"/>
-      <c r="M92" s="210"/>
-      <c r="N92" s="211"/>
+      <c r="K92" s="218"/>
+      <c r="L92" s="219"/>
+      <c r="M92" s="219"/>
+      <c r="N92" s="220"/>
       <c r="O92" s="83"/>
       <c r="P92" s="83"/>
       <c r="Q92" s="75"/>
@@ -12653,10 +12642,10 @@
       <c r="H93" s="62"/>
       <c r="I93" s="62"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="209"/>
-      <c r="L93" s="210"/>
-      <c r="M93" s="210"/>
-      <c r="N93" s="211"/>
+      <c r="K93" s="218"/>
+      <c r="L93" s="219"/>
+      <c r="M93" s="219"/>
+      <c r="N93" s="220"/>
       <c r="O93" s="83"/>
       <c r="P93" s="83"/>
       <c r="Q93" s="75"/>
@@ -12676,10 +12665,10 @@
       <c r="H94" s="62"/>
       <c r="I94" s="62"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="209"/>
-      <c r="L94" s="210"/>
-      <c r="M94" s="210"/>
-      <c r="N94" s="211"/>
+      <c r="K94" s="218"/>
+      <c r="L94" s="219"/>
+      <c r="M94" s="219"/>
+      <c r="N94" s="220"/>
       <c r="O94" s="83"/>
       <c r="P94" s="83"/>
       <c r="Q94" s="75"/>
@@ -12692,11 +12681,79 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
     <mergeCell ref="K77:N77"/>
     <mergeCell ref="K60:N60"/>
     <mergeCell ref="K87:N87"/>
@@ -12713,79 +12770,11 @@
     <mergeCell ref="K74:N74"/>
     <mergeCell ref="K75:N75"/>
     <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -12831,10 +12820,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="175"/>
+      <c r="B1" s="179"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12864,8 +12853,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="175"/>
-      <c r="B2" s="175"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="179"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13927,7 +13916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J2"/>
     </sheetView>
   </sheetViews>
@@ -13944,10 +13933,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="175"/>
+      <c r="B1" s="179"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13977,8 +13966,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="175"/>
-      <c r="B2" s="175"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="179"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
